--- a/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
@@ -7276,24 +7276,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3302010002</t>
+          <t>3501040001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ABONO CONIFERAS Y SETOS 750GR</t>
+          <t>INSECTICIDA PULGONES 10ML</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -7303,13 +7303,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>21.9</v>
+        <v>23.9</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>15.38</v>
+        <v>9.09</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -7321,10 +7321,10 @@
         <v>4.6</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>59</v>
@@ -7359,24 +7359,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3501040001</t>
+          <t>3302010002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGONES 10ML</t>
+          <t>ABONO CONIFERAS Y SETOS 750GR</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -7386,13 +7386,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>23.9</v>
+        <v>21.9</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>9.09</v>
+        <v>15.38</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>4.6</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>59</v>
@@ -7956,12 +7956,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3501110004</t>
+          <t>3501020003</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>L.U. ANTITALADRO 750ML</t>
+          <t>LU KETAR INSECTICIDA TOTAL PLUS 750ML</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -7983,13 +7983,13 @@
         <v>2</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>27.9</v>
+        <v>25.98</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>13.94</v>
+        <v>12.35</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>5.56</v>
+        <v>4.55</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
@@ -8001,10 +8001,10 @@
         <v>4.6</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>59</v>
@@ -8039,12 +8039,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3501020003</t>
+          <t>3501110004</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LU KETAR INSECTICIDA TOTAL PLUS 750ML</t>
+          <t>L.U. ANTITALADRO 750ML</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -8066,13 +8066,13 @@
         <v>2</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>25.98</v>
+        <v>27.9</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>12.35</v>
+        <v>13.94</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>4.55</v>
+        <v>5.56</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -8084,10 +8084,10 @@
         <v>4.6</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>59</v>
@@ -12997,16 +12997,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3402040004</t>
+          <t>3401040002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
+          <t>FERTILIZANTE GUANO LIQUIDO</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13024,13 +13032,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>7.49</v>
+        <v>7.99</v>
       </c>
       <c r="J24" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K24" s="4" t="n">
         <v>2.7</v>
-      </c>
-      <c r="K24" s="4" t="n">
-        <v>10</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -13042,10 +13050,10 @@
         <v>2.3</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>59</v>
@@ -13080,24 +13088,16 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3401040002</t>
+          <t>3402040004</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO LIQUIDO</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13115,13 +13115,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>7.99</v>
+        <v>7.49</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>3.11</v>
+        <v>2.7</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -13133,10 +13133,10 @@
         <v>2.3</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>59</v>
@@ -13254,24 +13254,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>3301040004</t>
+          <t>3901140003</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>VITHAL ABONO FOLIAR UNIVERSAL 750ML</t>
+          <t>LU INSECTICIDA ENTORNO ANIMALES 500ML</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -13287,7 +13287,7 @@
         <v>3.29</v>
       </c>
       <c r="K27" s="4" t="n">
-        <v>4.17</v>
+        <v>4.55</v>
       </c>
       <c r="L27" s="4" t="n">
         <v>0</v>
@@ -13299,10 +13299,10 @@
         <v>2.3</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P27" s="4" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q27" s="4" t="n">
         <v>59</v>
@@ -13337,24 +13337,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>3901140003</t>
+          <t>3301040004</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>LU INSECTICIDA ENTORNO ANIMALES 500ML</t>
+          <t>VITHAL ABONO FOLIAR UNIVERSAL 750ML</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -13370,7 +13370,7 @@
         <v>3.29</v>
       </c>
       <c r="K28" s="4" t="n">
-        <v>4.55</v>
+        <v>4.17</v>
       </c>
       <c r="L28" s="4" t="n">
         <v>0</v>
@@ -13382,10 +13382,10 @@
         <v>2.3</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P28" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q28" s="4" t="n">
         <v>59</v>
@@ -14413,24 +14413,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3302150003</t>
+          <t>3403010005</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO CITRICOS 750GR</t>
+          <t>ABONO GRAMA 2KG</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -14458,19 +14458,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -14479,12 +14479,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14496,24 +14496,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3601040002</t>
+          <t>3302210001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
+          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14541,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
@@ -14562,7 +14562,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -14579,24 +14579,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3501100001</t>
+          <t>3601050001</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ANTIMINADOR 50ML</t>
+          <t>BIO INSECTICIDA STOP 750ML</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14624,19 +14624,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -14645,12 +14645,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14662,24 +14662,16 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3901030001</t>
+          <t>3901030010</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>COMPO ANTIHORMIGAS</t>
-        </is>
-      </c>
-      <c r="C5" s="3" t="inlineStr">
-        <is>
-          <t>500G</t>
-        </is>
-      </c>
-      <c r="D5" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ECOFIN CINTA ARBORICOLA</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="inlineStr"/>
+      <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -14715,7 +14707,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>98</v>
+        <v>24</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -14736,7 +14728,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -14753,32 +14745,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3601050002</t>
+          <t>3401040008</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ACEITE DE NEEM</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr">
-        <is>
-          <t>450ML</t>
-        </is>
-      </c>
-      <c r="D6" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr"/>
+      <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -14806,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
@@ -14827,7 +14811,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -14844,24 +14828,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3501100013</t>
+          <t>3402020002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
+          <t>BIO FORTIGO FLORES 1L</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -14889,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -14910,7 +14894,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -14927,24 +14911,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3501080003</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
+          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14972,7 +14956,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
@@ -14993,7 +14977,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -15010,24 +14994,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3901110002</t>
+          <t>3302200018</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
+          <t>REGENERADOR SUELOS</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15055,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
@@ -15076,7 +15060,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -15093,24 +15077,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3902040002</t>
+          <t>3602030001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
+          <t>BIOFLOWER SAL DE COBRE 70511</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -15138,7 +15122,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -15159,7 +15143,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -15176,24 +15160,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3401040008</t>
+          <t>3904010004</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
+          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -15221,7 +15205,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
@@ -15242,7 +15226,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -15259,24 +15243,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3402060004</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA</t>
+          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -15304,16 +15288,16 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>25.56</v>
+        <v>24.44</v>
       </c>
       <c r="S12" s="5" t="n">
         <v>0</v>
@@ -15330,7 +15314,7 @@
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -15342,24 +15326,32 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3502010009</t>
+          <t>3602030003</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ENFERMEDADES ROSALES 10ML</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr"/>
-      <c r="D13" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA BIOLOGICO</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr">
+        <is>
+          <t>50G</t>
+        </is>
+      </c>
+      <c r="D13" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15387,19 +15379,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -15408,12 +15400,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -15425,12 +15417,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3901040001</t>
+          <t>3902040002</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS PISTOLA 750ML</t>
+          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -15470,7 +15462,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>82</v>
+        <v>2</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -15491,7 +15483,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -15508,24 +15500,32 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3501100022</t>
+          <t>3301040001</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PALMERAS (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr"/>
-      <c r="D15" s="3" t="inlineStr"/>
+          <t>ABONO LIQUIDO UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D15" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -15553,19 +15553,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -15574,12 +15574,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15591,24 +15591,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3402060004</t>
+          <t>3302210002</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
+          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -15636,19 +15636,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T16" s="8" t="inlineStr">
         <is>
@@ -15657,12 +15657,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -15674,24 +15674,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3501100015</t>
+          <t>3601040001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
+          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -15719,19 +15719,19 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q17" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R17" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T17" s="8" t="inlineStr">
         <is>
@@ -15740,12 +15740,12 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W17" s="4" t="inlineStr">
@@ -15757,32 +15757,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3301040001</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D18" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>YNJECT CONECTOR PALMERA</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr"/>
+      <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -15810,19 +15802,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>65.56</v>
+        <v>25.56</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -15831,12 +15823,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -15848,24 +15840,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3302170005</t>
+          <t>3901040001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>VARITAS HUERTO FRUTALES</t>
+          <t>ANTIHORMIGAS PISTOLA 750ML</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15893,7 +15885,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -15914,7 +15906,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -15931,24 +15923,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3501080003</t>
+          <t>3701010002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
+          <t>ROUNDUP GEL GARDEN</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>HERBICIDAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -15976,7 +15968,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -15997,7 +15989,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -16014,24 +16006,16 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3502010011</t>
+          <t>3501100001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA PHITOFTORA</t>
-        </is>
-      </c>
-      <c r="C21" s="3" t="inlineStr">
-        <is>
-          <t>45GR</t>
-        </is>
-      </c>
-      <c r="D21" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ANTIMINADOR 50ML</t>
+        </is>
+      </c>
+      <c r="C21" s="3" t="inlineStr"/>
+      <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
           <t>35</t>
@@ -16067,19 +16051,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q21" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R21" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T21" s="8" t="inlineStr">
         <is>
@@ -16088,12 +16072,12 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W21" s="4" t="inlineStr">
@@ -16105,12 +16089,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3902040001</t>
+          <t>3902070006</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
+          <t>ECOFIN TRAMPA MOSCAS</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -16150,7 +16134,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
@@ -16171,7 +16155,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -16188,24 +16172,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>3302210022</t>
+          <t>3401040003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
+          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16233,19 +16217,19 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q23" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R23" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T23" s="8" t="inlineStr">
         <is>
@@ -16254,12 +16238,12 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W23" s="4" t="inlineStr">
@@ -16271,24 +16255,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3402020002</t>
+          <t>3302170005</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>BIO FORTIGO FLORES 1L</t>
+          <t>VARITAS HUERTO FRUTALES</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -16316,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
@@ -16337,7 +16321,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -16354,24 +16338,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3501140005</t>
+          <t>3902070008</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
+          <t>FERO-TRAMPA FRUIT</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16399,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
@@ -16420,7 +16404,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -16437,24 +16421,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>3501040002</t>
+          <t>3901030007</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGON 750ML</t>
+          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -16482,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
@@ -16503,7 +16487,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -16520,24 +16504,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>3602030001</t>
+          <t>3402060002</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER SAL DE COBRE 70511</t>
+          <t>FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -16586,7 +16570,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -16603,24 +16587,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>3902070003</t>
+          <t>3501100002</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
+          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -16648,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
@@ -16669,7 +16653,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -16686,24 +16670,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>3402050003</t>
+          <t>3302140001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>COMPO ABRILLANTADOR 600ML</t>
+          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16731,7 +16715,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
@@ -16752,7 +16736,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -16769,24 +16753,24 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>3902070005</t>
+          <t>3501040003</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
+          <t>ANTIPULGONES LU 750 ML</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -16814,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>59</v>
@@ -16835,7 +16819,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -16852,24 +16836,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3302210001</t>
+          <t>3901110002</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
+          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -16897,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
@@ -16918,7 +16902,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -16935,12 +16919,12 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3901130003</t>
+          <t>3903020005</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA CARCOMA 200ML</t>
+          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
@@ -16980,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
@@ -17001,7 +16985,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -17018,12 +17002,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>3901040002</t>
+          <t>3901030012</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
+          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -17063,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
@@ -17084,7 +17068,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -17101,24 +17085,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>3301030004</t>
+          <t>3501140005</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
+          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -17146,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
@@ -17167,7 +17151,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -17184,24 +17168,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>3902070008</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA FRUIT</t>
+          <t>FERRO PLUS REVERDECIENTE</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -17229,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
@@ -17250,7 +17234,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -17267,24 +17251,32 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>3302100001</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr"/>
-      <c r="D36" s="3" t="inlineStr"/>
+          <t>ABONO CESPED BOLSA</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr">
+        <is>
+          <t>1I5KG</t>
+        </is>
+      </c>
+      <c r="D36" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17312,19 +17304,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
@@ -17333,12 +17325,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17350,24 +17342,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>3302210009</t>
+          <t>3902070005</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -17395,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
@@ -17416,7 +17408,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -17433,24 +17425,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>3502020002</t>
+          <t>3901130002</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>FUNGICIDA ROSALES 750ML</t>
+          <t>FIN INSECTOS CONCENTRADO 25ML</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -17478,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>22</v>
+        <v>38</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -17499,7 +17491,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17516,24 +17508,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>3501100002</t>
+          <t>3302070002</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
+          <t>ABONO GERANIOS SOLUBLE 800GR</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -17561,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
@@ -17582,7 +17574,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -17599,24 +17591,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>3501140001</t>
+          <t>3902070003</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>AVIDUST 1KG</t>
+          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -17644,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
@@ -17665,7 +17657,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -17682,24 +17674,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>3501040003</t>
+          <t>3901130001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ANTIPULGONES LU 750 ML</t>
+          <t>FIN CHINCHES Y PULGAS 150ML</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17727,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
@@ -17748,7 +17740,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -17765,24 +17757,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>3904010002</t>
+          <t>3402050003</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
+          <t>COMPO ABRILLANTADOR 600ML</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17810,7 +17802,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
@@ -17831,7 +17823,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -17848,32 +17840,24 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>3301030001</t>
+          <t>3902070009</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>2,5Kg</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERO-TRAMPA OLIVO</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -17901,7 +17885,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
@@ -17922,7 +17906,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -17939,24 +17923,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>3302140001</t>
+          <t>3901040002</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
+          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17984,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>48</v>
+        <v>18</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
@@ -18005,7 +17989,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -18022,24 +18006,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>3601040001</t>
+          <t>3302200003</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
+          <t>ABONO PALMERAS 500ML</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18067,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
@@ -18088,7 +18072,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -18105,24 +18089,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>3902020002</t>
+          <t>3502020003</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
+          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18150,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
@@ -18171,7 +18155,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -18188,24 +18172,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>3302210004</t>
+          <t>3902070004</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
+          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -18233,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -18254,7 +18238,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -18271,24 +18255,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>3402060002</t>
+          <t>3302210003</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE BONSAIS 500ML</t>
+          <t>CANABIUM REGULADOR PH 500ML 10893</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18316,7 +18300,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
@@ -18337,7 +18321,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -18354,24 +18338,24 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>3901110003</t>
+          <t>3501100022</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>PORTACEBO RATAS</t>
+          <t>YNJECT GO PALMERAS (NO VENTA)</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -18399,19 +18383,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
+        <v>50</v>
+      </c>
+      <c r="P49" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q49" s="4" t="n">
         <v>2</v>
       </c>
-      <c r="P49" s="4" t="n">
-        <v>59</v>
-      </c>
-      <c r="Q49" s="4" t="n">
-        <v>59</v>
-      </c>
       <c r="R49" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T49" s="8" t="inlineStr">
         <is>
@@ -18420,12 +18404,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -18437,24 +18421,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>3302200018</t>
+          <t>3502010009</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELOS</t>
+          <t>ENFERMEDADES ROSALES 10ML</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -18482,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -18503,7 +18487,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -18520,24 +18504,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>3701010002</t>
+          <t>3902010001</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ROUNDUP GEL GARDEN</t>
+          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>HERBICIDAS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18565,7 +18549,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
@@ -18586,7 +18570,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -18603,24 +18587,24 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>3401050003</t>
+          <t>3901040003</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
+          <t>LU ANTIHORMIGAS 750ML CAJA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -18648,7 +18632,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
@@ -18669,7 +18653,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -18686,32 +18670,24 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>3403030001</t>
+          <t>3302200017</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED LARGA DURACION</t>
-        </is>
-      </c>
-      <c r="C53" s="3" t="inlineStr">
-        <is>
-          <t>3KG</t>
-        </is>
-      </c>
-      <c r="D53" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>REGENERADOR SUELO 250ML</t>
+        </is>
+      </c>
+      <c r="C53" s="3" t="inlineStr"/>
+      <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -18739,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
@@ -18760,7 +18736,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -18777,24 +18753,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>3902070006</t>
+          <t>3502010005</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA MOSCAS</t>
+          <t>AZUFRE 450 GRS.</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18822,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
@@ -18843,7 +18819,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -18860,32 +18836,24 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>3403010003</t>
+          <t>3901030002</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED GRANDES JARDINES</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>7I5KG</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -18913,7 +18881,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>39</v>
+        <v>76</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
@@ -18934,7 +18902,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -18951,24 +18919,24 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>3901040003</t>
+          <t>3502010014</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>LU ANTIHORMIGAS 750ML CAJA</t>
+          <t>REVUS ANTIMILDIU 20ML</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -18996,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
@@ -19017,7 +18985,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -19034,24 +19002,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>3502010001</t>
+          <t>3901090003</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
+          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -19079,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
@@ -19100,7 +19068,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -19117,24 +19085,32 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>3902060002</t>
+          <t>3403030001</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr"/>
-      <c r="D58" s="3" t="inlineStr"/>
+          <t>ABONO CESPED LARGA DURACION</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>3KG</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -19162,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
@@ -19183,7 +19159,7 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -19200,12 +19176,12 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>3302210002</t>
+          <t>3301030003</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
+          <t>ABONO ROZE 1KG</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
@@ -19245,7 +19221,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>34</v>
+        <v>10</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
@@ -19266,7 +19242,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -19283,24 +19259,24 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>3403010005</t>
+          <t>3601050007</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>ABONO GRAMA 2KG</t>
+          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -19328,19 +19304,19 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q60" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R60" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S60" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T60" s="8" t="inlineStr">
         <is>
@@ -19349,12 +19325,12 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W60" s="4" t="inlineStr">
@@ -19366,24 +19342,16 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3401050003</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
-        </is>
-      </c>
-      <c r="C61" s="3" t="inlineStr">
-        <is>
-          <t>1I5KG</t>
-        </is>
-      </c>
-      <c r="D61" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
+        </is>
+      </c>
+      <c r="C61" s="3" t="inlineStr"/>
+      <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -19419,19 +19387,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q61" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R61" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S61" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T61" s="8" t="inlineStr">
         <is>
@@ -19440,12 +19408,12 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W61" s="4" t="inlineStr">
@@ -19457,24 +19425,24 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3903010001</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
+          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -19502,7 +19470,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
@@ -19523,7 +19491,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -19540,12 +19508,12 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>3502020003</t>
+          <t>3501100011</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
+          <t>PACK FRUTALES VITHAL</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
@@ -19585,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>59</v>
@@ -19606,7 +19574,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -19623,24 +19591,32 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3301030001</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr"/>
-      <c r="D64" s="3" t="inlineStr"/>
+          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>2,5Kg</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -19668,19 +19644,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>50</v>
+        <v>122</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T64" s="8" t="inlineStr">
         <is>
@@ -19689,12 +19665,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -19706,12 +19682,12 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>3901080002</t>
+          <t>3901090004</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
+          <t>ECOFIN TRAMPA RATONES</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
@@ -19751,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
@@ -19772,7 +19748,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -19789,24 +19765,24 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>3302200008</t>
+          <t>3903020003</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>AZULADOR DE HORTENSIAS 800GR</t>
+          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -19834,7 +19810,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>59</v>
@@ -19855,7 +19831,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -19872,12 +19848,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>3302070002</t>
+          <t>3302210022</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS SOLUBLE 800GR</t>
+          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -19917,19 +19893,19 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T67" s="8" t="inlineStr">
         <is>
@@ -19938,12 +19914,12 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
@@ -19955,24 +19931,24 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>3901030007</t>
+          <t>3501110005</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
+          <t>INSECTICIDA GERANIOS LU 750 ML</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
       <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -20000,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
@@ -20021,7 +19997,7 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -20038,24 +20014,24 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>3501100005</t>
+          <t>3902020002</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
+          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -20083,7 +20059,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
@@ -20104,7 +20080,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -20121,24 +20097,24 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>3403040000</t>
+          <t>3902070007</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
+          <t>FERO-TRAMPA CITRICOS</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
       <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -20166,7 +20142,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
@@ -20187,7 +20163,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -20204,24 +20180,24 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>3601050007</t>
+          <t>3301040005</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
+          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr"/>
       <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -20249,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
@@ -20270,7 +20246,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -20287,24 +20263,24 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>3302200017</t>
+          <t>3403040000</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELO 250ML</t>
+          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -20332,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
@@ -20353,7 +20329,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -20370,24 +20346,32 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>3902010001</t>
+          <t>3403010003</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr"/>
-      <c r="D73" s="3" t="inlineStr"/>
+          <t>ABONO CESPED GRANDES JARDINES</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>7I5KG</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -20415,7 +20399,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
@@ -20436,7 +20420,7 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
@@ -20453,12 +20437,12 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>3901050006</t>
+          <t>3901090001</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>TRAMPA SICUR TRAMP 2 UDS</t>
+          <t>COLA PARA RATONES RATIGLUE 135G</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr"/>
@@ -20498,7 +20482,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
@@ -20519,7 +20503,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -20536,24 +20520,24 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>3301030003</t>
+          <t>3501100013</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROZE 1KG</t>
+          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -20602,7 +20586,7 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -20619,24 +20603,24 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>3502010014</t>
+          <t>3901030009</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>REVUS ANTIMILDIU 20ML</t>
+          <t>CEBO ANTIHORMIGAS 10GR</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr"/>
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -20664,7 +20648,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
@@ -20685,7 +20669,7 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -20702,24 +20686,24 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>3302180002</t>
+          <t>3901140002</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE TOMATES 500ML</t>
+          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr"/>
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -20747,7 +20731,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
@@ -20768,7 +20752,7 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -20785,12 +20769,12 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>3301040005</t>
+          <t>3302100001</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
+          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr"/>
@@ -20830,7 +20814,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
@@ -20851,7 +20835,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -20868,24 +20852,24 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>3501100021</t>
+          <t>3302150003</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PINO (NO VENTA)</t>
+          <t>COMPO BIO CITRICOS 750GR</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr"/>
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -20913,19 +20897,19 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q79" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R79" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S79" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T79" s="8" t="inlineStr">
         <is>
@@ -20934,12 +20918,12 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W79" s="4" t="inlineStr">
@@ -20951,12 +20935,12 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>3901030002</t>
+          <t>3901130003</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
+          <t>INSECTICIDA CARCOMA 200ML</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr"/>
@@ -20996,7 +20980,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>76</v>
+        <v>14</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
@@ -21017,7 +21001,7 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
@@ -21034,24 +21018,24 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>3302210020</t>
+          <t>3901050006</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>ABONO TREPADORAS ECO 800GR</t>
+          <t>TRAMPA SICUR TRAMP 2 UDS</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr"/>
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -21079,19 +21063,19 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q81" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R81" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S81" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T81" s="8" t="inlineStr">
         <is>
@@ -21100,12 +21084,12 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W81" s="4" t="inlineStr">
@@ -21117,24 +21101,24 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>3401040003</t>
+          <t>3302200014</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
+          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr"/>
       <c r="D82" s="3" t="inlineStr"/>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -21162,7 +21146,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>20</v>
+        <v>43</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
@@ -21183,7 +21167,7 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
@@ -21200,32 +21184,24 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>3901030011</t>
+          <t>3302210009</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>KB NEXA HORMIGAS GRANULADO</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D83" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr"/>
+      <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -21253,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>38</v>
+        <v>2</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -21274,7 +21250,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -21291,24 +21267,24 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>3901130002</t>
+          <t>3501040002</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+          <t>INSECTICIDA PULGON 750ML</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr"/>
       <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -21336,7 +21312,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
@@ -21357,7 +21333,7 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
@@ -21374,17 +21350,17 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>3602030003</t>
+          <t>3601050002</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA BIOLOGICO</t>
+          <t>BIOFLOWER ACEITE DE NEEM</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr">
         <is>
-          <t>50G</t>
+          <t>450ML</t>
         </is>
       </c>
       <c r="D85" s="3" t="inlineStr">
@@ -21427,19 +21403,19 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q85" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R85" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S85" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T85" s="8" t="inlineStr">
         <is>
@@ -21448,12 +21424,12 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W85" s="4" t="inlineStr">
@@ -21465,24 +21441,24 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>3901030012</t>
+          <t>3302210020</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
+          <t>ABONO TREPADORAS ECO 800GR</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr"/>
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -21510,19 +21486,19 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T86" s="8" t="inlineStr">
         <is>
@@ -21531,12 +21507,12 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
@@ -21548,12 +21524,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>3903010001</t>
+          <t>3902060002</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
+          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
@@ -21593,7 +21569,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
@@ -21614,7 +21590,7 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
@@ -21631,24 +21607,24 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>3901090001</t>
+          <t>3502010001</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>COLA PARA RATONES RATIGLUE 135G</t>
+          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -21676,7 +21652,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
@@ -21697,7 +21673,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -21714,24 +21690,24 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>3904010004</t>
+          <t>3601050004</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
+          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -21759,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
@@ -21780,7 +21756,7 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
@@ -21797,12 +21773,12 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>3901090003</t>
+          <t>3901050001</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
+          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
@@ -21863,7 +21839,7 @@
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
@@ -21880,24 +21856,32 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>3302200003</t>
+          <t>3901030011</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>ABONO PALMERAS 500ML</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr"/>
-      <c r="D91" s="3" t="inlineStr"/>
+          <t>KB NEXA HORMIGAS GRANULADO</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D91" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -21925,7 +21909,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
@@ -21946,7 +21930,7 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
@@ -21963,24 +21947,24 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>3903020003</t>
+          <t>3502020002</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
+          <t>FUNGICIDA ROSALES 750ML</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr"/>
       <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
@@ -22008,7 +21992,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
@@ -22029,7 +22013,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -22046,24 +22030,24 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>3601050001</t>
+          <t>3902040001</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECTICIDA STOP 750ML</t>
+          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr"/>
       <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
@@ -22091,19 +22075,19 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q93" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R93" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S93" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T93" s="8" t="inlineStr">
         <is>
@@ -22112,12 +22096,12 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W93" s="4" t="inlineStr">
@@ -22129,24 +22113,24 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>3901050001</t>
+          <t>3501100015</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
+          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
@@ -22174,19 +22158,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T94" s="8" t="inlineStr">
         <is>
@@ -22195,12 +22179,12 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
@@ -22212,24 +22196,24 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>3501100011</t>
+          <t>3302210004</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>PACK FRUTALES VITHAL</t>
+          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
       <c r="D95" s="3" t="inlineStr"/>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -22257,7 +22241,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
@@ -22278,7 +22262,7 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
@@ -22295,12 +22279,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>3903020005</t>
+          <t>3901080002</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
+          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
@@ -22340,7 +22324,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
@@ -22361,7 +22345,7 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
@@ -22378,24 +22362,24 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>3302070001</t>
+          <t>3501100021</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS 750GR</t>
+          <t>YNJECT GO PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr"/>
       <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G97" s="4" t="n">
@@ -22423,19 +22407,19 @@
         <v>0</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="P97" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q97" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R97" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S97" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T97" s="8" t="inlineStr">
         <is>
@@ -22444,12 +22428,12 @@
       </c>
       <c r="U97" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V97" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W97" s="4" t="inlineStr">
@@ -22461,24 +22445,32 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>3901090004</t>
+          <t>3502010011</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA RATONES</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr"/>
-      <c r="D98" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA PHITOFTORA</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>45GR</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G98" s="4" t="n">
@@ -22506,19 +22498,19 @@
         <v>0</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P98" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q98" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R98" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T98" s="8" t="inlineStr">
         <is>
@@ -22527,12 +22519,12 @@
       </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V98" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W98" s="4" t="inlineStr">
@@ -22544,24 +22536,24 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>3901030010</t>
+          <t>3302120001</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ARBORICOLA</t>
+          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr"/>
       <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F99" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G99" s="4" t="n">
@@ -22589,7 +22581,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P99" s="4" t="n">
         <v>59</v>
@@ -22610,7 +22602,7 @@
       </c>
       <c r="U99" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V99" s="4" t="inlineStr">
@@ -22627,12 +22619,12 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>3302120001</t>
+          <t>3302070001</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
+          <t>ABONO GERANIOS 750GR</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr"/>
@@ -22672,7 +22664,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="P100" s="4" t="n">
         <v>59</v>
@@ -22693,7 +22685,7 @@
       </c>
       <c r="U100" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V100" s="4" t="inlineStr">
@@ -22710,12 +22702,12 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>3302210003</t>
+          <t>3302180002</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML 10893</t>
+          <t>FERTILIZANTE TOMATES 500ML</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr"/>
@@ -22755,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P101" s="4" t="n">
         <v>59</v>
@@ -22776,7 +22768,7 @@
       </c>
       <c r="U101" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V101" s="4" t="inlineStr">
@@ -22793,24 +22785,24 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>3302200014</t>
+          <t>3601040002</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
+          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
@@ -22838,7 +22830,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P102" s="4" t="n">
         <v>59</v>
@@ -22859,7 +22851,7 @@
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
@@ -22876,24 +22868,24 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>3902070004</t>
+          <t>3501100005</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
+          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
@@ -22921,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="P103" s="4" t="n">
         <v>59</v>
@@ -22942,7 +22934,7 @@
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
@@ -22959,24 +22951,24 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>3601050004</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
+          <t>ABONO CESPED BOLSA</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr"/>
       <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
@@ -23004,7 +22996,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P104" s="4" t="n">
         <v>59</v>
@@ -23025,7 +23017,7 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
@@ -23042,16 +23034,24 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>3901030009</t>
+          <t>3901030001</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>CEBO ANTIHORMIGAS 10GR</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr"/>
-      <c r="D105" s="3" t="inlineStr"/>
+          <t>COMPO ANTIHORMIGAS</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>500G</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -23087,7 +23087,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="P105" s="4" t="n">
         <v>59</v>
@@ -23108,7 +23108,7 @@
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
@@ -23125,24 +23125,24 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>3901130001</t>
+          <t>3501140001</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>FIN CHINCHES Y PULGAS 150ML</t>
+          <t>AVIDUST 1KG</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr"/>
       <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
@@ -23170,7 +23170,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P106" s="4" t="n">
         <v>59</v>
@@ -23191,7 +23191,7 @@
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
@@ -23208,24 +23208,24 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>3902070009</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA OLIVO</t>
+          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G107" s="4" t="n">
@@ -23253,19 +23253,19 @@
         <v>0</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="P107" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q107" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R107" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S107" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T107" s="8" t="inlineStr">
         <is>
@@ -23274,12 +23274,12 @@
       </c>
       <c r="U107" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V107" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W107" s="4" t="inlineStr">
@@ -23291,24 +23291,24 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>3902070007</t>
+          <t>3302200008</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA CITRICOS</t>
+          <t>AZULADOR DE HORTENSIAS 800GR</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="P108" s="4" t="n">
         <v>59</v>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
@@ -23374,24 +23374,24 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>3502010005</t>
+          <t>3904010002</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>AZUFRE 450 GRS.</t>
+          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr"/>
       <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P109" s="4" t="n">
         <v>59</v>
@@ -23440,7 +23440,7 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
@@ -23457,24 +23457,24 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>3501050002</t>
+          <t>3901110003</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
+          <t>PORTACEBO RATAS</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr"/>
       <c r="D110" s="3" t="inlineStr"/>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
@@ -23502,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="P110" s="4" t="n">
         <v>59</v>
@@ -23523,7 +23523,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -23540,12 +23540,12 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>3501110005</t>
+          <t>3501050002</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA GERANIOS LU 750 ML</t>
+          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr"/>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="P111" s="4" t="n">
         <v>59</v>
@@ -23606,7 +23606,7 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
@@ -23623,24 +23623,24 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>3502010007</t>
+          <t>3301030004</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
+          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr"/>
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G112" s="4" t="n">
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="P112" s="4" t="n">
         <v>59</v>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="U112" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V112" s="4" t="inlineStr">
@@ -23706,24 +23706,24 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>3901140002</t>
+          <t>3502010007</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
+          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr"/>
       <c r="D113" s="3" t="inlineStr"/>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G113" s="4" t="n">
@@ -23751,7 +23751,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P113" s="4" t="n">
         <v>59</v>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="U113" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V113" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
@@ -3943,12 +3943,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>3302160001</t>
+          <t>3302210008</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
+          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -3967,71 +3967,71 @@
         <v>90</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>47.94</v>
+        <v>48.65</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>17.12</v>
+        <v>17.71</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>13.64</v>
+        <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>13.7</v>
+        <v>22.9</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>38</v>
+        <v>-10</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>65.56</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>3302210008</t>
+          <t>3302160001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
+          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -4050,59 +4050,59 @@
         <v>90</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>48.65</v>
+        <v>47.94</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>17.71</v>
+        <v>17.12</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0</v>
+        <v>13.64</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>22.9</v>
+        <v>13.7</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>-10</v>
+        <v>38</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0</v>
+        <v>65.56</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T42" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -8205,24 +8205,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3901110004</t>
+          <t>3302050002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>RATICIDA BLOQUES 250GR</t>
+          <t>ABONO ROSALES 1KGR</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -8232,13 +8232,13 @@
         <v>2</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>19.98</v>
+        <v>19.86</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>7.63</v>
+        <v>7.53</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>4.55</v>
+        <v>10</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>4.6</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>59</v>
@@ -8288,24 +8288,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3302050002</t>
+          <t>3901110004</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROSALES 1KGR</t>
+          <t>RATICIDA BLOQUES 250GR</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -8315,13 +8315,13 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>19.86</v>
+        <v>19.98</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>7.53</v>
+        <v>7.63</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>10</v>
+        <v>4.55</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -8333,10 +8333,10 @@
         <v>4.6</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>59</v>
@@ -11238,32 +11238,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3501140003</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>1KG</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>INSECTICIDA SUELO 600GR</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -11279,7 +11271,7 @@
         <v>5.35</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.33</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -11291,10 +11283,10 @@
         <v>2.3</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -11329,24 +11321,32 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3501140003</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA SUELO 600GR</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>FERRO PLUS REVERDECIENTE</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1KG</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -11362,7 +11362,7 @@
         <v>5.35</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>25</v>
+        <v>3.33</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11374,10 +11374,10 @@
         <v>2.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -12997,24 +12997,16 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3401040002</t>
+          <t>3402040004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO LIQUIDO</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13032,13 +13024,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>7.99</v>
+        <v>7.49</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>3.11</v>
+        <v>2.7</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -13050,10 +13042,10 @@
         <v>2.3</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>59</v>
@@ -13088,16 +13080,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3402040004</t>
+          <t>3401040002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>FERTILIZANTE GUANO LIQUIDO</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13115,13 +13115,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>7.49</v>
+        <v>7.99</v>
       </c>
       <c r="J25" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K25" s="4" t="n">
         <v>2.7</v>
-      </c>
-      <c r="K25" s="4" t="n">
-        <v>10</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -13133,10 +13133,10 @@
         <v>2.3</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>59</v>
@@ -14413,24 +14413,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3403010005</t>
+          <t>3302210022</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ABONO GRAMA 2KG</t>
+          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -14464,10 +14464,10 @@
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>17.78</v>
+        <v>24.44</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>0</v>
@@ -14484,7 +14484,7 @@
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14496,24 +14496,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3302210001</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
+          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14541,19 +14541,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -14562,12 +14562,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -14579,24 +14579,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3601050001</t>
+          <t>3302070002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECTICIDA STOP 750ML</t>
+          <t>ABONO GERANIOS SOLUBLE 800GR</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14624,19 +14624,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -14645,12 +14645,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14662,24 +14662,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3901030010</t>
+          <t>3302210020</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ARBORICOLA</t>
+          <t>ABONO TREPADORAS ECO 800GR</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -14707,19 +14707,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -14728,12 +14728,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14745,24 +14745,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3401040008</t>
+          <t>3301040005</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
+          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -14790,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
@@ -14811,7 +14811,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -14828,24 +14828,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3402020002</t>
+          <t>3302210002</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>BIO FORTIGO FLORES 1L</t>
+          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -14873,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -14894,7 +14894,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -14911,24 +14911,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3501080003</t>
+          <t>3901140002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
+          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14956,7 +14956,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
@@ -14977,7 +14977,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -14994,24 +14994,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3302200018</t>
+          <t>3902040002</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELOS</t>
+          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15039,7 +15039,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
@@ -15060,7 +15060,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -15077,24 +15077,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3602030001</t>
+          <t>3501040003</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER SAL DE COBRE 70511</t>
+          <t>ANTIPULGONES LU 750 ML</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -15122,7 +15122,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -15143,7 +15143,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -15160,16 +15160,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3904010004</t>
+          <t>3901030011</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr"/>
-      <c r="D11" s="3" t="inlineStr"/>
+          <t>KB NEXA HORMIGAS GRANULADO</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D11" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -15205,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
@@ -15226,7 +15234,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -15243,24 +15251,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3402060004</t>
+          <t>3302100001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
+          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -15288,19 +15296,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>12</v>
+        <v>45</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" s="8" t="inlineStr">
         <is>
@@ -15309,12 +15317,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -15326,32 +15334,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3602030003</t>
+          <t>3901030002</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA BIOLOGICO</t>
-        </is>
-      </c>
-      <c r="C13" s="3" t="inlineStr">
-        <is>
-          <t>50G</t>
-        </is>
-      </c>
-      <c r="D13" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="inlineStr"/>
+      <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15379,19 +15379,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>30</v>
+        <v>76</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T13" s="8" t="inlineStr">
         <is>
@@ -15400,12 +15400,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -15417,12 +15417,12 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3902040002</t>
+          <t>3901030012</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
+          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
@@ -15462,7 +15462,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -15483,7 +15483,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -15500,32 +15500,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3301040001</t>
+          <t>3901090003</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="C15" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D15" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
+        </is>
+      </c>
+      <c r="C15" s="3" t="inlineStr"/>
+      <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -15553,7 +15545,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
@@ -15574,7 +15566,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -15591,24 +15583,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3302210002</t>
+          <t>3501080003</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
+          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -15636,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>34</v>
+        <v>25</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
@@ -15657,7 +15649,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -15674,24 +15666,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3601040001</t>
+          <t>3901110002</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
+          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -15719,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -15740,7 +15732,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -15757,24 +15749,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3302210009</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA</t>
+          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -15802,19 +15794,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>25.56</v>
+        <v>65.56</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -15823,12 +15815,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -15840,12 +15832,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3901040001</t>
+          <t>3901090004</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS PISTOLA 750ML</t>
+          <t>ECOFIN TRAMPA RATONES</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -15885,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>82</v>
+        <v>20</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -15906,7 +15898,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -15923,24 +15915,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3701010002</t>
+          <t>3302140001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ROUNDUP GEL GARDEN</t>
+          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>HERBICIDAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -15968,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -15989,7 +15981,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -16006,12 +15998,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3501100001</t>
+          <t>3502010014</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ANTIMINADOR 50ML</t>
+          <t>REVUS ANTIMILDIU 20ML</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -16051,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -16072,7 +16064,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -16089,12 +16081,12 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3902070006</t>
+          <t>3901030009</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA MOSCAS</t>
+          <t>CEBO ANTIHORMIGAS 10GR</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
@@ -16134,7 +16126,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>38</v>
+        <v>49</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
@@ -16155,7 +16147,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -16172,24 +16164,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>3401040003</t>
+          <t>3302170005</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
+          <t>VARITAS HUERTO FRUTALES</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16238,7 +16230,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -16255,12 +16247,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3302170005</t>
+          <t>3302120001</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>VARITAS HUERTO FRUTALES</t>
+          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -16300,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
@@ -16321,7 +16313,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -16338,24 +16330,32 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3902070008</t>
+          <t>3602030003</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA FRUIT</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA BIOLOGICO</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>50G</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16383,19 +16383,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -16404,12 +16404,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16421,12 +16421,12 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>3901030007</t>
+          <t>3902060002</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
+          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
@@ -16466,7 +16466,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
@@ -16487,7 +16487,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -16504,12 +16504,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>3402060002</t>
+          <t>3403010005</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE BONSAIS 500ML</t>
+          <t>ABONO GRAMA 2KG</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -16549,19 +16549,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T27" s="8" t="inlineStr">
         <is>
@@ -16570,12 +16570,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -16587,24 +16587,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>3501100002</t>
+          <t>3302150003</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
+          <t>COMPO BIO CITRICOS 750GR</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>52</v>
+        <v>18</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
@@ -16653,7 +16653,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -16670,24 +16670,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>3302140001</t>
+          <t>3901050006</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
+          <t>TRAMPA SICUR TRAMP 2 UDS</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16715,7 +16715,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>48</v>
+        <v>8</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
@@ -16736,7 +16736,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -16753,24 +16753,24 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>3501040003</t>
+          <t>3302210003</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ANTIPULGONES LU 750 ML</t>
+          <t>CANABIUM REGULADOR PH 500ML 10893</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -16819,7 +16819,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -16836,12 +16836,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3901110002</t>
+          <t>3901040001</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
+          <t>ANTIHORMIGAS PISTOLA 750ML</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
@@ -16902,7 +16902,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -16919,24 +16919,24 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3903020005</t>
+          <t>3601040002</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
+          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
@@ -16985,7 +16985,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -17002,24 +17002,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>3901030012</t>
+          <t>3302200003</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
+          <t>ABONO PALMERAS 500ML</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -17068,7 +17068,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -17085,24 +17085,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>3501140005</t>
+          <t>3302210001</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
+          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -17130,7 +17130,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
@@ -17151,7 +17151,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -17168,24 +17168,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3501100013</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
+          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
@@ -17234,7 +17234,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -17251,32 +17251,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3902070004</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
-        </is>
-      </c>
-      <c r="C36" s="3" t="inlineStr">
-        <is>
-          <t>1I5KG</t>
-        </is>
-      </c>
-      <c r="D36" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
+        </is>
+      </c>
+      <c r="C36" s="3" t="inlineStr"/>
+      <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17304,19 +17296,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
@@ -17325,12 +17317,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17342,12 +17334,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>3902070005</t>
+          <t>3901030007</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
+          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -17387,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
@@ -17408,7 +17400,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -17425,12 +17417,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>3901130002</t>
+          <t>3902070005</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -17470,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -17491,7 +17483,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17508,24 +17500,32 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>3302070002</t>
+          <t>3502010011</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS SOLUBLE 800GR</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr"/>
-      <c r="D39" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA PHITOFTORA</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr">
+        <is>
+          <t>45GR</t>
+        </is>
+      </c>
+      <c r="D39" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -17553,19 +17553,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
@@ -17574,12 +17574,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -17591,24 +17591,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>3902070003</t>
+          <t>3402060004</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
+          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -17636,19 +17636,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T40" s="8" t="inlineStr">
         <is>
@@ -17657,12 +17657,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -17674,24 +17674,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>3901130001</t>
+          <t>3501140005</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>FIN CHINCHES Y PULGAS 150ML</t>
+          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17719,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -17757,24 +17757,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>3402050003</t>
+          <t>3903020005</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>COMPO ABRILLANTADOR 600ML</t>
+          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17802,7 +17802,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
@@ -17823,7 +17823,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -17840,24 +17840,32 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>3902070009</t>
+          <t>3301040001</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA OLIVO</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr"/>
-      <c r="D43" s="3" t="inlineStr"/>
+          <t>ABONO LIQUIDO UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D43" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -17885,7 +17893,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
@@ -17906,7 +17914,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -17923,12 +17931,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>3901040002</t>
+          <t>3901080002</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
+          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -17968,7 +17976,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
@@ -17989,7 +17997,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -18006,24 +18014,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>3302200003</t>
+          <t>3902020002</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ABONO PALMERAS 500ML</t>
+          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18051,7 +18059,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
@@ -18072,7 +18080,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -18089,12 +18097,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>3502020003</t>
+          <t>3501050002</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
+          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -18134,7 +18142,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>14</v>
+        <v>34</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
@@ -18155,7 +18163,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -18172,12 +18180,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>3902070004</t>
+          <t>3902070006</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
+          <t>ECOFIN TRAMPA MOSCAS</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -18217,7 +18225,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -18238,7 +18246,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -18255,24 +18263,32 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>3302210003</t>
+          <t>3601050002</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML 10893</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr"/>
-      <c r="D48" s="3" t="inlineStr"/>
+          <t>BIOFLOWER ACEITE DE NEEM</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr">
+        <is>
+          <t>450ML</t>
+        </is>
+      </c>
+      <c r="D48" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18300,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
@@ -18321,7 +18337,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -18338,12 +18354,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>3501100022</t>
+          <t>3501100011</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PALMERAS (NO VENTA)</t>
+          <t>PACK FRUTALES VITHAL</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -18383,19 +18399,19 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q49" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R49" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T49" s="8" t="inlineStr">
         <is>
@@ -18404,12 +18420,12 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W49" s="4" t="inlineStr">
@@ -18421,24 +18437,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>3502010009</t>
+          <t>3901130001</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ENFERMEDADES ROSALES 10ML</t>
+          <t>FIN CHINCHES Y PULGAS 150ML</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -18466,7 +18482,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>36</v>
+        <v>6</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -18487,7 +18503,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -18504,24 +18520,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>3902010001</t>
+          <t>3501140001</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
+          <t>AVIDUST 1KG</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18549,7 +18565,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
@@ -18570,7 +18586,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -18587,24 +18603,24 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>3901040003</t>
+          <t>3401040008</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>LU ANTIHORMIGAS 750ML CAJA</t>
+          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -18632,7 +18648,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
@@ -18653,7 +18669,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -18670,24 +18686,24 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>3302200017</t>
+          <t>3901130003</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELO 250ML</t>
+          <t>INSECTICIDA CARCOMA 200ML</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -18715,7 +18731,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
@@ -18736,7 +18752,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -18753,24 +18769,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>3502010005</t>
+          <t>3901040002</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>AZUFRE 450 GRS.</t>
+          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18798,7 +18814,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
@@ -18819,7 +18835,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -18836,12 +18852,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>3901030002</t>
+          <t>3901030010</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
+          <t>ECOFIN CINTA ARBORICOLA</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -18881,7 +18897,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
@@ -18902,7 +18918,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -18919,24 +18935,24 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>3502010014</t>
+          <t>3901040003</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>REVUS ANTIMILDIU 20ML</t>
+          <t>LU ANTIHORMIGAS 750ML CAJA</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -18964,7 +18980,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
@@ -18985,7 +19001,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -19002,24 +19018,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>3901090003</t>
+          <t>3302200008</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
+          <t>AZULADOR DE HORTENSIAS 800GR</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -19047,7 +19063,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
@@ -19068,7 +19084,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -19085,32 +19101,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>3403030001</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED LARGA DURACION</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr">
-        <is>
-          <t>3KG</t>
-        </is>
-      </c>
-      <c r="D58" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>YNJECT CONECTOR PALMERA</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr"/>
+      <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -19138,19 +19146,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>65.56</v>
+        <v>25.56</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T58" s="8" t="inlineStr">
         <is>
@@ -19159,12 +19167,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -19176,24 +19184,24 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>3301030003</t>
+          <t>3501100022</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROZE 1KG</t>
+          <t>YNJECT GO PALMERAS (NO VENTA)</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -19221,19 +19229,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T59" s="8" t="inlineStr">
         <is>
@@ -19242,12 +19250,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -19259,24 +19267,24 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>3601050007</t>
+          <t>3902070007</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
+          <t>FERO-TRAMPA CITRICOS</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
       <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -19304,7 +19312,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
@@ -19325,7 +19333,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -19342,24 +19350,24 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>3401050003</t>
+          <t>3903010001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
+          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -19387,7 +19395,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
@@ -19408,7 +19416,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -19425,12 +19433,12 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>3903010001</t>
+          <t>3901110003</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
+          <t>PORTACEBO RATAS</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
@@ -19470,7 +19478,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
@@ -19491,7 +19499,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -19508,24 +19516,24 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>3501100011</t>
+          <t>3402050003</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>PACK FRUTALES VITHAL</t>
+          <t>COMPO ABRILLANTADOR 600ML</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -19553,7 +19561,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>59</v>
@@ -19574,7 +19582,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -19591,32 +19599,24 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>3301030001</t>
+          <t>3502010009</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>2,5Kg</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ENFERMEDADES ROSALES 10ML</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -19644,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>122</v>
+        <v>36</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>59</v>
@@ -19665,7 +19665,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -19682,24 +19682,24 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>3901090004</t>
+          <t>3501100005</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA RATONES</t>
+          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -19727,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
@@ -19748,7 +19748,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -19765,24 +19765,24 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>3903020003</t>
+          <t>3601050001</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
+          <t>BIO INSECTICIDA STOP 750ML</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -19810,19 +19810,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T66" s="8" t="inlineStr">
         <is>
@@ -19831,12 +19831,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -19848,12 +19848,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>3302210022</t>
+          <t>3302180002</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
+          <t>FERTILIZANTE TOMATES 500ML</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -19899,13 +19899,13 @@
         <v>59</v>
       </c>
       <c r="Q67" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R67" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S67" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T67" s="8" t="inlineStr">
         <is>
@@ -19914,12 +19914,12 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W67" s="4" t="inlineStr">
@@ -19931,24 +19931,24 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>3501110005</t>
+          <t>3601050007</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA GERANIOS LU 750 ML</t>
+          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
       <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -19976,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
@@ -19997,7 +19997,7 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -20014,12 +20014,12 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>3902020002</t>
+          <t>3901050001</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
+          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
@@ -20059,7 +20059,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
@@ -20080,7 +20080,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -20097,12 +20097,12 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>3902070007</t>
+          <t>3904010004</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA CITRICOS</t>
+          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
@@ -20142,7 +20142,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
@@ -20163,7 +20163,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -20180,24 +20180,32 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>3301040005</t>
+          <t>3403030001</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr"/>
-      <c r="D71" s="3" t="inlineStr"/>
+          <t>ABONO CESPED LARGA DURACION</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>3KG</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -20225,7 +20233,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
@@ -20246,7 +20254,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -20263,24 +20271,24 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>3403040000</t>
+          <t>3901090001</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
+          <t>COLA PARA RATONES RATIGLUE 135G</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -20308,7 +20316,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
@@ -20329,7 +20337,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -20346,32 +20354,24 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>3403010003</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED GRANDES JARDINES</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr">
-        <is>
-          <t>7I5KG</t>
-        </is>
-      </c>
-      <c r="D73" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERRO PLUS REVERDECIENTE</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr"/>
+      <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -20399,7 +20399,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
@@ -20420,7 +20420,7 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
@@ -20437,24 +20437,24 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>3901090001</t>
+          <t>3401040003</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>COLA PARA RATONES RATIGLUE 135G</t>
+          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr"/>
       <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -20482,7 +20482,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
@@ -20503,7 +20503,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -20520,24 +20520,24 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>3501100013</t>
+          <t>3301030004</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
+          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -20565,7 +20565,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>59</v>
@@ -20586,7 +20586,7 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -20603,24 +20603,24 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>3901030009</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>CEBO ANTIHORMIGAS 10GR</t>
+          <t>ABONO CESPED BOLSA</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr"/>
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -20648,7 +20648,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
@@ -20669,7 +20669,7 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -20686,24 +20686,32 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>3901140002</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr"/>
-      <c r="D77" s="3" t="inlineStr"/>
+          <t>ABONO CESPED BOLSA</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>1I5KG</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -20731,19 +20739,19 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R77" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T77" s="8" t="inlineStr">
         <is>
@@ -20752,12 +20760,12 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W77" s="4" t="inlineStr">
@@ -20769,24 +20777,24 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>3302100001</t>
+          <t>3501100015</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
+          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr"/>
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -20814,19 +20822,19 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S78" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T78" s="8" t="inlineStr">
         <is>
@@ -20835,12 +20843,12 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W78" s="4" t="inlineStr">
@@ -20852,24 +20860,32 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>3302150003</t>
+          <t>3901030001</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO CITRICOS 750GR</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr"/>
-      <c r="D79" s="3" t="inlineStr"/>
+          <t>COMPO ANTIHORMIGAS</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr">
+        <is>
+          <t>500G</t>
+        </is>
+      </c>
+      <c r="D79" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -20897,7 +20913,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>18</v>
+        <v>98</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
@@ -20918,7 +20934,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -20935,24 +20951,24 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>3901130003</t>
+          <t>3602030001</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA CARCOMA 200ML</t>
+          <t>BIOFLOWER SAL DE COBRE 70511</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr"/>
       <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -20980,7 +20996,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
@@ -21001,7 +21017,7 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
@@ -21018,24 +21034,24 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>3901050006</t>
+          <t>3402020002</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>TRAMPA SICUR TRAMP 2 UDS</t>
+          <t>BIO FORTIGO FLORES 1L</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr"/>
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -21063,7 +21079,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>59</v>
@@ -21084,7 +21100,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -21101,24 +21117,24 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>3302200014</t>
+          <t>3402060002</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
+          <t>FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C82" s="3" t="inlineStr"/>
       <c r="D82" s="3" t="inlineStr"/>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -21146,7 +21162,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>43</v>
+        <v>8</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
@@ -21167,7 +21183,7 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
@@ -21184,24 +21200,24 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>3302210009</t>
+          <t>3403040000</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr"/>
       <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -21229,7 +21245,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -21250,7 +21266,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -21267,24 +21283,24 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>3501040002</t>
+          <t>3903020003</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGON 750ML</t>
+          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr"/>
       <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -21312,7 +21328,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
@@ -21333,7 +21349,7 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
@@ -21350,32 +21366,24 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>3601050002</t>
+          <t>3401050003</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ACEITE DE NEEM</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t>450ML</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr"/>
+      <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -21403,7 +21411,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
@@ -21424,7 +21432,7 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
@@ -21441,24 +21449,24 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>3302210020</t>
+          <t>3501100001</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>ABONO TREPADORAS ECO 800GR</t>
+          <t>ANTIMINADOR 50ML</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr"/>
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -21486,19 +21494,19 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q86" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R86" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S86" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T86" s="8" t="inlineStr">
         <is>
@@ -21507,12 +21515,12 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W86" s="4" t="inlineStr">
@@ -21524,12 +21532,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>3902060002</t>
+          <t>3902070009</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
+          <t>FERO-TRAMPA OLIVO</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
@@ -21569,7 +21577,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
@@ -21590,7 +21598,7 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
@@ -21607,24 +21615,24 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>3502010001</t>
+          <t>3601040001</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
+          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -21652,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
@@ -21673,7 +21681,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -21690,24 +21698,24 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>3601050004</t>
+          <t>3701010002</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
+          <t>ROUNDUP GEL GARDEN</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>HERBICIDAS</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -21735,7 +21743,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
@@ -21756,7 +21764,7 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
@@ -21773,24 +21781,24 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>3901050001</t>
+          <t>3501100021</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
+          <t>YNJECT GO PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -21818,19 +21826,19 @@
         <v>0</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P90" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q90" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T90" s="8" t="inlineStr">
         <is>
@@ -21839,12 +21847,12 @@
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
@@ -21856,32 +21864,24 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>3901030011</t>
+          <t>3501040002</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>KB NEXA HORMIGAS GRANULADO</t>
-        </is>
-      </c>
-      <c r="C91" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D91" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>INSECTICIDA PULGON 750ML</t>
+        </is>
+      </c>
+      <c r="C91" s="3" t="inlineStr"/>
+      <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -21909,7 +21909,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
@@ -21930,7 +21930,7 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
@@ -21947,24 +21947,24 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>3502020002</t>
+          <t>3902010001</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>FUNGICIDA ROSALES 750ML</t>
+          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr"/>
       <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
@@ -21992,7 +21992,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
@@ -22013,7 +22013,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -22113,12 +22113,12 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>3501100015</t>
+          <t>3501110005</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
+          <t>INSECTICIDA GERANIOS LU 750 ML</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
@@ -22158,19 +22158,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q94" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R94" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S94" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T94" s="8" t="inlineStr">
         <is>
@@ -22179,12 +22179,12 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W94" s="4" t="inlineStr">
@@ -22196,12 +22196,12 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>3302210004</t>
+          <t>3302200017</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
+          <t>REGENERADOR SUELO 250ML</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
@@ -22241,7 +22241,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
@@ -22262,7 +22262,7 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
@@ -22279,24 +22279,24 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>3901080002</t>
+          <t>3502010005</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
+          <t>AZUFRE 450 GRS.</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
       <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G96" s="4" t="n">
@@ -22324,7 +22324,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
@@ -22345,7 +22345,7 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
@@ -22362,12 +22362,12 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>3501100021</t>
+          <t>3502020003</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PINO (NO VENTA)</t>
+          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr"/>
@@ -22407,19 +22407,19 @@
         <v>0</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="P97" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q97" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R97" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S97" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T97" s="8" t="inlineStr">
         <is>
@@ -22428,12 +22428,12 @@
       </c>
       <c r="U97" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V97" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W97" s="4" t="inlineStr">
@@ -22445,32 +22445,24 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>3502010011</t>
+          <t>3904010002</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA PHITOFTORA</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr">
-        <is>
-          <t>45GR</t>
-        </is>
-      </c>
-      <c r="D98" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr"/>
+      <c r="D98" s="3" t="inlineStr"/>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G98" s="4" t="n">
@@ -22498,19 +22490,19 @@
         <v>0</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>80</v>
+        <v>10</v>
       </c>
       <c r="P98" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q98" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R98" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S98" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T98" s="8" t="inlineStr">
         <is>
@@ -22519,12 +22511,12 @@
       </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V98" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W98" s="4" t="inlineStr">
@@ -22536,16 +22528,24 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>3302120001</t>
+          <t>3301030001</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr"/>
-      <c r="D99" s="3" t="inlineStr"/>
+          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr">
+        <is>
+          <t>2,5Kg</t>
+        </is>
+      </c>
+      <c r="D99" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E99" s="4" t="inlineStr">
         <is>
           <t>33</t>
@@ -22581,7 +22581,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="4" t="n">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="P99" s="4" t="n">
         <v>59</v>
@@ -22602,7 +22602,7 @@
       </c>
       <c r="U99" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V99" s="4" t="inlineStr">
@@ -22702,24 +22702,24 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>3302180002</t>
+          <t>3502010001</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE TOMATES 500ML</t>
+          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr"/>
       <c r="D101" s="3" t="inlineStr"/>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G101" s="4" t="n">
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="P101" s="4" t="n">
         <v>59</v>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="U101" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V101" s="4" t="inlineStr">
@@ -22785,24 +22785,24 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>3601040002</t>
+          <t>3302200014</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
+          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
@@ -22830,7 +22830,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="P102" s="4" t="n">
         <v>59</v>
@@ -22851,7 +22851,7 @@
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
@@ -22868,24 +22868,24 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>3501100005</t>
+          <t>3302200018</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
+          <t>REGENERADOR SUELOS</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="P103" s="4" t="n">
         <v>59</v>
@@ -22934,7 +22934,7 @@
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
@@ -22951,24 +22951,24 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3301030003</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
+          <t>ABONO ROZE 1KG</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr"/>
       <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
@@ -22996,7 +22996,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="P104" s="4" t="n">
         <v>59</v>
@@ -23017,7 +23017,7 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
@@ -23034,24 +23034,16 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>3901030001</t>
+          <t>3901130002</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>COMPO ANTIHORMIGAS</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr">
-        <is>
-          <t>500G</t>
-        </is>
-      </c>
-      <c r="D105" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr"/>
+      <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -23087,7 +23079,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="P105" s="4" t="n">
         <v>59</v>
@@ -23108,7 +23100,7 @@
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
@@ -23125,24 +23117,32 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>3501140001</t>
+          <t>3403010003</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>AVIDUST 1KG</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr"/>
-      <c r="D106" s="3" t="inlineStr"/>
+          <t>ABONO CESPED GRANDES JARDINES</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>7I5KG</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
@@ -23170,7 +23170,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="P106" s="4" t="n">
         <v>59</v>
@@ -23191,7 +23191,7 @@
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
@@ -23208,24 +23208,24 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3302210004</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
+          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G107" s="4" t="n">
@@ -23253,19 +23253,19 @@
         <v>0</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="P107" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q107" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R107" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S107" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T107" s="8" t="inlineStr">
         <is>
@@ -23274,12 +23274,12 @@
       </c>
       <c r="U107" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V107" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W107" s="4" t="inlineStr">
@@ -23291,24 +23291,24 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>3302200008</t>
+          <t>3902070003</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>AZULADOR DE HORTENSIAS 800GR</t>
+          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P108" s="4" t="n">
         <v>59</v>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
@@ -23374,24 +23374,24 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>3904010002</t>
+          <t>3601050004</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
+          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr"/>
       <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P109" s="4" t="n">
         <v>59</v>
@@ -23440,7 +23440,7 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
@@ -23457,12 +23457,12 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>3901110003</t>
+          <t>3902070008</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>PORTACEBO RATAS</t>
+          <t>FERO-TRAMPA FRUIT</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr"/>
@@ -23502,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P110" s="4" t="n">
         <v>59</v>
@@ -23523,7 +23523,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -23540,12 +23540,12 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>3501050002</t>
+          <t>3502010007</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
+          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr"/>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="P111" s="4" t="n">
         <v>59</v>
@@ -23606,7 +23606,7 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
@@ -23623,24 +23623,24 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>3301030004</t>
+          <t>3501100002</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
+          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr"/>
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G112" s="4" t="n">
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>14</v>
+        <v>52</v>
       </c>
       <c r="P112" s="4" t="n">
         <v>59</v>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="U112" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V112" s="4" t="inlineStr">
@@ -23706,12 +23706,12 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>3502010007</t>
+          <t>3502020002</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
+          <t>FUNGICIDA ROSALES 750ML</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr"/>
@@ -23751,7 +23751,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="P113" s="4" t="n">
         <v>59</v>
@@ -23772,7 +23772,7 @@
       </c>
       <c r="U113" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V113" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
@@ -7276,24 +7276,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3501040001</t>
+          <t>3302010002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGONES 10ML</t>
+          <t>ABONO CONIFERAS Y SETOS 750GR</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -7303,13 +7303,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>23.9</v>
+        <v>21.9</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>9.09</v>
+        <v>15.38</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -7321,10 +7321,10 @@
         <v>4.6</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>59</v>
@@ -7359,24 +7359,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3302010002</t>
+          <t>3501040001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ABONO CONIFERAS Y SETOS 750GR</t>
+          <t>INSECTICIDA PULGONES 10ML</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -7386,13 +7386,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>21.9</v>
+        <v>23.9</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>15.38</v>
+        <v>9.09</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>4.6</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>59</v>
@@ -7956,12 +7956,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3501020003</t>
+          <t>3501110004</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>LU KETAR INSECTICIDA TOTAL PLUS 750ML</t>
+          <t>L.U. ANTITALADRO 750ML</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -7983,13 +7983,13 @@
         <v>2</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>25.98</v>
+        <v>27.9</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>12.35</v>
+        <v>13.94</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>4.55</v>
+        <v>5.56</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
@@ -8001,10 +8001,10 @@
         <v>4.6</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>59</v>
@@ -8039,12 +8039,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3501110004</t>
+          <t>3501020003</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>L.U. ANTITALADRO 750ML</t>
+          <t>LU KETAR INSECTICIDA TOTAL PLUS 750ML</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -8066,13 +8066,13 @@
         <v>2</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>27.9</v>
+        <v>25.98</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>13.94</v>
+        <v>12.35</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>5.56</v>
+        <v>4.55</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -8084,10 +8084,10 @@
         <v>4.6</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>59</v>
@@ -8205,24 +8205,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3302050002</t>
+          <t>3901110004</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROSALES 1KGR</t>
+          <t>RATICIDA BLOQUES 250GR</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -8232,13 +8232,13 @@
         <v>2</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>19.86</v>
+        <v>19.98</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>7.53</v>
+        <v>7.63</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>10</v>
+        <v>4.55</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>4.6</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>59</v>
@@ -8288,24 +8288,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3901110004</t>
+          <t>3302050002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>RATICIDA BLOQUES 250GR</t>
+          <t>ABONO ROSALES 1KGR</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -8315,13 +8315,13 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>19.98</v>
+        <v>19.86</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>7.63</v>
+        <v>7.53</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>4.55</v>
+        <v>10</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -8333,10 +8333,10 @@
         <v>4.6</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>59</v>
@@ -11238,24 +11238,32 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3501140003</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA SUELO 600GR</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>FERRO PLUS REVERDECIENTE</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>1KG</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -11271,7 +11279,7 @@
         <v>5.35</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>25</v>
+        <v>3.33</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -11283,10 +11291,10 @@
         <v>2.3</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -11321,32 +11329,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3501140003</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>1KG</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>INSECTICIDA SUELO 600GR</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -11362,7 +11362,7 @@
         <v>5.35</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.33</v>
+        <v>25</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11374,10 +11374,10 @@
         <v>2.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -12997,16 +12997,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3402040004</t>
+          <t>3401040002</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr"/>
-      <c r="D24" s="3" t="inlineStr"/>
+          <t>FERTILIZANTE GUANO LIQUIDO</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D24" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13024,13 +13032,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>7.49</v>
+        <v>7.99</v>
       </c>
       <c r="J24" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K24" s="4" t="n">
         <v>2.7</v>
-      </c>
-      <c r="K24" s="4" t="n">
-        <v>10</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -13042,10 +13050,10 @@
         <v>2.3</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>59</v>
@@ -13080,24 +13088,16 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3401040002</t>
+          <t>3402040004</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO LIQUIDO</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13115,13 +13115,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>7.99</v>
+        <v>7.49</v>
       </c>
       <c r="J25" s="4" t="n">
-        <v>3.11</v>
+        <v>2.7</v>
       </c>
       <c r="K25" s="4" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -13133,10 +13133,10 @@
         <v>2.3</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>59</v>
@@ -14413,12 +14413,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3302210022</t>
+          <t>3302070001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
+          <t>ABONO GERANIOS 750GR</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -14458,19 +14458,19 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S2" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T2" s="8" t="inlineStr">
         <is>
@@ -14479,12 +14479,12 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
@@ -14496,12 +14496,12 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3501100005</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
+          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
@@ -14541,19 +14541,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>50</v>
+        <v>151</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -14562,12 +14562,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -14579,24 +14579,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3302070002</t>
+          <t>3901030009</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS SOLUBLE 800GR</t>
+          <t>CEBO ANTIHORMIGAS 10GR</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14624,7 +14624,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
@@ -14645,7 +14645,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -14662,24 +14662,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3302210020</t>
+          <t>3901080002</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>ABONO TREPADORAS ECO 800GR</t>
+          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -14707,19 +14707,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -14728,12 +14728,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14828,16 +14828,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3302210002</t>
+          <t>3301040001</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr"/>
-      <c r="D7" s="3" t="inlineStr"/>
+          <t>ABONO LIQUIDO UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D7" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
           <t>33</t>
@@ -14873,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>34</v>
+        <v>58</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -14894,7 +14902,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -14911,24 +14919,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3901140002</t>
+          <t>3402060002</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
+          <t>FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14956,7 +14964,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
@@ -14977,7 +14985,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -14994,24 +15002,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3902040002</t>
+          <t>3302200014</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
+          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15039,7 +15047,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>2</v>
+        <v>43</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
@@ -15060,7 +15068,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -15077,24 +15085,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3501040003</t>
+          <t>3901030007</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ANTIPULGONES LU 750 ML</t>
+          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -15122,7 +15130,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -15143,7 +15151,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -15160,32 +15168,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3901030011</t>
+          <t>3302070002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>KB NEXA HORMIGAS GRANULADO</t>
-        </is>
-      </c>
-      <c r="C11" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D11" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ABONO GERANIOS SOLUBLE 800GR</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="inlineStr"/>
+      <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -15213,7 +15213,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
@@ -15234,7 +15234,7 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
@@ -15251,24 +15251,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3302100001</t>
+          <t>3501100001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
+          <t>ANTIMINADOR 50ML</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -15296,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>45</v>
+        <v>32</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -15317,7 +15317,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -15334,24 +15334,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3901030002</t>
+          <t>3302200008</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
+          <t>AZULADOR DE HORTENSIAS 800GR</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15379,7 +15379,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>76</v>
+        <v>16</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -15400,7 +15400,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -15417,24 +15417,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3901030012</t>
+          <t>3502010009</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
+          <t>ENFERMEDADES ROSALES 10ML</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -15462,7 +15462,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -15483,7 +15483,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -15500,24 +15500,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3901090003</t>
+          <t>3302200003</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
+          <t>ABONO PALMERAS 500ML</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -15545,7 +15545,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
@@ -15566,7 +15566,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -15583,24 +15583,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3501080003</t>
+          <t>3302210003</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
+          <t>CANABIUM REGULADOR PH 500ML 10893</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -15628,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
@@ -15649,7 +15649,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -15666,24 +15666,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3901110002</t>
+          <t>3602030001</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
+          <t>BIOFLOWER SAL DE COBRE 70511</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -15732,7 +15732,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -15749,24 +15749,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3302210009</t>
+          <t>3502020002</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+          <t>FUNGICIDA ROSALES 750ML</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -15815,7 +15815,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -15832,24 +15832,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3901090004</t>
+          <t>3302210022</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA RATONES</t>
+          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15877,19 +15877,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -15898,12 +15898,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -15915,24 +15915,24 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3302140001</t>
+          <t>3904010002</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
+          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
       <c r="D20" s="3" t="inlineStr"/>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G20" s="4" t="n">
@@ -15960,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>48</v>
+        <v>10</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -15981,7 +15981,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -15998,12 +15998,12 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3502010014</t>
+          <t>3501050002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>REVUS ANTIMILDIU 20ML</t>
+          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -16064,7 +16064,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -16081,24 +16081,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3901030009</t>
+          <t>3403040000</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>CEBO ANTIHORMIGAS 10GR</t>
+          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -16126,7 +16126,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>49</v>
+        <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
@@ -16147,7 +16147,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -16164,24 +16164,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>3302170005</t>
+          <t>3501100011</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>VARITAS HUERTO FRUTALES</t>
+          <t>PACK FRUTALES VITHAL</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16209,7 +16209,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
@@ -16230,7 +16230,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -16247,24 +16247,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3302120001</t>
+          <t>3501100022</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
+          <t>YNJECT GO PALMERAS (NO VENTA)</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -16292,19 +16292,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -16313,12 +16313,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16330,32 +16330,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3602030003</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA BIOLOGICO</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>50G</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16383,16 +16375,16 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>24.44</v>
+        <v>2.22</v>
       </c>
       <c r="S25" s="5" t="n">
         <v>0</v>
@@ -16409,7 +16401,7 @@
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16421,24 +16413,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>3902060002</t>
+          <t>3302200017</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
+          <t>REGENERADOR SUELO 250ML</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -16466,7 +16458,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
@@ -16487,7 +16479,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -16504,24 +16496,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>3403010005</t>
+          <t>3501080003</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>ABONO GRAMA 2KG</t>
+          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -16549,19 +16541,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T27" s="8" t="inlineStr">
         <is>
@@ -16570,12 +16562,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -16587,24 +16579,32 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>3302150003</t>
+          <t>3403010003</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO CITRICOS 750GR</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr"/>
-      <c r="D28" s="3" t="inlineStr"/>
+          <t>ABONO CESPED GRANDES JARDINES</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr">
+        <is>
+          <t>7I5KG</t>
+        </is>
+      </c>
+      <c r="D28" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>18</v>
+        <v>39</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
@@ -16653,7 +16653,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -16670,24 +16670,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>3901050006</t>
+          <t>3302120001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>TRAMPA SICUR TRAMP 2 UDS</t>
+          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16715,7 +16715,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
@@ -16736,7 +16736,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -16753,24 +16753,24 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>3302210003</t>
+          <t>3502010001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML 10893</t>
+          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -16798,7 +16798,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>59</v>
@@ -16819,7 +16819,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -16836,12 +16836,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3901040001</t>
+          <t>3902070008</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS PISTOLA 750ML</t>
+          <t>FERO-TRAMPA FRUIT</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
@@ -16902,7 +16902,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -16919,24 +16919,24 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3601040002</t>
+          <t>3901050006</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
+          <t>TRAMPA SICUR TRAMP 2 UDS</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -16964,7 +16964,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
@@ -16985,7 +16985,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -17002,24 +17002,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>3302200003</t>
+          <t>3903020005</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>ABONO PALMERAS 500ML</t>
+          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -17047,7 +17047,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
@@ -17068,7 +17068,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -17085,12 +17085,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>3302210001</t>
+          <t>3302210020</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
+          <t>ABONO TREPADORAS ECO 800GR</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -17130,19 +17130,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T34" s="8" t="inlineStr">
         <is>
@@ -17151,12 +17151,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -17168,24 +17168,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>3501100013</t>
+          <t>3402050003</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
+          <t>COMPO ABRILLANTADOR 600ML</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
@@ -17234,7 +17234,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -17251,12 +17251,12 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>3902070004</t>
+          <t>3903020003</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
+          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
@@ -17296,7 +17296,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
@@ -17317,7 +17317,7 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -17334,24 +17334,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>3901030007</t>
+          <t>3502010007</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
+          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -17379,7 +17379,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
@@ -17400,7 +17400,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -17417,12 +17417,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>3902070005</t>
+          <t>3902070003</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
+          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -17462,7 +17462,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -17483,7 +17483,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17500,32 +17500,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>3502010011</t>
+          <t>3601050001</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA PHITOFTORA</t>
-        </is>
-      </c>
-      <c r="C39" s="3" t="inlineStr">
-        <is>
-          <t>45GR</t>
-        </is>
-      </c>
-      <c r="D39" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIO INSECTICIDA STOP 750ML</t>
+        </is>
+      </c>
+      <c r="C39" s="3" t="inlineStr"/>
+      <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -17553,7 +17545,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
@@ -17591,24 +17583,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>3402060004</t>
+          <t>3902010001</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
+          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -17636,19 +17628,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T40" s="8" t="inlineStr">
         <is>
@@ -17657,12 +17649,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -17674,24 +17666,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>3501140005</t>
+          <t>3301030004</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
+          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17719,7 +17711,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
@@ -17740,7 +17732,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -17757,24 +17749,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>3903020005</t>
+          <t>3601040002</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
+          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17802,7 +17794,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
@@ -17823,7 +17815,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -17840,32 +17832,24 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>3301040001</t>
+          <t>3902060002</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="C43" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D43" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
+        </is>
+      </c>
+      <c r="C43" s="3" t="inlineStr"/>
+      <c r="D43" s="3" t="inlineStr"/>
       <c r="E43" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F43" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G43" s="4" t="n">
@@ -17893,7 +17877,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>58</v>
+        <v>8</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
@@ -17914,7 +17898,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -17931,12 +17915,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>3901080002</t>
+          <t>3903010001</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
+          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -17976,7 +17960,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
@@ -17997,7 +17981,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -18014,24 +17998,32 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>3902020002</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr"/>
-      <c r="D45" s="3" t="inlineStr"/>
+          <t>ABONO CESPED BOLSA</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr">
+        <is>
+          <t>1I5KG</t>
+        </is>
+      </c>
+      <c r="D45" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18059,19 +18051,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
@@ -18080,12 +18072,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18097,24 +18089,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>3501050002</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
+          <t>FERRO PLUS REVERDECIENTE</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18142,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
@@ -18163,7 +18155,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -18180,12 +18172,12 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>3902070006</t>
+          <t>3901030002</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA MOSCAS</t>
+          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
@@ -18225,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>38</v>
+        <v>76</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -18246,7 +18238,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -18263,32 +18255,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>3601050002</t>
+          <t>3901030012</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ACEITE DE NEEM</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>450ML</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18316,7 +18300,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
@@ -18337,7 +18321,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -18354,24 +18338,24 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>3501100011</t>
+          <t>3302210009</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>PACK FRUTALES VITHAL</t>
+          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
       <c r="D49" s="3" t="inlineStr"/>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -18399,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
@@ -18420,7 +18404,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -18437,16 +18421,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>3901130001</t>
+          <t>3901030001</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>FIN CHINCHES Y PULGAS 150ML</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr"/>
-      <c r="D50" s="3" t="inlineStr"/>
+          <t>COMPO ANTIHORMIGAS</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr">
+        <is>
+          <t>500G</t>
+        </is>
+      </c>
+      <c r="D50" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E50" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -18482,7 +18474,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -18503,7 +18495,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -18520,24 +18512,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>3501140001</t>
+          <t>3302200018</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>AVIDUST 1KG</t>
+          <t>REGENERADOR SUELOS</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18565,7 +18557,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>4</v>
+        <v>14</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
@@ -18586,7 +18578,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -18603,12 +18595,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>3401040008</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
+          <t>ABONO CESPED BOLSA</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -18648,7 +18640,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
@@ -18669,7 +18661,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -18686,12 +18678,12 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>3901130003</t>
+          <t>3901090004</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA CARCOMA 200ML</t>
+          <t>ECOFIN TRAMPA RATONES</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
@@ -18731,7 +18723,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
@@ -18752,7 +18744,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -18769,24 +18761,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>3901040002</t>
+          <t>3302210002</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
+          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18814,7 +18806,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
@@ -18835,7 +18827,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -18852,12 +18844,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>3901030010</t>
+          <t>3901140002</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ARBORICOLA</t>
+          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -18897,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
@@ -18918,7 +18910,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -18935,24 +18927,24 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>3901040003</t>
+          <t>3502020003</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>LU ANTIHORMIGAS 750ML CAJA</t>
+          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -18980,7 +18972,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
@@ -19001,7 +18993,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -19018,24 +19010,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>3302200008</t>
+          <t>3901040003</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>AZULADOR DE HORTENSIAS 800GR</t>
+          <t>LU ANTIHORMIGAS 750ML CAJA</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -19063,7 +19055,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
@@ -19084,7 +19076,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -19101,24 +19093,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3601050004</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA</t>
+          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -19146,19 +19138,19 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q58" s="4" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R58" s="4" t="n">
-        <v>25.56</v>
+        <v>65.56</v>
       </c>
       <c r="S58" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T58" s="8" t="inlineStr">
         <is>
@@ -19167,12 +19159,12 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W58" s="4" t="inlineStr">
@@ -19184,24 +19176,24 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>3501100022</t>
+          <t>3902070006</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PALMERAS (NO VENTA)</t>
+          <t>ECOFIN TRAMPA MOSCAS</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -19229,19 +19221,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T59" s="8" t="inlineStr">
         <is>
@@ -19250,12 +19242,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -19267,12 +19259,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>3902070007</t>
+          <t>3901030010</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA CITRICOS</t>
+          <t>ECOFIN CINTA ARBORICOLA</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -19312,7 +19304,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
@@ -19333,7 +19325,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -19350,12 +19342,12 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>3903010001</t>
+          <t>3901090001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
+          <t>COLA PARA RATONES RATIGLUE 135G</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
@@ -19395,7 +19387,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
@@ -19416,7 +19408,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -19433,24 +19425,24 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>3901110003</t>
+          <t>3601050007</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>PORTACEBO RATAS</t>
+          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -19478,7 +19470,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
@@ -19499,7 +19491,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -19516,24 +19508,32 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>3402050003</t>
+          <t>3301030001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>COMPO ABRILLANTADOR 600ML</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr"/>
-      <c r="D63" s="3" t="inlineStr"/>
+          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr">
+        <is>
+          <t>2,5Kg</t>
+        </is>
+      </c>
+      <c r="D63" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -19561,7 +19561,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>16</v>
+        <v>122</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>59</v>
@@ -19582,7 +19582,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -19599,24 +19599,24 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>3502010009</t>
+          <t>3302150003</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>ENFERMEDADES ROSALES 10ML</t>
+          <t>COMPO BIO CITRICOS 750GR</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
       <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -19644,7 +19644,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>59</v>
@@ -19665,7 +19665,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -19682,24 +19682,24 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>3501100005</t>
+          <t>3901130003</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
+          <t>INSECTICIDA CARCOMA 200ML</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -19727,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>151</v>
+        <v>14</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
@@ -19748,7 +19748,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -19765,24 +19765,24 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>3601050001</t>
+          <t>3501100021</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECTICIDA STOP 750ML</t>
+          <t>YNJECT GO PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -19810,16 +19810,16 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>24.44</v>
+        <v>2.22</v>
       </c>
       <c r="S66" s="5" t="n">
         <v>0</v>
@@ -19836,7 +19836,7 @@
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -19848,24 +19848,24 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>3302180002</t>
+          <t>3902040002</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE TOMATES 500ML</t>
+          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
       <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -19893,7 +19893,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
@@ -19914,7 +19914,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
@@ -19931,24 +19931,24 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>3601050007</t>
+          <t>3401040003</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
+          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
       <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -19997,7 +19997,7 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -20014,24 +20014,24 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>3901050001</t>
+          <t>3701010002</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
+          <t>ROUNDUP GEL GARDEN</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>HERBICIDAS</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -20059,7 +20059,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
@@ -20080,7 +20080,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -20097,12 +20097,12 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>3904010004</t>
+          <t>3902020002</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
+          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
@@ -20142,7 +20142,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
@@ -20163,7 +20163,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -20180,32 +20180,24 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>3403030001</t>
+          <t>3501100002</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED LARGA DURACION</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>3KG</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr"/>
+      <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -20233,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
@@ -20254,7 +20246,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -20271,24 +20263,24 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>3901090001</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>COLA PARA RATONES RATIGLUE 135G</t>
+          <t>YNJECT CONECTOR PALMERA</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -20316,19 +20308,19 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R72" s="4" t="n">
-        <v>65.56</v>
+        <v>25.56</v>
       </c>
       <c r="S72" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T72" s="8" t="inlineStr">
         <is>
@@ -20337,12 +20329,12 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W72" s="4" t="inlineStr">
@@ -20354,24 +20346,24 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3402060004</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
+          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr"/>
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -20399,19 +20391,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>31</v>
+        <v>12</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T73" s="8" t="inlineStr">
         <is>
@@ -20420,12 +20412,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -20437,24 +20429,24 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>3401040003</t>
+          <t>3302210004</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
+          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr"/>
       <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -20482,7 +20474,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
@@ -20503,7 +20495,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -20520,24 +20512,24 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>3301030004</t>
+          <t>3902040001</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
+          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -20565,7 +20557,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>59</v>
@@ -20586,7 +20578,7 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -20603,24 +20595,24 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3302170005</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
+          <t>VARITAS HUERTO FRUTALES</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr"/>
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -20648,7 +20640,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
@@ -20669,7 +20661,7 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -20686,32 +20678,24 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3302180002</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>1I5KG</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE TOMATES 500ML</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr"/>
+      <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -20739,19 +20723,19 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q77" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R77" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S77" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T77" s="8" t="inlineStr">
         <is>
@@ -20760,12 +20744,12 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W77" s="4" t="inlineStr">
@@ -20777,16 +20761,24 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>3501100015</t>
+          <t>3502010011</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr"/>
-      <c r="D78" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA PHITOFTORA</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr">
+        <is>
+          <t>45GR</t>
+        </is>
+      </c>
+      <c r="D78" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E78" s="4" t="inlineStr">
         <is>
           <t>35</t>
@@ -20822,16 +20814,16 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>2.22</v>
+        <v>24.44</v>
       </c>
       <c r="S78" s="5" t="n">
         <v>0</v>
@@ -20848,7 +20840,7 @@
       </c>
       <c r="V78" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W78" s="4" t="inlineStr">
@@ -20860,24 +20852,16 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>3901030001</t>
+          <t>3901130002</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>COMPO ANTIHORMIGAS</t>
-        </is>
-      </c>
-      <c r="C79" s="3" t="inlineStr">
-        <is>
-          <t>500G</t>
-        </is>
-      </c>
-      <c r="D79" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+        </is>
+      </c>
+      <c r="C79" s="3" t="inlineStr"/>
+      <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -20913,7 +20897,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>98</v>
+        <v>38</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
@@ -20934,7 +20918,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -20951,24 +20935,24 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>3602030001</t>
+          <t>3501040003</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER SAL DE COBRE 70511</t>
+          <t>ANTIPULGONES LU 750 ML</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr"/>
       <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -20996,7 +20980,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
@@ -21017,7 +21001,7 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
@@ -21034,24 +21018,24 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>3402020002</t>
+          <t>3901050001</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>BIO FORTIGO FLORES 1L</t>
+          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr"/>
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -21079,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>59</v>
@@ -21100,7 +21084,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -21117,24 +21101,32 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>3402060002</t>
+          <t>3602030003</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE BONSAIS 500ML</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr"/>
-      <c r="D82" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA BIOLOGICO</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>50G</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -21162,19 +21154,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T82" s="8" t="inlineStr">
         <is>
@@ -21183,12 +21175,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -21200,24 +21192,24 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>3403040000</t>
+          <t>3902070009</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
+          <t>FERO-TRAMPA OLIVO</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr"/>
       <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -21245,7 +21237,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -21266,7 +21258,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -21283,24 +21275,24 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>3903020003</t>
+          <t>3501100013</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
+          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr"/>
       <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -21328,7 +21320,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
@@ -21349,7 +21341,7 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
@@ -21366,24 +21358,32 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>3401050003</t>
+          <t>3601050002</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr"/>
-      <c r="D85" s="3" t="inlineStr"/>
+          <t>BIOFLOWER ACEITE DE NEEM</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr">
+        <is>
+          <t>450ML</t>
+        </is>
+      </c>
+      <c r="D85" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -21411,7 +21411,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
@@ -21432,7 +21432,7 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
@@ -21449,24 +21449,32 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>3501100001</t>
+          <t>3901030011</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>ANTIMINADOR 50ML</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr"/>
-      <c r="D86" s="3" t="inlineStr"/>
+          <t>KB NEXA HORMIGAS GRANULADO</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D86" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -21494,7 +21502,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
@@ -21515,7 +21523,7 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
@@ -21532,12 +21540,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>3902070009</t>
+          <t>3902070007</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA OLIVO</t>
+          <t>FERO-TRAMPA CITRICOS</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
@@ -21577,7 +21585,7 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
@@ -21598,7 +21606,7 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
@@ -21615,24 +21623,24 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>3601040001</t>
+          <t>3902070004</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
+          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -21660,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
@@ -21681,7 +21689,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -21698,24 +21706,24 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>3701010002</t>
+          <t>3904010004</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>ROUNDUP GEL GARDEN</t>
+          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>HERBICIDAS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -21743,7 +21751,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
@@ -21764,7 +21772,7 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
@@ -21781,24 +21789,24 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>3501100021</t>
+          <t>3901110002</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PINO (NO VENTA)</t>
+          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -21832,13 +21840,13 @@
         <v>59</v>
       </c>
       <c r="Q90" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T90" s="8" t="inlineStr">
         <is>
@@ -21847,12 +21855,12 @@
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
@@ -21864,24 +21872,24 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>3501040002</t>
+          <t>3601040001</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGON 750ML</t>
+          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr"/>
       <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -21909,7 +21917,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
@@ -21930,7 +21938,7 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
@@ -21947,12 +21955,12 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>3902010001</t>
+          <t>3901040001</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
+          <t>ANTIHORMIGAS PISTOLA 750ML</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr"/>
@@ -21992,7 +22000,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>18</v>
+        <v>82</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
@@ -22013,7 +22021,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -22030,24 +22038,24 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>3902040001</t>
+          <t>3502010005</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
+          <t>AZUFRE 450 GRS.</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr"/>
       <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
@@ -22075,7 +22083,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
@@ -22096,7 +22104,7 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
@@ -22113,24 +22121,24 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>3501110005</t>
+          <t>3902070005</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA GERANIOS LU 750 ML</t>
+          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
@@ -22158,7 +22166,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
@@ -22179,7 +22187,7 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
@@ -22196,24 +22204,24 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>3302200017</t>
+          <t>3401040008</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELO 250ML</t>
+          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
       <c r="D95" s="3" t="inlineStr"/>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -22241,7 +22249,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
@@ -22262,7 +22270,7 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
@@ -22279,24 +22287,24 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>3502010005</t>
+          <t>3401050003</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>AZUFRE 450 GRS.</t>
+          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
       <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G96" s="4" t="n">
@@ -22324,7 +22332,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
@@ -22345,7 +22353,7 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
@@ -22362,24 +22370,24 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>3502020003</t>
+          <t>3901040002</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
+          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr"/>
       <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G97" s="4" t="n">
@@ -22407,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P97" s="4" t="n">
         <v>59</v>
@@ -22428,7 +22436,7 @@
       </c>
       <c r="U97" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V97" s="4" t="inlineStr">
@@ -22445,24 +22453,24 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>3904010002</t>
+          <t>3501140001</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
+          <t>AVIDUST 1KG</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr"/>
       <c r="D98" s="3" t="inlineStr"/>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G98" s="4" t="n">
@@ -22490,7 +22498,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="P98" s="4" t="n">
         <v>59</v>
@@ -22511,7 +22519,7 @@
       </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V98" s="4" t="inlineStr">
@@ -22528,32 +22536,24 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>3301030001</t>
+          <t>3502010014</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
-        </is>
-      </c>
-      <c r="C99" s="3" t="inlineStr">
-        <is>
-          <t>2,5Kg</t>
-        </is>
-      </c>
-      <c r="D99" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>REVUS ANTIMILDIU 20ML</t>
+        </is>
+      </c>
+      <c r="C99" s="3" t="inlineStr"/>
+      <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F99" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G99" s="4" t="n">
@@ -22581,7 +22581,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="4" t="n">
-        <v>122</v>
+        <v>12</v>
       </c>
       <c r="P99" s="4" t="n">
         <v>59</v>
@@ -22602,7 +22602,7 @@
       </c>
       <c r="U99" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V99" s="4" t="inlineStr">
@@ -22619,24 +22619,24 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>3302070001</t>
+          <t>3403010005</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS 750GR</t>
+          <t>ABONO GRAMA 2KG</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr"/>
       <c r="D100" s="3" t="inlineStr"/>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G100" s="4" t="n">
@@ -22664,19 +22664,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>72</v>
+        <v>12</v>
       </c>
       <c r="P100" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q100" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R100" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T100" s="8" t="inlineStr">
         <is>
@@ -22685,12 +22685,12 @@
       </c>
       <c r="U100" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V100" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W100" s="4" t="inlineStr">
@@ -22702,24 +22702,24 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>3502010001</t>
+          <t>3901110003</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
+          <t>PORTACEBO RATAS</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr"/>
       <c r="D101" s="3" t="inlineStr"/>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G101" s="4" t="n">
@@ -22747,7 +22747,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="P101" s="4" t="n">
         <v>59</v>
@@ -22768,7 +22768,7 @@
       </c>
       <c r="U101" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V101" s="4" t="inlineStr">
@@ -22785,24 +22785,24 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>3302200014</t>
+          <t>3501040002</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
+          <t>INSECTICIDA PULGON 750ML</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
@@ -22830,7 +22830,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="P102" s="4" t="n">
         <v>59</v>
@@ -22851,7 +22851,7 @@
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
@@ -22868,24 +22868,24 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>3302200018</t>
+          <t>3901090003</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELOS</t>
+          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
@@ -22913,7 +22913,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P103" s="4" t="n">
         <v>59</v>
@@ -22934,7 +22934,7 @@
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
@@ -22951,24 +22951,32 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>3301030003</t>
+          <t>3403030001</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROZE 1KG</t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr"/>
-      <c r="D104" s="3" t="inlineStr"/>
+          <t>ABONO CESPED LARGA DURACION</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr">
+        <is>
+          <t>3KG</t>
+        </is>
+      </c>
+      <c r="D104" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
@@ -22996,7 +23004,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P104" s="4" t="n">
         <v>59</v>
@@ -23017,7 +23025,7 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
@@ -23034,24 +23042,24 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>3901130002</t>
+          <t>3501140005</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr"/>
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
@@ -23079,7 +23087,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="P105" s="4" t="n">
         <v>59</v>
@@ -23100,7 +23108,7 @@
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
@@ -23117,32 +23125,24 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>3403010003</t>
+          <t>3302100001</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED GRANDES JARDINES</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>7I5KG</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr"/>
+      <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
@@ -23170,7 +23170,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="P106" s="4" t="n">
         <v>59</v>
@@ -23191,7 +23191,7 @@
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
@@ -23208,12 +23208,12 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>3302210004</t>
+          <t>3302140001</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
+          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="P107" s="4" t="n">
         <v>59</v>
@@ -23274,7 +23274,7 @@
       </c>
       <c r="U107" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V107" s="4" t="inlineStr">
@@ -23291,24 +23291,24 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>3902070003</t>
+          <t>3302210001</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
+          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="P108" s="4" t="n">
         <v>59</v>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
@@ -23374,24 +23374,24 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>3601050004</t>
+          <t>3301030003</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
+          <t>ABONO ROZE 1KG</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr"/>
       <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P109" s="4" t="n">
         <v>59</v>
@@ -23440,7 +23440,7 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
@@ -23457,24 +23457,24 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>3902070008</t>
+          <t>3501110005</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA FRUIT</t>
+          <t>INSECTICIDA GERANIOS LU 750 ML</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr"/>
       <c r="D110" s="3" t="inlineStr"/>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
@@ -23502,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>24</v>
+        <v>54</v>
       </c>
       <c r="P110" s="4" t="n">
         <v>59</v>
@@ -23523,7 +23523,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -23540,24 +23540,24 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>3502010007</t>
+          <t>3901130001</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
+          <t>FIN CHINCHES Y PULGAS 150ML</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr"/>
       <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G111" s="4" t="n">
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="P111" s="4" t="n">
         <v>59</v>
@@ -23606,7 +23606,7 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
@@ -23623,24 +23623,24 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>3501100002</t>
+          <t>3402020002</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
+          <t>BIO FORTIGO FLORES 1L</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr"/>
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G112" s="4" t="n">
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="P112" s="4" t="n">
         <v>59</v>
@@ -23689,7 +23689,7 @@
       </c>
       <c r="U112" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V112" s="4" t="inlineStr">
@@ -23706,12 +23706,12 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>3502020002</t>
+          <t>3501100015</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>FUNGICIDA ROSALES 750ML</t>
+          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr"/>
@@ -23751,19 +23751,19 @@
         <v>0</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="P113" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q113" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R113" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S113" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T113" s="8" t="inlineStr">
         <is>
@@ -23772,12 +23772,12 @@
       </c>
       <c r="U113" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V113" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W113" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
@@ -7956,12 +7956,12 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3501110004</t>
+          <t>3501020003</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>L.U. ANTITALADRO 750ML</t>
+          <t>LU KETAR INSECTICIDA TOTAL PLUS 750ML</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
@@ -7983,13 +7983,13 @@
         <v>2</v>
       </c>
       <c r="I18" s="4" t="n">
-        <v>27.9</v>
+        <v>25.98</v>
       </c>
       <c r="J18" s="4" t="n">
-        <v>13.94</v>
+        <v>12.35</v>
       </c>
       <c r="K18" s="4" t="n">
-        <v>5.56</v>
+        <v>4.55</v>
       </c>
       <c r="L18" s="4" t="n">
         <v>0</v>
@@ -8001,10 +8001,10 @@
         <v>4.6</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P18" s="4" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="4" t="n">
         <v>59</v>
@@ -8039,12 +8039,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3501020003</t>
+          <t>3501110004</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>LU KETAR INSECTICIDA TOTAL PLUS 750ML</t>
+          <t>L.U. ANTITALADRO 750ML</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -8066,13 +8066,13 @@
         <v>2</v>
       </c>
       <c r="I19" s="4" t="n">
-        <v>25.98</v>
+        <v>27.9</v>
       </c>
       <c r="J19" s="4" t="n">
-        <v>12.35</v>
+        <v>13.94</v>
       </c>
       <c r="K19" s="4" t="n">
-        <v>4.55</v>
+        <v>5.56</v>
       </c>
       <c r="L19" s="4" t="n">
         <v>0</v>
@@ -8084,10 +8084,10 @@
         <v>4.6</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P19" s="4" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="4" t="n">
         <v>59</v>
@@ -8205,24 +8205,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3901110004</t>
+          <t>3302050002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>RATICIDA BLOQUES 250GR</t>
+          <t>ABONO ROSALES 1KGR</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -8232,13 +8232,13 @@
         <v>2</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>19.98</v>
+        <v>19.86</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>7.63</v>
+        <v>7.53</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>4.55</v>
+        <v>10</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>4.6</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>59</v>
@@ -8288,24 +8288,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3302050002</t>
+          <t>3901110004</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROSALES 1KGR</t>
+          <t>RATICIDA BLOQUES 250GR</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -8315,13 +8315,13 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>19.86</v>
+        <v>19.98</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>7.53</v>
+        <v>7.63</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>10</v>
+        <v>4.55</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -8333,10 +8333,10 @@
         <v>4.6</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>59</v>
@@ -11238,32 +11238,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3501140003</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>1KG</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>INSECTICIDA SUELO 600GR</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -11279,7 +11271,7 @@
         <v>5.35</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.33</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -11291,10 +11283,10 @@
         <v>2.3</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -11329,24 +11321,32 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3501140003</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA SUELO 600GR</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>FERRO PLUS REVERDECIENTE</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1KG</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -11362,7 +11362,7 @@
         <v>5.35</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>25</v>
+        <v>3.33</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11374,10 +11374,10 @@
         <v>2.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -12997,24 +12997,16 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3401040002</t>
+          <t>3402040004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO LIQUIDO</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13032,13 +13024,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>7.99</v>
+        <v>7.49</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>3.11</v>
+        <v>2.7</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -13050,10 +13042,10 @@
         <v>2.3</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>59</v>
@@ -13088,16 +13080,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3402040004</t>
+          <t>3401040002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>FERTILIZANTE GUANO LIQUIDO</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13115,13 +13115,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>7.49</v>
+        <v>7.99</v>
       </c>
       <c r="J25" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K25" s="4" t="n">
         <v>2.7</v>
-      </c>
-      <c r="K25" s="4" t="n">
-        <v>10</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -13133,10 +13133,10 @@
         <v>2.3</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>59</v>
@@ -14413,24 +14413,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3302070001</t>
+          <t>3901040002</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS 750GR</t>
+          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -14458,7 +14458,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -14496,24 +14496,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3501100005</t>
+          <t>3302210004</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
+          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14541,7 +14541,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
@@ -14562,7 +14562,7 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
@@ -14579,24 +14579,32 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3901030009</t>
+          <t>3602030003</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>CEBO ANTIHORMIGAS 10GR</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA BIOLOGICO</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>50G</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14624,19 +14632,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -14645,12 +14653,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14662,24 +14670,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3901080002</t>
+          <t>3301030004</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
+          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -14707,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -14728,7 +14736,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -14745,24 +14753,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3301040005</t>
+          <t>3902070004</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
+          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -14790,7 +14798,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
@@ -14811,7 +14819,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -14828,24 +14836,16 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3301040001</t>
+          <t>3301040005</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="C7" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D7" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="inlineStr"/>
+      <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
           <t>33</t>
@@ -14881,7 +14881,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>58</v>
+        <v>16</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -14902,7 +14902,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -14919,16 +14919,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3402060002</t>
+          <t>3403010003</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE BONSAIS 500ML</t>
-        </is>
-      </c>
-      <c r="C8" s="3" t="inlineStr"/>
-      <c r="D8" s="3" t="inlineStr"/>
+          <t>ABONO CESPED GRANDES JARDINES</t>
+        </is>
+      </c>
+      <c r="C8" s="3" t="inlineStr">
+        <is>
+          <t>7I5KG</t>
+        </is>
+      </c>
+      <c r="D8" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -14964,7 +14972,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
@@ -14985,7 +14993,7 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
@@ -15002,24 +15010,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3302200014</t>
+          <t>3502010001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
+          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15047,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>43</v>
+        <v>4</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
@@ -15068,7 +15076,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -15085,24 +15093,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3901030007</t>
+          <t>3402020002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
+          <t>BIO FORTIGO FLORES 1L</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -15130,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -15151,7 +15159,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -15168,24 +15176,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3302070002</t>
+          <t>3601050001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS SOLUBLE 800GR</t>
+          <t>BIO INSECTICIDA STOP 750ML</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -15213,19 +15221,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -15234,12 +15242,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15251,12 +15259,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3501100001</t>
+          <t>3502010005</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ANTIMINADOR 50ML</t>
+          <t>AZUFRE 450 GRS.</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -15296,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -15317,7 +15325,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -15334,24 +15342,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3302200008</t>
+          <t>3902070003</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>AZULADOR DE HORTENSIAS 800GR</t>
+          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15379,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -15400,7 +15408,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -15417,24 +15425,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3502010009</t>
+          <t>3901110003</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ENFERMEDADES ROSALES 10ML</t>
+          <t>PORTACEBO RATAS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -15462,7 +15470,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
@@ -15483,7 +15491,7 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
@@ -15500,12 +15508,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3302200003</t>
+          <t>3302210020</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ABONO PALMERAS 500ML</t>
+          <t>ABONO TREPADORAS ECO 800GR</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -15545,19 +15553,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -15566,12 +15574,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15583,24 +15591,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3302210003</t>
+          <t>3901030010</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML 10893</t>
+          <t>ECOFIN CINTA ARBORICOLA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -15649,7 +15657,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -15666,24 +15674,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3602030001</t>
+          <t>3402050003</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER SAL DE COBRE 70511</t>
+          <t>COMPO ABRILLANTADOR 600ML</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -15711,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -15732,7 +15740,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -15749,16 +15757,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3502020002</t>
+          <t>3502010011</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>FUNGICIDA ROSALES 750ML</t>
-        </is>
-      </c>
-      <c r="C18" s="3" t="inlineStr"/>
-      <c r="D18" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA PHITOFTORA</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="inlineStr">
+        <is>
+          <t>45GR</t>
+        </is>
+      </c>
+      <c r="D18" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
           <t>35</t>
@@ -15794,19 +15810,19 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
+        <v>80</v>
+      </c>
+      <c r="P18" s="4" t="n">
+        <v>59</v>
+      </c>
+      <c r="Q18" s="4" t="n">
         <v>22</v>
       </c>
-      <c r="P18" s="4" t="n">
-        <v>59</v>
-      </c>
-      <c r="Q18" s="4" t="n">
-        <v>59</v>
-      </c>
       <c r="R18" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T18" s="8" t="inlineStr">
         <is>
@@ -15815,12 +15831,12 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
@@ -15832,24 +15848,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3302210022</t>
+          <t>3501100001</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
+          <t>ANTIMINADOR 50ML</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15877,19 +15893,19 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q19" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R19" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T19" s="8" t="inlineStr">
         <is>
@@ -15898,12 +15914,12 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W19" s="4" t="inlineStr">
@@ -15915,12 +15931,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3904010002</t>
+          <t>3901090003</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
+          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -15960,7 +15976,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -15981,7 +15997,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -15998,24 +16014,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3501050002</t>
+          <t>3302120001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
+          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -16043,7 +16059,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -16064,7 +16080,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -16081,24 +16097,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3403040000</t>
+          <t>3501050002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
+          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -16126,7 +16142,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
@@ -16147,7 +16163,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -16164,12 +16180,12 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>3501100011</t>
+          <t>3502010014</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>PACK FRUTALES VITHAL</t>
+          <t>REVUS ANTIMILDIU 20ML</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
@@ -16209,7 +16225,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
@@ -16230,7 +16246,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -16247,24 +16263,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3501100022</t>
+          <t>3601050004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PALMERAS (NO VENTA)</t>
+          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -16292,19 +16308,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>50</v>
+        <v>18</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R24" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T24" s="8" t="inlineStr">
         <is>
@@ -16313,12 +16329,12 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="4" t="inlineStr">
@@ -16330,24 +16346,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3302100001</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
+          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
         </is>
       </c>
       <c r="C25" s="3" t="inlineStr"/>
       <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16375,19 +16391,19 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q25" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R25" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T25" s="8" t="inlineStr">
         <is>
@@ -16396,12 +16412,12 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W25" s="4" t="inlineStr">
@@ -16413,24 +16429,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>3302200017</t>
+          <t>3901030012</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELO 250ML</t>
+          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -16458,7 +16474,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
@@ -16479,7 +16495,7 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
@@ -16496,24 +16512,32 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>3501080003</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
-        </is>
-      </c>
-      <c r="C27" s="3" t="inlineStr"/>
-      <c r="D27" s="3" t="inlineStr"/>
+          <t>ABONO CESPED BOLSA</t>
+        </is>
+      </c>
+      <c r="C27" s="3" t="inlineStr">
+        <is>
+          <t>1I5KG</t>
+        </is>
+      </c>
+      <c r="D27" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -16541,19 +16565,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>25</v>
+        <v>50</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q27" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R27" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T27" s="8" t="inlineStr">
         <is>
@@ -16562,12 +16586,12 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W27" s="4" t="inlineStr">
@@ -16579,32 +16603,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>3403010003</t>
+          <t>3902070007</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED GRANDES JARDINES</t>
-        </is>
-      </c>
-      <c r="C28" s="3" t="inlineStr">
-        <is>
-          <t>7I5KG</t>
-        </is>
-      </c>
-      <c r="D28" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERO-TRAMPA CITRICOS</t>
+        </is>
+      </c>
+      <c r="C28" s="3" t="inlineStr"/>
+      <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -16632,7 +16648,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
@@ -16653,7 +16669,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -16670,24 +16686,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>3302120001</t>
+          <t>3601050007</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
+          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
         </is>
       </c>
       <c r="C29" s="3" t="inlineStr"/>
       <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16715,7 +16731,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
@@ -16736,7 +16752,7 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
@@ -16753,24 +16769,24 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>3502010001</t>
+          <t>3902040001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
+          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -16798,7 +16814,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>59</v>
@@ -16819,7 +16835,7 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
@@ -16836,12 +16852,12 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3902070008</t>
+          <t>3902060002</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA FRUIT</t>
+          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
@@ -16881,7 +16897,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
@@ -16902,7 +16918,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -16919,24 +16935,24 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3901050006</t>
+          <t>3403040000</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>TRAMPA SICUR TRAMP 2 UDS</t>
+          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
         </is>
       </c>
       <c r="C32" s="3" t="inlineStr"/>
       <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -16964,7 +16980,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
@@ -16985,7 +17001,7 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
@@ -17002,12 +17018,12 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>3903020005</t>
+          <t>3901050006</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
+          <t>TRAMPA SICUR TRAMP 2 UDS</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
@@ -17047,7 +17063,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
@@ -17068,7 +17084,7 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
@@ -17085,12 +17101,12 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>3302210020</t>
+          <t>3301030003</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>ABONO TREPADORAS ECO 800GR</t>
+          <t>ABONO ROZE 1KG</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
@@ -17130,19 +17146,19 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q34" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R34" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T34" s="8" t="inlineStr">
         <is>
@@ -17151,12 +17167,12 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W34" s="4" t="inlineStr">
@@ -17168,24 +17184,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>3402050003</t>
+          <t>3903020003</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>COMPO ABRILLANTADOR 600ML</t>
+          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -17213,7 +17229,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
@@ -17234,7 +17250,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -17251,24 +17267,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>3903020003</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
+          <t>FERRO PLUS REVERDECIENTE</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17296,7 +17312,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
@@ -17317,7 +17333,7 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -17334,24 +17350,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>3502010007</t>
+          <t>3902020002</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
+          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -17379,7 +17395,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
@@ -17400,7 +17416,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -17417,12 +17433,12 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>3902070003</t>
+          <t>3901130001</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
+          <t>FIN CHINCHES Y PULGAS 150ML</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
@@ -17462,7 +17478,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -17483,7 +17499,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17500,24 +17516,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>3601050001</t>
+          <t>3902070006</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECTICIDA STOP 750ML</t>
+          <t>ECOFIN TRAMPA MOSCAS</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -17545,19 +17561,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
@@ -17566,12 +17582,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -17583,24 +17599,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>3902010001</t>
+          <t>3302210003</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
+          <t>CANABIUM REGULADOR PH 500ML 10893</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -17628,7 +17644,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
@@ -17649,7 +17665,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -17666,24 +17682,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>3301030004</t>
+          <t>3701010002</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
+          <t>ROUNDUP GEL GARDEN</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>HERBICIDAS</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17711,7 +17727,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
@@ -17732,7 +17748,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -17749,24 +17765,32 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>3601040002</t>
+          <t>3403030001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
-        </is>
-      </c>
-      <c r="C42" s="3" t="inlineStr"/>
-      <c r="D42" s="3" t="inlineStr"/>
+          <t>ABONO CESPED LARGA DURACION</t>
+        </is>
+      </c>
+      <c r="C42" s="3" t="inlineStr">
+        <is>
+          <t>3KG</t>
+        </is>
+      </c>
+      <c r="D42" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17794,7 +17818,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
@@ -17815,7 +17839,7 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
@@ -17832,12 +17856,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>3902060002</t>
+          <t>3901130003</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
+          <t>INSECTICIDA CARCOMA 200ML</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -17877,7 +17901,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
@@ -17898,7 +17922,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -17915,12 +17939,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>3903010001</t>
+          <t>3904010002</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
+          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -17960,7 +17984,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
@@ -17981,7 +18005,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -17998,32 +18022,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3901090004</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
-        </is>
-      </c>
-      <c r="C45" s="3" t="inlineStr">
-        <is>
-          <t>1I5KG</t>
-        </is>
-      </c>
-      <c r="D45" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ECOFIN TRAMPA RATONES</t>
+        </is>
+      </c>
+      <c r="C45" s="3" t="inlineStr"/>
+      <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18051,19 +18067,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
@@ -18072,12 +18088,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18089,24 +18105,24 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3501100011</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
+          <t>PACK FRUTALES VITHAL</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
       <c r="D46" s="3" t="inlineStr"/>
       <c r="E46" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F46" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G46" s="4" t="n">
@@ -18134,7 +18150,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>31</v>
+        <v>1</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
@@ -18155,7 +18171,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -18172,24 +18188,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>3901030002</t>
+          <t>3402060004</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
+          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -18217,19 +18233,19 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>76</v>
+        <v>12</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q47" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R47" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T47" s="8" t="inlineStr">
         <is>
@@ -18238,12 +18254,12 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W47" s="4" t="inlineStr">
@@ -18255,12 +18271,12 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>3901030012</t>
+          <t>3901050001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
+          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
@@ -18300,7 +18316,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
@@ -18321,7 +18337,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -18338,24 +18354,32 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>3302210009</t>
+          <t>3901030001</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
-        </is>
-      </c>
-      <c r="C49" s="3" t="inlineStr"/>
-      <c r="D49" s="3" t="inlineStr"/>
+          <t>COMPO ANTIHORMIGAS</t>
+        </is>
+      </c>
+      <c r="C49" s="3" t="inlineStr">
+        <is>
+          <t>500G</t>
+        </is>
+      </c>
+      <c r="D49" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E49" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F49" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G49" s="4" t="n">
@@ -18383,7 +18407,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>2</v>
+        <v>98</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
@@ -18404,7 +18428,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -18421,32 +18445,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>3901030001</t>
+          <t>3501040002</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>COMPO ANTIHORMIGAS</t>
-        </is>
-      </c>
-      <c r="C50" s="3" t="inlineStr">
-        <is>
-          <t>500G</t>
-        </is>
-      </c>
-      <c r="D50" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>INSECTICIDA PULGON 750ML</t>
+        </is>
+      </c>
+      <c r="C50" s="3" t="inlineStr"/>
+      <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -18474,7 +18490,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -18495,7 +18511,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -18512,24 +18528,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>3302200018</t>
+          <t>3902010001</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELOS</t>
+          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18557,7 +18573,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
@@ -18578,7 +18594,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -18595,24 +18611,24 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3502020002</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
+          <t>FUNGICIDA ROSALES 750ML</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -18640,7 +18656,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
@@ -18661,7 +18677,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -18678,24 +18694,24 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>3901090004</t>
+          <t>3403010005</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA RATONES</t>
+          <t>ABONO GRAMA 2KG</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -18723,19 +18739,19 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q53" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R53" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S53" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T53" s="8" t="inlineStr">
         <is>
@@ -18744,12 +18760,12 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W53" s="4" t="inlineStr">
@@ -18761,24 +18777,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>3302210002</t>
+          <t>3901040001</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
+          <t>ANTIHORMIGAS PISTOLA 750ML</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18806,7 +18822,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>34</v>
+        <v>82</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
@@ -18827,7 +18843,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -18844,12 +18860,12 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>3901140002</t>
+          <t>3901130002</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
+          <t>FIN INSECTOS CONCENTRADO 25ML</t>
         </is>
       </c>
       <c r="C55" s="3" t="inlineStr"/>
@@ -18889,7 +18905,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
@@ -18910,7 +18926,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -18927,12 +18943,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>3502020003</t>
+          <t>3501040003</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
+          <t>ANTIPULGONES LU 750 ML</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -18972,7 +18988,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
@@ -18993,7 +19009,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -19010,24 +19026,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>3901040003</t>
+          <t>3501100002</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>LU ANTIHORMIGAS 750ML CAJA</t>
+          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -19055,7 +19071,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
@@ -19076,7 +19092,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -19093,16 +19109,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>3601050004</t>
+          <t>3601050002</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
-        </is>
-      </c>
-      <c r="C58" s="3" t="inlineStr"/>
-      <c r="D58" s="3" t="inlineStr"/>
+          <t>BIOFLOWER ACEITE DE NEEM</t>
+        </is>
+      </c>
+      <c r="C58" s="3" t="inlineStr">
+        <is>
+          <t>450ML</t>
+        </is>
+      </c>
+      <c r="D58" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E58" s="4" t="inlineStr">
         <is>
           <t>36</t>
@@ -19138,7 +19162,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
@@ -19159,7 +19183,7 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -19176,24 +19200,24 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>3902070006</t>
+          <t>3501080003</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA MOSCAS</t>
+          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -19221,7 +19245,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>38</v>
+        <v>25</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
@@ -19242,7 +19266,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -19259,12 +19283,12 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>3901030010</t>
+          <t>3901110002</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ARBORICOLA</t>
+          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
         </is>
       </c>
       <c r="C60" s="3" t="inlineStr"/>
@@ -19304,7 +19328,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
@@ -19325,7 +19349,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -19342,24 +19366,24 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>3901090001</t>
+          <t>3502020003</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>COLA PARA RATONES RATIGLUE 135G</t>
+          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -19387,7 +19411,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
@@ -19408,7 +19432,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -19425,24 +19449,24 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>3601050007</t>
+          <t>3903020005</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
+          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -19470,7 +19494,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
@@ -19491,7 +19515,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -19508,24 +19532,16 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>3301030001</t>
+          <t>3302200018</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
-        </is>
-      </c>
-      <c r="C63" s="3" t="inlineStr">
-        <is>
-          <t>2,5Kg</t>
-        </is>
-      </c>
-      <c r="D63" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>REGENERADOR SUELOS</t>
+        </is>
+      </c>
+      <c r="C63" s="3" t="inlineStr"/>
+      <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="4" t="inlineStr">
         <is>
           <t>33</t>
@@ -19561,7 +19577,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>59</v>
@@ -19582,7 +19598,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -19599,24 +19615,24 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>3302150003</t>
+          <t>3501140001</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO CITRICOS 750GR</t>
+          <t>AVIDUST 1KG</t>
         </is>
       </c>
       <c r="C64" s="3" t="inlineStr"/>
       <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -19644,7 +19660,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>59</v>
@@ -19665,7 +19681,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -19682,24 +19698,24 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>3901130003</t>
+          <t>3302200003</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA CARCOMA 200ML</t>
+          <t>ABONO PALMERAS 500ML</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -19727,7 +19743,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
@@ -19748,7 +19764,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -19765,12 +19781,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>3501100021</t>
+          <t>3501100005</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PINO (NO VENTA)</t>
+          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -19810,19 +19826,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>20</v>
+        <v>151</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T66" s="8" t="inlineStr">
         <is>
@@ -19831,12 +19847,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -19848,24 +19864,24 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>3902040002</t>
+          <t>3501110005</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
+          <t>INSECTICIDA GERANIOS LU 750 ML</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
       <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -19893,7 +19909,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>2</v>
+        <v>54</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
@@ -19914,7 +19930,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
@@ -19931,12 +19947,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>3401040003</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
+          <t>ABONO CESPED BOLSA</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
@@ -19976,7 +19992,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
@@ -19997,7 +20013,7 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -20014,24 +20030,24 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>3701010002</t>
+          <t>3401050003</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>ROUNDUP GEL GARDEN</t>
+          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>HERBICIDAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -20059,7 +20075,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
@@ -20080,7 +20096,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -20097,12 +20113,12 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>3902020002</t>
+          <t>3904010004</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
+          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
@@ -20142,7 +20158,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
@@ -20163,7 +20179,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -20180,24 +20196,24 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>3501100002</t>
+          <t>3302140001</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
+          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr"/>
       <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -20225,7 +20241,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
@@ -20246,7 +20262,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -20263,12 +20279,12 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3501100022</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA</t>
+          <t>YNJECT GO PALMERAS (NO VENTA)</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
@@ -20308,16 +20324,16 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q72" s="4" t="n">
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="R72" s="4" t="n">
-        <v>25.56</v>
+        <v>2.22</v>
       </c>
       <c r="S72" s="5" t="n">
         <v>0</v>
@@ -20334,7 +20350,7 @@
       </c>
       <c r="V72" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W72" s="4" t="inlineStr">
@@ -20346,24 +20362,24 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>3402060004</t>
+          <t>3903010001</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
+          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr"/>
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -20391,19 +20407,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T73" s="8" t="inlineStr">
         <is>
@@ -20412,12 +20428,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -20429,24 +20445,24 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>3302210004</t>
+          <t>3902040002</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
+          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr"/>
       <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -20474,7 +20490,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
@@ -20495,7 +20511,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -20512,24 +20528,24 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>3902040001</t>
+          <t>3302150003</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
+          <t>COMPO BIO CITRICOS 750GR</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -20557,7 +20573,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>59</v>
@@ -20578,7 +20594,7 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -20595,24 +20611,24 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>3302170005</t>
+          <t>3401040008</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>VARITAS HUERTO FRUTALES</t>
+          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr"/>
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -20640,7 +20656,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
@@ -20661,7 +20677,7 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -20678,24 +20694,24 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>3302180002</t>
+          <t>3901030002</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE TOMATES 500ML</t>
+          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
         </is>
       </c>
       <c r="C77" s="3" t="inlineStr"/>
       <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -20723,7 +20739,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>12</v>
+        <v>76</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
@@ -20744,7 +20760,7 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -20761,24 +20777,16 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>3502010011</t>
+          <t>3501100015</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA PHITOFTORA</t>
-        </is>
-      </c>
-      <c r="C78" s="3" t="inlineStr">
-        <is>
-          <t>45GR</t>
-        </is>
-      </c>
-      <c r="D78" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C78" s="3" t="inlineStr"/>
+      <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="4" t="inlineStr">
         <is>
           <t>35</t>
@@ -20814,16 +20822,16 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q78" s="4" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="R78" s="4" t="n">
-        <v>24.44</v>
+        <v>2.22</v>
       </c>
       <c r="S78" s="5" t="n">
         <v>0</v>
@@ -20840,7 +20848,7 @@
       </c>
       <c r="V78" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W78" s="4" t="inlineStr">
@@ -20852,12 +20860,12 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>3901130002</t>
+          <t>3901030007</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr"/>
@@ -20897,7 +20905,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
@@ -20918,7 +20926,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -20935,12 +20943,12 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>3501040003</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>ANTIPULGONES LU 750 ML</t>
+          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
         </is>
       </c>
       <c r="C80" s="3" t="inlineStr"/>
@@ -20980,19 +20988,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T80" s="8" t="inlineStr">
         <is>
@@ -21001,12 +21009,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -21018,24 +21026,24 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>3901050001</t>
+          <t>3502010007</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
+          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr"/>
       <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -21063,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>59</v>
@@ -21084,7 +21092,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -21101,32 +21109,24 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>3602030003</t>
+          <t>3302210001</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA BIOLOGICO</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>50G</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr"/>
+      <c r="D82" s="3" t="inlineStr"/>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -21160,13 +21160,13 @@
         <v>59</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T82" s="8" t="inlineStr">
         <is>
@@ -21175,12 +21175,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -21192,24 +21192,32 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>3902070009</t>
+          <t>3301030001</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA OLIVO</t>
-        </is>
-      </c>
-      <c r="C83" s="3" t="inlineStr"/>
-      <c r="D83" s="3" t="inlineStr"/>
+          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
+        </is>
+      </c>
+      <c r="C83" s="3" t="inlineStr">
+        <is>
+          <t>2,5Kg</t>
+        </is>
+      </c>
+      <c r="D83" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -21237,7 +21245,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -21258,7 +21266,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -21275,24 +21283,24 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>3501100013</t>
+          <t>3901030009</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
+          <t>CEBO ANTIHORMIGAS 10GR</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr"/>
       <c r="D84" s="3" t="inlineStr"/>
       <c r="E84" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F84" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G84" s="4" t="n">
@@ -21320,7 +21328,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>10</v>
+        <v>49</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
@@ -21341,7 +21349,7 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
@@ -21358,32 +21366,24 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>3601050002</t>
+          <t>3901080002</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ACEITE DE NEEM</t>
-        </is>
-      </c>
-      <c r="C85" s="3" t="inlineStr">
-        <is>
-          <t>450ML</t>
-        </is>
-      </c>
-      <c r="D85" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
+        </is>
+      </c>
+      <c r="C85" s="3" t="inlineStr"/>
+      <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -21411,7 +21411,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>10</v>
+        <v>30</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
@@ -21432,7 +21432,7 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
@@ -21449,32 +21449,24 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>3901030011</t>
+          <t>3401040003</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>KB NEXA HORMIGAS GRANULADO</t>
-        </is>
-      </c>
-      <c r="C86" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D86" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
+        </is>
+      </c>
+      <c r="C86" s="3" t="inlineStr"/>
+      <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -21502,7 +21494,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
@@ -21523,7 +21515,7 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
@@ -21540,24 +21532,24 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>3902070007</t>
+          <t>3501100021</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA CITRICOS</t>
+          <t>YNJECT GO PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
       <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -21585,19 +21577,19 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T87" s="8" t="inlineStr">
         <is>
@@ -21606,12 +21598,12 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
@@ -21623,24 +21615,24 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>3902070004</t>
+          <t>3501140005</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
+          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -21668,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
@@ -21689,7 +21681,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -21706,24 +21698,24 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>3904010004</t>
+          <t>3302070002</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
+          <t>ABONO GERANIOS SOLUBLE 800GR</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
       <c r="D89" s="3" t="inlineStr"/>
       <c r="E89" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F89" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G89" s="4" t="n">
@@ -21751,7 +21743,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
@@ -21772,7 +21764,7 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
@@ -21789,24 +21781,24 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>3901110002</t>
+          <t>3302210022</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
+          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -21834,19 +21826,19 @@
         <v>0</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P90" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q90" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R90" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S90" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T90" s="8" t="inlineStr">
         <is>
@@ -21855,12 +21847,12 @@
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W90" s="4" t="inlineStr">
@@ -21872,24 +21864,24 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>3601040001</t>
+          <t>3302210002</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
+          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr"/>
       <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -21917,7 +21909,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
@@ -21938,7 +21930,7 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
@@ -21955,24 +21947,24 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>3901040001</t>
+          <t>3302200008</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS PISTOLA 750ML</t>
+          <t>AZULADOR DE HORTENSIAS 800GR</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr"/>
       <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
@@ -22000,7 +21992,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>82</v>
+        <v>16</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
@@ -22021,7 +22013,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -22038,24 +22030,24 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>3502010005</t>
+          <t>3302170005</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>AZUFRE 450 GRS.</t>
+          <t>VARITAS HUERTO FRUTALES</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr"/>
       <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
@@ -22083,7 +22075,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
@@ -22104,7 +22096,7 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
@@ -22121,24 +22113,24 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>3902070005</t>
+          <t>3502010009</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
+          <t>ENFERMEDADES ROSALES 10ML</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
@@ -22166,7 +22158,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
@@ -22187,7 +22179,7 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
@@ -22204,24 +22196,32 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>3401040008</t>
+          <t>3901030011</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr"/>
-      <c r="D95" s="3" t="inlineStr"/>
+          <t>KB NEXA HORMIGAS GRANULADO</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D95" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -22249,7 +22249,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
@@ -22270,7 +22270,7 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
@@ -22287,24 +22287,24 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>3401050003</t>
+          <t>3601040001</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
+          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
       <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G96" s="4" t="n">
@@ -22332,7 +22332,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
@@ -22353,7 +22353,7 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
@@ -22370,24 +22370,24 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>3901040002</t>
+          <t>3602030001</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
+          <t>BIOFLOWER SAL DE COBRE 70511</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr"/>
       <c r="D97" s="3" t="inlineStr"/>
       <c r="E97" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F97" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G97" s="4" t="n">
@@ -22415,7 +22415,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P97" s="4" t="n">
         <v>59</v>
@@ -22436,7 +22436,7 @@
       </c>
       <c r="U97" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V97" s="4" t="inlineStr">
@@ -22453,24 +22453,24 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>3501140001</t>
+          <t>3601040002</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>AVIDUST 1KG</t>
+          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr"/>
       <c r="D98" s="3" t="inlineStr"/>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G98" s="4" t="n">
@@ -22498,7 +22498,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="P98" s="4" t="n">
         <v>59</v>
@@ -22519,7 +22519,7 @@
       </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V98" s="4" t="inlineStr">
@@ -22536,12 +22536,12 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>3502010014</t>
+          <t>3501100013</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>REVUS ANTIMILDIU 20ML</t>
+          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr"/>
@@ -22581,7 +22581,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="4" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P99" s="4" t="n">
         <v>59</v>
@@ -22602,7 +22602,7 @@
       </c>
       <c r="U99" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V99" s="4" t="inlineStr">
@@ -22619,24 +22619,32 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>3403010005</t>
+          <t>3301040001</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>ABONO GRAMA 2KG</t>
-        </is>
-      </c>
-      <c r="C100" s="3" t="inlineStr"/>
-      <c r="D100" s="3" t="inlineStr"/>
+          <t>ABONO LIQUIDO UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="C100" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D100" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G100" s="4" t="n">
@@ -22664,19 +22672,19 @@
         <v>0</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>12</v>
+        <v>58</v>
       </c>
       <c r="P100" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q100" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R100" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S100" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T100" s="8" t="inlineStr">
         <is>
@@ -22685,12 +22693,12 @@
       </c>
       <c r="U100" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V100" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W100" s="4" t="inlineStr">
@@ -22702,24 +22710,24 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>3901110003</t>
+          <t>3302070001</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>PORTACEBO RATAS</t>
+          <t>ABONO GERANIOS 750GR</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr"/>
       <c r="D101" s="3" t="inlineStr"/>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G101" s="4" t="n">
@@ -22747,7 +22755,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="P101" s="4" t="n">
         <v>59</v>
@@ -22768,7 +22776,7 @@
       </c>
       <c r="U101" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V101" s="4" t="inlineStr">
@@ -22785,24 +22793,24 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>3501040002</t>
+          <t>3402060002</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGON 750ML</t>
+          <t>FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
@@ -22830,7 +22838,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="P102" s="4" t="n">
         <v>59</v>
@@ -22851,7 +22859,7 @@
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
@@ -22868,12 +22876,12 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>3901090003</t>
+          <t>3901140002</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
+          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
@@ -22913,7 +22921,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P103" s="4" t="n">
         <v>59</v>
@@ -22934,7 +22942,7 @@
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
@@ -22951,32 +22959,24 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>3403030001</t>
+          <t>3902070005</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED LARGA DURACION</t>
-        </is>
-      </c>
-      <c r="C104" s="3" t="inlineStr">
-        <is>
-          <t>3KG</t>
-        </is>
-      </c>
-      <c r="D104" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
+        </is>
+      </c>
+      <c r="C104" s="3" t="inlineStr"/>
+      <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
@@ -23004,7 +23004,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="P104" s="4" t="n">
         <v>59</v>
@@ -23025,7 +23025,7 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
@@ -23042,24 +23042,24 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>3501140005</t>
+          <t>3902070008</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
+          <t>FERO-TRAMPA FRUIT</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr"/>
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
@@ -23087,7 +23087,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="P105" s="4" t="n">
         <v>59</v>
@@ -23108,7 +23108,7 @@
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
@@ -23125,24 +23125,24 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>3302100001</t>
+          <t>3901040003</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
+          <t>LU ANTIHORMIGAS 750ML CAJA</t>
         </is>
       </c>
       <c r="C106" s="3" t="inlineStr"/>
       <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
@@ -23170,7 +23170,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="P106" s="4" t="n">
         <v>59</v>
@@ -23191,7 +23191,7 @@
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
@@ -23208,24 +23208,24 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>3302140001</t>
+          <t>3901090001</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
+          <t>COLA PARA RATONES RATIGLUE 135G</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G107" s="4" t="n">
@@ -23253,7 +23253,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="P107" s="4" t="n">
         <v>59</v>
@@ -23274,7 +23274,7 @@
       </c>
       <c r="U107" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V107" s="4" t="inlineStr">
@@ -23291,12 +23291,12 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>3302210001</t>
+          <t>3302200014</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
+          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
@@ -23336,7 +23336,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="P108" s="4" t="n">
         <v>59</v>
@@ -23357,7 +23357,7 @@
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
@@ -23374,12 +23374,12 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>3301030003</t>
+          <t>3302200017</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROZE 1KG</t>
+          <t>REGENERADOR SUELO 250ML</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr"/>
@@ -23419,7 +23419,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P109" s="4" t="n">
         <v>59</v>
@@ -23440,7 +23440,7 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
@@ -23457,24 +23457,24 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>3501110005</t>
+          <t>3302180002</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA GERANIOS LU 750 ML</t>
+          <t>FERTILIZANTE TOMATES 500ML</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr"/>
       <c r="D110" s="3" t="inlineStr"/>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
@@ -23502,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>54</v>
+        <v>12</v>
       </c>
       <c r="P110" s="4" t="n">
         <v>59</v>
@@ -23523,7 +23523,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -23540,12 +23540,12 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>3901130001</t>
+          <t>3902070009</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>FIN CHINCHES Y PULGAS 150ML</t>
+          <t>FERO-TRAMPA OLIVO</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr"/>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="P111" s="4" t="n">
         <v>59</v>
@@ -23606,7 +23606,7 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
@@ -23623,24 +23623,24 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>3402020002</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>BIO FORTIGO FLORES 1L</t>
+          <t>YNJECT CONECTOR PALMERA</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr"/>
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G112" s="4" t="n">
@@ -23668,19 +23668,19 @@
         <v>0</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="P112" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q112" s="4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R112" s="4" t="n">
-        <v>65.56</v>
+        <v>25.56</v>
       </c>
       <c r="S112" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T112" s="8" t="inlineStr">
         <is>
@@ -23689,12 +23689,12 @@
       </c>
       <c r="U112" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V112" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W112" s="4" t="inlineStr">
@@ -23706,24 +23706,24 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>3501100015</t>
+          <t>3302210009</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
+          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr"/>
       <c r="D113" s="3" t="inlineStr"/>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G113" s="4" t="n">
@@ -23751,19 +23751,19 @@
         <v>0</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P113" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q113" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R113" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S113" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T113" s="8" t="inlineStr">
         <is>
@@ -23772,12 +23772,12 @@
       </c>
       <c r="U113" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V113" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W113" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
@@ -3943,12 +3943,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>3302160001</t>
+          <t>3302210008</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
+          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -3967,71 +3967,71 @@
         <v>90</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>47.94</v>
+        <v>48.65</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>17.12</v>
+        <v>17.71</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>13.64</v>
+        <v>0</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>13.7</v>
+        <v>22.9</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>38</v>
+        <v>-10</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>65.56</v>
+        <v>0</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T41" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T41" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>3302210008</t>
+          <t>3302160001</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
+          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -4050,59 +4050,59 @@
         <v>90</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>48.65</v>
+        <v>47.94</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>17.71</v>
+        <v>17.12</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>0</v>
+        <v>13.64</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>22.9</v>
+        <v>13.7</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>-10</v>
+        <v>38</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>0</v>
+        <v>65.56</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T42" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T42" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
@@ -6612,55 +6612,55 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3301030007</t>
+          <t>3402030001</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>KB OSMOCOTE ABONO UNIVERSAL 750 GR</t>
+          <t>ABONO CLAVOS VERDES</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H2" s="4" t="n">
+        <v>6</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>23.94</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>9.050000000000001</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="N2" s="5" t="n">
+        <v>13.7</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>155</v>
+      </c>
+      <c r="P2" s="4" t="n">
         <v>2</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>24.98</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>2.13</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>0</v>
-      </c>
-      <c r="M2" s="5" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="N2" s="5" t="n">
-        <v>4.6</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>92</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>4</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>59</v>
@@ -6695,55 +6695,55 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3402030001</t>
+          <t>3301030007</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>ABONO CLAVOS VERDES</t>
+          <t>KB OSMOCOTE ABONO UNIVERSAL 750 GR</t>
         </is>
       </c>
       <c r="C3" s="3" t="inlineStr"/>
       <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>23.94</v>
+        <v>24.98</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>9.050000000000001</v>
+        <v>9.9</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.73</v>
+        <v>2.13</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M3" s="5" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="N3" s="5" t="n">
         <v>4.6</v>
       </c>
-      <c r="N3" s="5" t="n">
-        <v>13.7</v>
-      </c>
       <c r="O3" s="4" t="n">
-        <v>155</v>
+        <v>92</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -7276,24 +7276,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3302010002</t>
+          <t>3501040001</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>ABONO CONIFERAS Y SETOS 750GR</t>
+          <t>INSECTICIDA PULGONES 10ML</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -7303,13 +7303,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>21.9</v>
+        <v>23.9</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>15.38</v>
+        <v>9.09</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -7321,10 +7321,10 @@
         <v>4.6</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>59</v>
@@ -7359,24 +7359,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3501040001</t>
+          <t>3302010002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGONES 10ML</t>
+          <t>ABONO CONIFERAS Y SETOS 750GR</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -7386,13 +7386,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>23.9</v>
+        <v>21.9</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>9.09</v>
+        <v>15.38</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>4.6</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>59</v>
@@ -8205,24 +8205,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3901110004</t>
+          <t>3302050002</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>RATICIDA BLOQUES 250GR</t>
+          <t>ABONO ROSALES 1KGR</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -8232,13 +8232,13 @@
         <v>2</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>19.98</v>
+        <v>19.86</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>7.63</v>
+        <v>7.53</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>4.55</v>
+        <v>10</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>4.6</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>59</v>
@@ -8288,24 +8288,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3302050002</t>
+          <t>3901110004</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROSALES 1KGR</t>
+          <t>RATICIDA BLOQUES 250GR</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -8315,13 +8315,13 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>19.86</v>
+        <v>19.98</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>7.53</v>
+        <v>7.63</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>10</v>
+        <v>4.55</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -8333,10 +8333,10 @@
         <v>4.6</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>59</v>
@@ -11238,24 +11238,32 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3501140003</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA SUELO 600GR</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>FERRO PLUS REVERDECIENTE</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>1KG</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -11271,7 +11279,7 @@
         <v>5.35</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>25</v>
+        <v>3.33</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -11283,10 +11291,10 @@
         <v>2.3</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -11321,32 +11329,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3501140003</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr">
-        <is>
-          <t>1KG</t>
-        </is>
-      </c>
-      <c r="D4" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>INSECTICIDA SUELO 600GR</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr"/>
+      <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -11362,7 +11362,7 @@
         <v>5.35</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>3.33</v>
+        <v>25</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11374,10 +11374,10 @@
         <v>2.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -14413,24 +14413,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3302210002</t>
+          <t>3902070009</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
+          <t>FERO-TRAMPA OLIVO</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -14458,7 +14458,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -14496,32 +14496,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3602030003</t>
+          <t>3903010001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA BIOLOGICO</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>50G</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14549,19 +14541,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -14570,12 +14562,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -14587,12 +14579,12 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3403010005</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
+          <t>ABONO GRAMA 2KG</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
@@ -14632,19 +14624,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -14653,12 +14645,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14670,24 +14662,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3501100022</t>
+          <t>3403040000</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PALMERAS (NO VENTA)</t>
+          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -14715,19 +14707,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>50</v>
+        <v>4</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T5" s="8" t="inlineStr">
         <is>
@@ -14736,12 +14728,12 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="4" t="inlineStr">
@@ -14753,12 +14745,12 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3501140001</t>
+          <t>3501100011</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>AVIDUST 1KG</t>
+          <t>PACK FRUTALES VITHAL</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
@@ -14798,7 +14790,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
@@ -14819,7 +14811,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -14836,12 +14828,12 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3902070005</t>
+          <t>3901050006</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
+          <t>TRAMPA SICUR TRAMP 2 UDS</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
@@ -14881,7 +14873,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -14902,7 +14894,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -14919,24 +14911,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3401040003</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
+          <t>YNJECT CONECTOR PALMERA</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14964,19 +14956,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>65.56</v>
+        <v>25.56</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -14985,12 +14977,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -15002,24 +14994,32 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3601050007</t>
+          <t>3301040001</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr"/>
-      <c r="D9" s="3" t="inlineStr"/>
+          <t>ABONO LIQUIDO UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D9" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15047,7 +15047,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
@@ -15068,7 +15068,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -15085,24 +15085,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3901080002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
+          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -15130,19 +15130,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T10" s="8" t="inlineStr">
         <is>
@@ -15151,12 +15151,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -15168,12 +15168,12 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3302200017</t>
+          <t>3302210020</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELO 250ML</t>
+          <t>ABONO TREPADORAS ECO 800GR</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
@@ -15213,19 +15213,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -15234,12 +15234,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15251,12 +15251,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3902070006</t>
+          <t>3901030007</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA MOSCAS</t>
+          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -15296,7 +15296,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>38</v>
+        <v>6</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -15317,7 +15317,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -15334,24 +15334,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3402060002</t>
+          <t>3901140002</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE BONSAIS 500ML</t>
+          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -15379,7 +15379,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -15400,7 +15400,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -15417,24 +15417,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3701010002</t>
+          <t>3501100015</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>ROUNDUP GEL GARDEN</t>
+          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>HERBICIDAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -15462,19 +15462,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -15483,12 +15483,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15500,24 +15500,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3302210020</t>
+          <t>3501100005</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>ABONO TREPADORAS ECO 800GR</t>
+          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -15545,19 +15545,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>12</v>
+        <v>151</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R15" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S15" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T15" s="8" t="inlineStr">
         <is>
@@ -15566,12 +15566,12 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W15" s="4" t="inlineStr">
@@ -15583,24 +15583,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3502010014</t>
+          <t>3302210002</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>REVUS ANTIMILDIU 20ML</t>
+          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -15628,7 +15628,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
@@ -15649,7 +15649,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -15666,24 +15666,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3302200018</t>
+          <t>3502010014</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELOS</t>
+          <t>REVUS ANTIMILDIU 20ML</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -15711,7 +15711,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -15732,7 +15732,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -15749,24 +15749,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3601040001</t>
+          <t>3302210003</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
+          <t>CANABIUM REGULADOR PH 500ML 10893</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -15794,7 +15794,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -15815,7 +15815,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -15832,24 +15832,24 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3302140001</t>
+          <t>3904010004</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
+          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
       <c r="D19" s="3" t="inlineStr"/>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G19" s="4" t="n">
@@ -15877,7 +15877,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>48</v>
+        <v>2</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -15898,7 +15898,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -15915,12 +15915,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3901090003</t>
+          <t>3902040001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
+          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -15960,7 +15960,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P20" s="4" t="n">
         <v>59</v>
@@ -15981,7 +15981,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -15998,24 +15998,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3901030010</t>
+          <t>3302210001</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ARBORICOLA</t>
+          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -16043,7 +16043,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -16064,7 +16064,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -16081,24 +16081,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3501100001</t>
+          <t>3901110002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>ANTIMINADOR 50ML</t>
+          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -16126,7 +16126,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
@@ -16147,7 +16147,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -16164,24 +16164,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>3302210009</t>
+          <t>3601040001</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16209,7 +16209,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
@@ -16230,7 +16230,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -16247,24 +16247,24 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3502020002</t>
+          <t>3302200003</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>FUNGICIDA ROSALES 750ML</t>
+          <t>ABONO PALMERAS 500ML</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
       <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G24" s="4" t="n">
@@ -16292,7 +16292,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
@@ -16313,7 +16313,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -16330,24 +16330,32 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3302170005</t>
+          <t>3403010003</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>VARITAS HUERTO FRUTALES</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>ABONO CESPED GRANDES JARDINES</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>7I5KG</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16375,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>20</v>
+        <v>39</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
@@ -16396,7 +16404,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -16413,24 +16421,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>3502010005</t>
+          <t>3402060004</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>AZUFRE 450 GRS.</t>
+          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -16458,19 +16466,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T26" s="8" t="inlineStr">
         <is>
@@ -16479,12 +16487,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -16496,12 +16504,12 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>3901090004</t>
+          <t>3902070008</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA RATONES</t>
+          <t>FERO-TRAMPA FRUIT</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
@@ -16541,7 +16549,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="4" t="n">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="P27" s="4" t="n">
         <v>59</v>
@@ -16562,7 +16570,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -16579,24 +16587,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>3501100021</t>
+          <t>3601050004</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PINO (NO VENTA)</t>
+          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -16624,19 +16632,19 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q28" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R28" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T28" s="8" t="inlineStr">
         <is>
@@ -16645,12 +16653,12 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W28" s="4" t="inlineStr">
@@ -16662,32 +16670,24 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>3601050002</t>
+          <t>3302210022</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ACEITE DE NEEM</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr">
-        <is>
-          <t>450ML</t>
-        </is>
-      </c>
-      <c r="D29" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr"/>
+      <c r="D29" s="3" t="inlineStr"/>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16715,19 +16715,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T29" s="8" t="inlineStr">
         <is>
@@ -16736,12 +16736,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -16753,24 +16753,24 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>3501040003</t>
+          <t>3601050001</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>ANTIPULGONES LU 750 ML</t>
+          <t>BIO INSECTICIDA STOP 750ML</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -16804,13 +16804,13 @@
         <v>59</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
@@ -16819,12 +16819,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -16836,24 +16836,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3302150003</t>
+          <t>3901090004</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO CITRICOS 750GR</t>
+          <t>ECOFIN TRAMPA RATONES</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -16881,7 +16881,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
@@ -16902,7 +16902,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -16919,24 +16919,32 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3401040008</t>
+          <t>3602030003</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr"/>
-      <c r="D32" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA BIOLOGICO</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr">
+        <is>
+          <t>50G</t>
+        </is>
+      </c>
+      <c r="D32" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -16964,19 +16972,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
@@ -16985,12 +16993,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -17002,24 +17010,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>3302210022</t>
+          <t>3902060002</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
+          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -17047,19 +17055,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T33" s="8" t="inlineStr">
         <is>
@@ -17068,12 +17076,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -17085,24 +17093,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>3901040003</t>
+          <t>3302200008</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>LU ANTIHORMIGAS 750ML CAJA</t>
+          <t>AZULADOR DE HORTENSIAS 800GR</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -17130,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
@@ -17151,7 +17159,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -17168,24 +17176,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>3501100002</t>
+          <t>3302070002</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
+          <t>ABONO GERANIOS SOLUBLE 800GR</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -17213,7 +17221,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>52</v>
+        <v>20</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
@@ -17234,7 +17242,7 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
@@ -17251,24 +17259,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>3501080003</t>
+          <t>3302210004</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
+          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17296,7 +17304,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
@@ -17317,7 +17325,7 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
@@ -17334,12 +17342,12 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>3302120001</t>
+          <t>3302140001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
+          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
@@ -17379,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>16</v>
+        <v>48</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
@@ -17400,7 +17408,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -17417,24 +17425,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>3501100013</t>
+          <t>3401040008</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
+          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -17462,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -17483,7 +17491,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17500,24 +17508,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>3403010005</t>
+          <t>3302120001</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ABONO GRAMA 2KG</t>
+          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -17545,19 +17553,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q39" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R39" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T39" s="8" t="inlineStr">
         <is>
@@ -17566,12 +17574,12 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W39" s="4" t="inlineStr">
@@ -17583,24 +17591,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>3302210003</t>
+          <t>3902070007</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML 10893</t>
+          <t>FERO-TRAMPA CITRICOS</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -17628,7 +17636,7 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
@@ -17649,7 +17657,7 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
@@ -17666,24 +17674,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>3901080002</t>
+          <t>3602030001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
+          <t>BIOFLOWER SAL DE COBRE 70511</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17711,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
@@ -17732,7 +17740,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -17749,24 +17757,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>3902070009</t>
+          <t>3501100021</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA OLIVO</t>
+          <t>YNJECT GO PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17794,19 +17802,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T42" s="8" t="inlineStr">
         <is>
@@ -17815,12 +17823,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17832,12 +17840,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>3302070001</t>
+          <t>3301040005</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS 750GR</t>
+          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -17877,7 +17885,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="4" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="P43" s="4" t="n">
         <v>59</v>
@@ -17898,7 +17906,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -17915,12 +17923,12 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>3302200008</t>
+          <t>3302200018</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>AZULADOR DE HORTENSIAS 800GR</t>
+          <t>REGENERADOR SUELOS</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
@@ -17960,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
@@ -17981,7 +17989,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -17998,24 +18006,24 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>3402060004</t>
+          <t>3302070001</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
+          <t>ABONO GERANIOS 750GR</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
       <c r="D45" s="3" t="inlineStr"/>
       <c r="E45" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F45" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G45" s="4" t="n">
@@ -18043,19 +18051,19 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>12</v>
+        <v>72</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q45" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R45" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S45" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T45" s="8" t="inlineStr">
         <is>
@@ -18064,12 +18072,12 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W45" s="4" t="inlineStr">
@@ -18081,12 +18089,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>3901090001</t>
+          <t>3901030012</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>COLA PARA RATONES RATIGLUE 135G</t>
+          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -18126,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
@@ -18147,7 +18155,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -18164,24 +18172,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>3902070008</t>
+          <t>3302200014</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA FRUIT</t>
+          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -18209,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -18230,7 +18238,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -18247,32 +18255,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>3502010011</t>
+          <t>3901040001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA PHITOFTORA</t>
-        </is>
-      </c>
-      <c r="C48" s="3" t="inlineStr">
-        <is>
-          <t>45GR</t>
-        </is>
-      </c>
-      <c r="D48" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ANTIHORMIGAS PISTOLA 750ML</t>
+        </is>
+      </c>
+      <c r="C48" s="3" t="inlineStr"/>
+      <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18300,19 +18300,19 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q48" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R48" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T48" s="8" t="inlineStr">
         <is>
@@ -18321,12 +18321,12 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W48" s="4" t="inlineStr">
@@ -18338,12 +18338,12 @@
     <row r="49">
       <c r="A49" s="3" t="inlineStr">
         <is>
-          <t>3302210001</t>
+          <t>3302180002</t>
         </is>
       </c>
       <c r="B49" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
+          <t>FERTILIZANTE TOMATES 500ML</t>
         </is>
       </c>
       <c r="C49" s="3" t="inlineStr"/>
@@ -18383,7 +18383,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P49" s="4" t="n">
         <v>59</v>
@@ -18404,7 +18404,7 @@
       </c>
       <c r="U49" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="4" t="inlineStr">
@@ -18421,24 +18421,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>3502010001</t>
+          <t>3901030002</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
+          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -18466,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>4</v>
+        <v>76</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -18487,7 +18487,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -18504,12 +18504,12 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>3901130003</t>
+          <t>3903020003</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA CARCOMA 200ML</t>
+          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
@@ -18549,7 +18549,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
@@ -18570,7 +18570,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -18587,24 +18587,24 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>3601050004</t>
+          <t>3402020002</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
+          <t>BIO FORTIGO FLORES 1L</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
       <c r="D52" s="3" t="inlineStr"/>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
@@ -18632,7 +18632,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
@@ -18653,7 +18653,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -18670,24 +18670,24 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>3301040005</t>
+          <t>3901030009</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
+          <t>CEBO ANTIHORMIGAS 10GR</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -18715,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
@@ -18736,7 +18736,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -18753,24 +18753,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3902070004</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
+          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18798,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
@@ -18819,7 +18819,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -18836,32 +18836,24 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>3301030001</t>
+          <t>3502020003</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr">
-        <is>
-          <t>2,5Kg</t>
-        </is>
-      </c>
-      <c r="D55" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr"/>
+      <c r="D55" s="3" t="inlineStr"/>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -18889,7 +18881,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>122</v>
+        <v>14</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
@@ -18910,7 +18902,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -18927,12 +18919,12 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>3302200003</t>
+          <t>3302100001</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ABONO PALMERAS 500ML</t>
+          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
@@ -18972,7 +18964,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>26</v>
+        <v>45</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
@@ -18993,7 +18985,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -19010,32 +19002,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>3403010003</t>
+          <t>3502010001</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED GRANDES JARDINES</t>
-        </is>
-      </c>
-      <c r="C57" s="3" t="inlineStr">
-        <is>
-          <t>7I5KG</t>
-        </is>
-      </c>
-      <c r="D57" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
+        </is>
+      </c>
+      <c r="C57" s="3" t="inlineStr"/>
+      <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -19063,7 +19047,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
@@ -19084,7 +19068,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -19101,24 +19085,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>3901130002</t>
+          <t>3501040003</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+          <t>ANTIPULGONES LU 750 ML</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -19146,7 +19130,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
@@ -19167,7 +19151,7 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -19184,24 +19168,24 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>3601050001</t>
+          <t>3401040003</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECTICIDA STOP 750ML</t>
+          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -19229,19 +19213,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R59" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S59" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T59" s="8" t="inlineStr">
         <is>
@@ -19250,12 +19234,12 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="4" t="inlineStr">
@@ -19267,24 +19251,32 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>3502010007</t>
+          <t>3601050002</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr"/>
-      <c r="D60" s="3" t="inlineStr"/>
+          <t>BIOFLOWER ACEITE DE NEEM</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr">
+        <is>
+          <t>450ML</t>
+        </is>
+      </c>
+      <c r="D60" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -19312,7 +19304,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
@@ -19333,7 +19325,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -19350,24 +19342,24 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>3601040002</t>
+          <t>3301030003</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
+          <t>ABONO ROZE 1KG</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -19395,7 +19387,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
@@ -19416,7 +19408,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -19433,24 +19425,24 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>3302210004</t>
+          <t>3901130001</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
+          <t>FIN CHINCHES Y PULGAS 150ML</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -19478,7 +19470,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
@@ -19499,7 +19491,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -19516,24 +19508,24 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>3904010004</t>
+          <t>3601050007</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
+          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -19561,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>59</v>
@@ -19582,7 +19574,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -19599,32 +19591,24 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>3901030001</t>
+          <t>3502010007</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>COMPO ANTIHORMIGAS</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr">
-        <is>
-          <t>500G</t>
-        </is>
-      </c>
-      <c r="D64" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr"/>
+      <c r="D64" s="3" t="inlineStr"/>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -19652,7 +19636,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>98</v>
+        <v>28</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>59</v>
@@ -19673,7 +19657,7 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
@@ -19690,24 +19674,24 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>3903010001</t>
+          <t>3501140001</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
+          <t>AVIDUST 1KG</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
       <c r="D65" s="3" t="inlineStr"/>
       <c r="E65" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F65" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G65" s="4" t="n">
@@ -19735,7 +19719,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
@@ -19756,7 +19740,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -19773,24 +19757,24 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>3904010002</t>
+          <t>3501100001</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
+          <t>ANTIMINADOR 50ML</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
       <c r="D66" s="3" t="inlineStr"/>
       <c r="E66" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F66" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G66" s="4" t="n">
@@ -19818,7 +19802,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>10</v>
+        <v>32</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>59</v>
@@ -19839,7 +19823,7 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
@@ -19856,12 +19840,12 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>3901030012</t>
+          <t>3902070003</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
+          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
@@ -19901,7 +19885,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
@@ -19922,7 +19906,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
@@ -19939,12 +19923,12 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>3903020003</t>
+          <t>3902070006</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
+          <t>ECOFIN TRAMPA MOSCAS</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
@@ -19984,7 +19968,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
@@ -20005,7 +19989,7 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -20022,24 +20006,24 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>3902070007</t>
+          <t>3501100002</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA CITRICOS</t>
+          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -20067,7 +20051,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
@@ -20088,7 +20072,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -20105,24 +20089,24 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>3302070002</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS SOLUBLE 800GR</t>
+          <t>ABONO CESPED BOLSA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
       <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -20150,7 +20134,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
@@ -20171,7 +20155,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -20188,24 +20172,32 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>3901040001</t>
+          <t>3301030001</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS PISTOLA 750ML</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr"/>
-      <c r="D71" s="3" t="inlineStr"/>
+          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr">
+        <is>
+          <t>2,5Kg</t>
+        </is>
+      </c>
+      <c r="D71" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -20233,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>82</v>
+        <v>122</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
@@ -20254,7 +20246,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -20271,24 +20263,24 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>3901130001</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>FIN CHINCHES Y PULGAS 150ML</t>
+          <t>FERRO PLUS REVERDECIENTE</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -20316,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
@@ -20337,7 +20329,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -20354,24 +20346,24 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>3903020005</t>
+          <t>3501100013</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
+          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
         </is>
       </c>
       <c r="C73" s="3" t="inlineStr"/>
       <c r="D73" s="3" t="inlineStr"/>
       <c r="E73" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F73" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G73" s="4" t="n">
@@ -20399,7 +20391,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
@@ -20420,7 +20412,7 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
@@ -20437,24 +20429,24 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>3302200014</t>
+          <t>3902040002</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
+          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr"/>
       <c r="D74" s="3" t="inlineStr"/>
       <c r="E74" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F74" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G74" s="4" t="n">
@@ -20482,7 +20474,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
@@ -20503,7 +20495,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -20520,24 +20512,24 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>3301030003</t>
+          <t>3701010002</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROZE 1KG</t>
+          <t>ROUNDUP GEL GARDEN</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>HERBICIDAS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -20565,7 +20557,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>59</v>
@@ -20586,7 +20578,7 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -20603,24 +20595,24 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>3902040001</t>
+          <t>3302200017</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
+          <t>REGENERADOR SUELO 250ML</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr"/>
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -20648,7 +20640,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
@@ -20669,7 +20661,7 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -20686,24 +20678,32 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>3501050002</t>
+          <t>3403030001</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr"/>
-      <c r="D77" s="3" t="inlineStr"/>
+          <t>ABONO CESPED LARGA DURACION</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr">
+        <is>
+          <t>3KG</t>
+        </is>
+      </c>
+      <c r="D77" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>34</v>
+        <v>9</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
@@ -20752,7 +20752,7 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -20769,24 +20769,24 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>3901030002</t>
+          <t>3402060002</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
+          <t>FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr"/>
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -20814,7 +20814,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>76</v>
+        <v>8</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -20852,24 +20852,24 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>3901140002</t>
+          <t>3302210009</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
+          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr"/>
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -20897,7 +20897,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
@@ -20918,7 +20918,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -20935,24 +20935,32 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>3501040002</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGON 750ML</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr"/>
-      <c r="D80" s="3" t="inlineStr"/>
+          <t>ABONO CESPED BOLSA</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr">
+        <is>
+          <t>1I5KG</t>
+        </is>
+      </c>
+      <c r="D80" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -20980,19 +20988,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T80" s="8" t="inlineStr">
         <is>
@@ -21001,12 +21009,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -21018,32 +21026,24 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>3301040001</t>
+          <t>3902020002</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="C81" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D81" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
+        </is>
+      </c>
+      <c r="C81" s="3" t="inlineStr"/>
+      <c r="D81" s="3" t="inlineStr"/>
       <c r="E81" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F81" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G81" s="4" t="n">
@@ -21071,7 +21071,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>58</v>
+        <v>24</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>59</v>
@@ -21092,7 +21092,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -21109,16 +21109,24 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>3902040002</t>
+          <t>3901030011</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr"/>
-      <c r="D82" s="3" t="inlineStr"/>
+          <t>KB NEXA HORMIGAS GRANULADO</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D82" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E82" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -21154,7 +21162,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
@@ -21175,7 +21183,7 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
@@ -21192,24 +21200,24 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>3902060002</t>
+          <t>3302150003</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
+          <t>COMPO BIO CITRICOS 750GR</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr"/>
       <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -21237,7 +21245,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -21258,7 +21266,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -21275,12 +21283,12 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>3902070004</t>
+          <t>3901110003</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
+          <t>PORTACEBO RATAS</t>
         </is>
       </c>
       <c r="C84" s="3" t="inlineStr"/>
@@ -21320,7 +21328,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
@@ -21341,7 +21349,7 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
@@ -21358,24 +21366,24 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>3502020003</t>
+          <t>3302170005</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
+          <t>VARITAS HUERTO FRUTALES</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr"/>
       <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -21403,7 +21411,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
@@ -21424,7 +21432,7 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
@@ -21441,24 +21449,24 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>3901050001</t>
+          <t>3502010009</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
+          <t>ENFERMEDADES ROSALES 10ML</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr"/>
       <c r="D86" s="3" t="inlineStr"/>
       <c r="E86" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F86" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G86" s="4" t="n">
@@ -21486,7 +21494,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
@@ -21507,7 +21515,7 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
@@ -21524,24 +21532,24 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>3302180002</t>
+          <t>3501100022</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE TOMATES 500ML</t>
+          <t>YNJECT GO PALMERAS (NO VENTA)</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
       <c r="D87" s="3" t="inlineStr"/>
       <c r="E87" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F87" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G87" s="4" t="n">
@@ -21569,19 +21577,19 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T87" s="8" t="inlineStr">
         <is>
@@ -21590,12 +21598,12 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
@@ -21607,12 +21615,12 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>3403040000</t>
+          <t>3402050003</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
+          <t>COMPO ABRILLANTADOR 600ML</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
@@ -21652,7 +21660,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
@@ -21673,7 +21681,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -21773,24 +21781,24 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>3401050003</t>
+          <t>3502010005</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
+          <t>AZUFRE 450 GRS.</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
       <c r="D90" s="3" t="inlineStr"/>
       <c r="E90" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F90" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G90" s="4" t="n">
@@ -21818,7 +21826,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>2</v>
+        <v>16</v>
       </c>
       <c r="P90" s="4" t="n">
         <v>59</v>
@@ -21839,7 +21847,7 @@
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
@@ -21856,24 +21864,24 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>3902020002</t>
+          <t>3502020002</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
+          <t>FUNGICIDA ROSALES 750ML</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr"/>
       <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -21901,7 +21909,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
@@ -21922,7 +21930,7 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
@@ -21939,24 +21947,24 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>3902070003</t>
+          <t>3301030004</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
+          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr"/>
       <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
@@ -21984,7 +21992,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
@@ -22005,7 +22013,7 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
@@ -22022,12 +22030,12 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>3902010001</t>
+          <t>3901130003</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
+          <t>INSECTICIDA CARCOMA 200ML</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr"/>
@@ -22067,7 +22075,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
@@ -22088,7 +22096,7 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
@@ -22105,24 +22113,24 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>3402020002</t>
+          <t>3601040002</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>BIO FORTIGO FLORES 1L</t>
+          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
@@ -22150,7 +22158,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
@@ -22171,7 +22179,7 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
@@ -22188,24 +22196,16 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>3901030011</t>
+          <t>3901130002</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>KB NEXA HORMIGAS GRANULADO</t>
-        </is>
-      </c>
-      <c r="C95" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D95" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+        </is>
+      </c>
+      <c r="C95" s="3" t="inlineStr"/>
+      <c r="D95" s="3" t="inlineStr"/>
       <c r="E95" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -22262,7 +22262,7 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
@@ -22279,12 +22279,12 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3501080003</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA</t>
+          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
@@ -22324,19 +22324,19 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q96" s="4" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R96" s="4" t="n">
-        <v>25.56</v>
+        <v>65.56</v>
       </c>
       <c r="S96" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T96" s="8" t="inlineStr">
         <is>
@@ -22345,12 +22345,12 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W96" s="4" t="inlineStr">
@@ -22362,12 +22362,12 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>3901030009</t>
+          <t>3902070005</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>CEBO ANTIHORMIGAS 10GR</t>
+          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr"/>
@@ -22407,7 +22407,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="P97" s="4" t="n">
         <v>59</v>
@@ -22428,7 +22428,7 @@
       </c>
       <c r="U97" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V97" s="4" t="inlineStr">
@@ -22445,12 +22445,12 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>3901110002</t>
+          <t>3904010002</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
+          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
         </is>
       </c>
       <c r="C98" s="3" t="inlineStr"/>
@@ -22490,7 +22490,7 @@
         <v>0</v>
       </c>
       <c r="O98" s="4" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="P98" s="4" t="n">
         <v>59</v>
@@ -22511,7 +22511,7 @@
       </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V98" s="4" t="inlineStr">
@@ -22528,12 +22528,12 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>3501140005</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
+          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr"/>
@@ -22573,19 +22573,19 @@
         <v>0</v>
       </c>
       <c r="O99" s="4" t="n">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="P99" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q99" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R99" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S99" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T99" s="8" t="inlineStr">
         <is>
@@ -22594,12 +22594,12 @@
       </c>
       <c r="U99" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V99" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W99" s="4" t="inlineStr">
@@ -22611,24 +22611,24 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>3502010009</t>
+          <t>3401050003</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>ENFERMEDADES ROSALES 10ML</t>
+          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr"/>
       <c r="D100" s="3" t="inlineStr"/>
       <c r="E100" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F100" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G100" s="4" t="n">
@@ -22656,7 +22656,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>36</v>
+        <v>2</v>
       </c>
       <c r="P100" s="4" t="n">
         <v>59</v>
@@ -22677,7 +22677,7 @@
       </c>
       <c r="U100" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V100" s="4" t="inlineStr">
@@ -22694,24 +22694,24 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>3302100001</t>
+          <t>3501040002</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
+          <t>INSECTICIDA PULGON 750ML</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr"/>
       <c r="D101" s="3" t="inlineStr"/>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G101" s="4" t="n">
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="P101" s="4" t="n">
         <v>59</v>
@@ -22760,7 +22760,7 @@
       </c>
       <c r="U101" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V101" s="4" t="inlineStr">
@@ -22777,24 +22777,24 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>3501100015</t>
+          <t>3901050001</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
+          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
@@ -22822,19 +22822,19 @@
         <v>0</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P102" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q102" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R102" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S102" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T102" s="8" t="inlineStr">
         <is>
@@ -22843,12 +22843,12 @@
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W102" s="4" t="inlineStr">
@@ -22860,32 +22860,24 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>3403030001</t>
+          <t>3901090001</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED LARGA DURACION</t>
-        </is>
-      </c>
-      <c r="C103" s="3" t="inlineStr">
-        <is>
-          <t>3KG</t>
-        </is>
-      </c>
-      <c r="D103" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COLA PARA RATONES RATIGLUE 135G</t>
+        </is>
+      </c>
+      <c r="C103" s="3" t="inlineStr"/>
+      <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
@@ -22913,7 +22905,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="P103" s="4" t="n">
         <v>59</v>
@@ -22934,7 +22926,7 @@
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
@@ -22951,24 +22943,24 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>3501100005</t>
+          <t>3901030010</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
+          <t>ECOFIN CINTA ARBORICOLA</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr"/>
       <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
@@ -22996,7 +22988,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>151</v>
+        <v>24</v>
       </c>
       <c r="P104" s="4" t="n">
         <v>59</v>
@@ -23017,7 +23009,7 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
@@ -23034,24 +23026,24 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>3301030004</t>
+          <t>3901040003</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
+          <t>LU ANTIHORMIGAS 750ML CAJA</t>
         </is>
       </c>
       <c r="C105" s="3" t="inlineStr"/>
       <c r="D105" s="3" t="inlineStr"/>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
@@ -23079,7 +23071,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P105" s="4" t="n">
         <v>59</v>
@@ -23100,7 +23092,7 @@
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
@@ -23117,16 +23109,24 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>3901030007</t>
+          <t>3901030001</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr"/>
-      <c r="D106" s="3" t="inlineStr"/>
+          <t>COMPO ANTIHORMIGAS</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr">
+        <is>
+          <t>500G</t>
+        </is>
+      </c>
+      <c r="D106" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E106" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>6</v>
+        <v>98</v>
       </c>
       <c r="P106" s="4" t="n">
         <v>59</v>
@@ -23183,7 +23183,7 @@
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
@@ -23200,24 +23200,24 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>3602030001</t>
+          <t>3903020005</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER SAL DE COBRE 70511</t>
+          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
       <c r="D107" s="3" t="inlineStr"/>
       <c r="E107" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F107" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G107" s="4" t="n">
@@ -23245,7 +23245,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="P107" s="4" t="n">
         <v>59</v>
@@ -23266,7 +23266,7 @@
       </c>
       <c r="U107" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V107" s="4" t="inlineStr">
@@ -23283,12 +23283,12 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>3501100011</t>
+          <t>3501050002</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>PACK FRUTALES VITHAL</t>
+          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
@@ -23328,7 +23328,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="P108" s="4" t="n">
         <v>59</v>
@@ -23349,7 +23349,7 @@
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
@@ -23366,24 +23366,24 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>3402050003</t>
+          <t>3901090003</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>COMPO ABRILLANTADOR 600ML</t>
+          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr"/>
       <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
@@ -23411,7 +23411,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="P109" s="4" t="n">
         <v>59</v>
@@ -23432,7 +23432,7 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
@@ -23449,24 +23449,24 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>3901050006</t>
+          <t>3501140005</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>TRAMPA SICUR TRAMP 2 UDS</t>
+          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
         </is>
       </c>
       <c r="C110" s="3" t="inlineStr"/>
       <c r="D110" s="3" t="inlineStr"/>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
@@ -23494,7 +23494,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="P110" s="4" t="n">
         <v>59</v>
@@ -23515,7 +23515,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -23615,12 +23615,12 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>3901110003</t>
+          <t>3902010001</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>PORTACEBO RATAS</t>
+          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr"/>
@@ -23660,7 +23660,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P112" s="4" t="n">
         <v>59</v>
@@ -23681,7 +23681,7 @@
       </c>
       <c r="U112" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V112" s="4" t="inlineStr">
@@ -23698,17 +23698,17 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3502010011</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
+          <t>COMPO FUNGICIDA PHITOFTORA</t>
         </is>
       </c>
       <c r="C113" s="3" t="inlineStr">
         <is>
-          <t>1I5KG</t>
+          <t>45GR</t>
         </is>
       </c>
       <c r="D113" s="3" t="inlineStr">
@@ -23718,12 +23718,12 @@
       </c>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G113" s="4" t="n">
@@ -23751,16 +23751,16 @@
         <v>0</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>50</v>
+        <v>80</v>
       </c>
       <c r="P113" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q113" s="4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="R113" s="4" t="n">
-        <v>17.78</v>
+        <v>24.44</v>
       </c>
       <c r="S113" s="5" t="n">
         <v>0</v>
@@ -23777,7 +23777,7 @@
       </c>
       <c r="V113" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W113" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
@@ -3943,12 +3943,12 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>3302210008</t>
+          <t>3302160001</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
+          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
@@ -3967,71 +3967,71 @@
         <v>90</v>
       </c>
       <c r="H41" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="I41" s="4" t="n">
-        <v>48.65</v>
+        <v>47.94</v>
       </c>
       <c r="J41" s="4" t="n">
-        <v>17.71</v>
+        <v>17.12</v>
       </c>
       <c r="K41" s="4" t="n">
-        <v>0</v>
+        <v>13.64</v>
       </c>
       <c r="L41" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>7.6</v>
+        <v>4.6</v>
       </c>
       <c r="N41" s="5" t="n">
-        <v>22.9</v>
+        <v>13.7</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>-10</v>
+        <v>38</v>
       </c>
       <c r="P41" s="4" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Q41" s="4" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="R41" s="4" t="n">
-        <v>0</v>
+        <v>65.56</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T41" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T41" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W41" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>3302160001</t>
+          <t>3302210008</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES CITRICOS 500ML</t>
+          <t>FERTILIZANTE ORQUIDEAS 500ML</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
@@ -4050,59 +4050,59 @@
         <v>90</v>
       </c>
       <c r="H42" s="4" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="I42" s="4" t="n">
-        <v>47.94</v>
+        <v>48.65</v>
       </c>
       <c r="J42" s="4" t="n">
-        <v>17.12</v>
+        <v>17.71</v>
       </c>
       <c r="K42" s="4" t="n">
-        <v>13.64</v>
+        <v>0</v>
       </c>
       <c r="L42" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>4.6</v>
+        <v>7.6</v>
       </c>
       <c r="N42" s="5" t="n">
-        <v>13.7</v>
+        <v>22.9</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>38</v>
+        <v>-10</v>
       </c>
       <c r="P42" s="4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>65.56</v>
+        <v>0</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T42" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T42" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>DESCUENTO PREVENTIVO + AJUSTE COMPRAS: Aplicar descuento 10% para anticipar venta. Reducir compras 20% próxima temporada. Mantener bajo observación semanal.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -10 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -7276,24 +7276,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3501040001</t>
+          <t>3302010002</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGONES 10ML</t>
+          <t>ABONO CONIFERAS Y SETOS 750GR</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -7303,13 +7303,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>23.9</v>
+        <v>21.9</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.789999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>9.09</v>
+        <v>15.38</v>
       </c>
       <c r="L10" s="4" t="n">
         <v>0</v>
@@ -7321,10 +7321,10 @@
         <v>4.6</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="4" t="n">
         <v>59</v>
@@ -7359,24 +7359,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3302010002</t>
+          <t>3501040001</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ABONO CONIFERAS Y SETOS 750GR</t>
+          <t>INSECTICIDA PULGONES 10ML</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -7386,13 +7386,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="4" t="n">
-        <v>21.9</v>
+        <v>23.9</v>
       </c>
       <c r="J11" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="K11" s="4" t="n">
-        <v>15.38</v>
+        <v>9.09</v>
       </c>
       <c r="L11" s="4" t="n">
         <v>0</v>
@@ -7404,10 +7404,10 @@
         <v>4.6</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P11" s="4" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="4" t="n">
         <v>59</v>
@@ -8205,24 +8205,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3302050002</t>
+          <t>3901110004</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROSALES 1KGR</t>
+          <t>RATICIDA BLOQUES 250GR</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -8232,13 +8232,13 @@
         <v>2</v>
       </c>
       <c r="I21" s="4" t="n">
-        <v>19.86</v>
+        <v>19.98</v>
       </c>
       <c r="J21" s="4" t="n">
-        <v>7.53</v>
+        <v>7.63</v>
       </c>
       <c r="K21" s="4" t="n">
-        <v>10</v>
+        <v>4.55</v>
       </c>
       <c r="L21" s="4" t="n">
         <v>0</v>
@@ -8250,10 +8250,10 @@
         <v>4.6</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="P21" s="4" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q21" s="4" t="n">
         <v>59</v>
@@ -8288,24 +8288,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3901110004</t>
+          <t>3302050002</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>RATICIDA BLOQUES 250GR</t>
+          <t>ABONO ROSALES 1KGR</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -8315,13 +8315,13 @@
         <v>2</v>
       </c>
       <c r="I22" s="4" t="n">
-        <v>19.98</v>
+        <v>19.86</v>
       </c>
       <c r="J22" s="4" t="n">
-        <v>7.63</v>
+        <v>7.53</v>
       </c>
       <c r="K22" s="4" t="n">
-        <v>4.55</v>
+        <v>10</v>
       </c>
       <c r="L22" s="4" t="n">
         <v>0</v>
@@ -8333,10 +8333,10 @@
         <v>4.6</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>42</v>
+        <v>18</v>
       </c>
       <c r="P22" s="4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q22" s="4" t="n">
         <v>59</v>
@@ -11238,32 +11238,24 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3501140003</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr">
-        <is>
-          <t>1KG</t>
-        </is>
-      </c>
-      <c r="D3" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>INSECTICIDA SUELO 600GR</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr"/>
+      <c r="D3" s="3" t="inlineStr"/>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -11279,7 +11271,7 @@
         <v>5.35</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>3.33</v>
+        <v>25</v>
       </c>
       <c r="L3" s="4" t="n">
         <v>0</v>
@@ -11291,10 +11283,10 @@
         <v>2.3</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="Q3" s="4" t="n">
         <v>59</v>
@@ -11329,24 +11321,32 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3501140003</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA SUELO 600GR</t>
-        </is>
-      </c>
-      <c r="C4" s="3" t="inlineStr"/>
-      <c r="D4" s="3" t="inlineStr"/>
+          <t>FERRO PLUS REVERDECIENTE</t>
+        </is>
+      </c>
+      <c r="C4" s="3" t="inlineStr">
+        <is>
+          <t>1KG</t>
+        </is>
+      </c>
+      <c r="D4" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -11362,7 +11362,7 @@
         <v>5.35</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>25</v>
+        <v>3.33</v>
       </c>
       <c r="L4" s="4" t="n">
         <v>0</v>
@@ -11374,10 +11374,10 @@
         <v>2.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="Q4" s="4" t="n">
         <v>59</v>
@@ -12997,24 +12997,16 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3401040002</t>
+          <t>3402040004</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO LIQUIDO</t>
-        </is>
-      </c>
-      <c r="C24" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D24" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="inlineStr"/>
+      <c r="D24" s="3" t="inlineStr"/>
       <c r="E24" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13032,13 +13024,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="4" t="n">
-        <v>7.99</v>
+        <v>7.49</v>
       </c>
       <c r="J24" s="4" t="n">
-        <v>3.11</v>
+        <v>2.7</v>
       </c>
       <c r="K24" s="4" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="L24" s="4" t="n">
         <v>0</v>
@@ -13050,10 +13042,10 @@
         <v>2.3</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P24" s="4" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="4" t="n">
         <v>59</v>
@@ -13088,16 +13080,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3402040004</t>
+          <t>3401040002</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr"/>
-      <c r="D25" s="3" t="inlineStr"/>
+          <t>FERTILIZANTE GUANO LIQUIDO</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D25" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
           <t>34</t>
@@ -13115,13 +13115,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="4" t="n">
-        <v>7.49</v>
+        <v>7.99</v>
       </c>
       <c r="J25" s="4" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K25" s="4" t="n">
         <v>2.7</v>
-      </c>
-      <c r="K25" s="4" t="n">
-        <v>10</v>
       </c>
       <c r="L25" s="4" t="n">
         <v>0</v>
@@ -13133,10 +13133,10 @@
         <v>2.3</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="P25" s="4" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="4" t="n">
         <v>59</v>
@@ -14413,12 +14413,12 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3902070009</t>
+          <t>3901050006</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA OLIVO</t>
+          <t>TRAMPA SICUR TRAMP 2 UDS</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -14458,7 +14458,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P2" s="4" t="n">
         <v>59</v>
@@ -14479,7 +14479,7 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
@@ -14496,24 +14496,32 @@
     <row r="3">
       <c r="A3" s="3" t="inlineStr">
         <is>
-          <t>3903010001</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B3" s="3" t="inlineStr">
         <is>
-          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
-        </is>
-      </c>
-      <c r="C3" s="3" t="inlineStr"/>
-      <c r="D3" s="3" t="inlineStr"/>
+          <t>ABONO CESPED BOLSA</t>
+        </is>
+      </c>
+      <c r="C3" s="3" t="inlineStr">
+        <is>
+          <t>1I5KG</t>
+        </is>
+      </c>
+      <c r="D3" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G3" s="4" t="n">
@@ -14541,19 +14549,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>6</v>
+        <v>50</v>
       </c>
       <c r="P3" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S3" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" s="8" t="inlineStr">
         <is>
@@ -14562,12 +14570,12 @@
       </c>
       <c r="U3" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W3" s="4" t="inlineStr">
@@ -14579,24 +14587,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3403010005</t>
+          <t>3302200018</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>ABONO GRAMA 2KG</t>
+          <t>REGENERADOR SUELOS</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -14624,19 +14632,19 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T4" s="8" t="inlineStr">
         <is>
@@ -14645,12 +14653,12 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W4" s="4" t="inlineStr">
@@ -14662,24 +14670,24 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3403040000</t>
+          <t>3901040001</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
+          <t>ANTIHORMIGAS PISTOLA 750ML</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
       <c r="D5" s="3" t="inlineStr"/>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G5" s="4" t="n">
@@ -14707,7 +14715,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>4</v>
+        <v>82</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>59</v>
@@ -14728,7 +14736,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -14745,24 +14753,32 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3501100011</t>
+          <t>3403010003</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>PACK FRUTALES VITHAL</t>
-        </is>
-      </c>
-      <c r="C6" s="3" t="inlineStr"/>
-      <c r="D6" s="3" t="inlineStr"/>
+          <t>ABONO CESPED GRANDES JARDINES</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="inlineStr">
+        <is>
+          <t>7I5KG</t>
+        </is>
+      </c>
+      <c r="D6" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -14790,7 +14806,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>59</v>
@@ -14811,7 +14827,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -14828,24 +14844,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3901050006</t>
+          <t>3401050003</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>TRAMPA SICUR TRAMP 2 UDS</t>
+          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -14873,7 +14889,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>59</v>
@@ -14894,7 +14910,7 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
@@ -14911,24 +14927,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3901110003</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA</t>
+          <t>PORTACEBO RATAS</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -14956,19 +14972,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>30</v>
+        <v>2</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>25.56</v>
+        <v>65.56</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T8" s="8" t="inlineStr">
         <is>
@@ -14977,12 +14993,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -14994,32 +15010,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3301040001</t>
+          <t>3901110002</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="C9" s="3" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D9" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
+        </is>
+      </c>
+      <c r="C9" s="3" t="inlineStr"/>
+      <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -15047,7 +15055,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>59</v>
@@ -15068,7 +15076,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -15085,12 +15093,12 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3901080002</t>
+          <t>3901090004</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
+          <t>ECOFIN TRAMPA RATONES</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
@@ -15130,7 +15138,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>59</v>
@@ -15151,7 +15159,7 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
@@ -15168,24 +15176,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3302210020</t>
+          <t>3501100002</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>ABONO TREPADORAS ECO 800GR</t>
+          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -15213,19 +15221,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T11" s="8" t="inlineStr">
         <is>
@@ -15234,12 +15242,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -15251,12 +15259,12 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3901030007</t>
+          <t>3901090001</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
+          <t>COLA PARA RATONES RATIGLUE 135G</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
@@ -15296,7 +15304,7 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>59</v>
@@ -15317,7 +15325,7 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
@@ -15334,12 +15342,12 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3901140002</t>
+          <t>3901030007</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
+          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
@@ -15379,7 +15387,7 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>18</v>
+        <v>6</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>59</v>
@@ -15400,7 +15408,7 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
@@ -15417,24 +15425,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3501100015</t>
+          <t>3902070006</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
+          <t>ECOFIN TRAMPA MOSCAS</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -15462,19 +15470,19 @@
         <v>0</v>
       </c>
       <c r="O14" s="4" t="n">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="P14" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T14" s="8" t="inlineStr">
         <is>
@@ -15483,12 +15491,12 @@
       </c>
       <c r="U14" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -15500,12 +15508,12 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3501100005</t>
+          <t>3501140005</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
+          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
@@ -15545,7 +15553,7 @@
         <v>0</v>
       </c>
       <c r="O15" s="4" t="n">
-        <v>151</v>
+        <v>42</v>
       </c>
       <c r="P15" s="4" t="n">
         <v>59</v>
@@ -15566,7 +15574,7 @@
       </c>
       <c r="U15" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="4" t="inlineStr">
@@ -15583,24 +15591,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3302210002</t>
+          <t>3901050001</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
+          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -15628,7 +15636,7 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>59</v>
@@ -15649,7 +15657,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -15666,24 +15674,24 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3502010014</t>
+          <t>3302200014</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>REVUS ANTIMILDIU 20ML</t>
+          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
@@ -15711,7 +15719,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>12</v>
+        <v>43</v>
       </c>
       <c r="P17" s="4" t="n">
         <v>59</v>
@@ -15732,7 +15740,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -15749,24 +15757,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3302210003</t>
+          <t>3502010005</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML 10893</t>
+          <t>AZUFRE 450 GRS.</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -15794,7 +15802,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>59</v>
@@ -15815,7 +15823,7 @@
       </c>
       <c r="U18" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="4" t="inlineStr">
@@ -15832,12 +15840,12 @@
     <row r="19">
       <c r="A19" s="3" t="inlineStr">
         <is>
-          <t>3904010004</t>
+          <t>3901140002</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
+          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
         </is>
       </c>
       <c r="C19" s="3" t="inlineStr"/>
@@ -15877,7 +15885,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P19" s="4" t="n">
         <v>59</v>
@@ -15898,7 +15906,7 @@
       </c>
       <c r="U19" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="4" t="inlineStr">
@@ -15915,12 +15923,12 @@
     <row r="20">
       <c r="A20" s="3" t="inlineStr">
         <is>
-          <t>3902040001</t>
+          <t>3901130001</t>
         </is>
       </c>
       <c r="B20" s="3" t="inlineStr">
         <is>
-          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
+          <t>FIN CHINCHES Y PULGAS 150ML</t>
         </is>
       </c>
       <c r="C20" s="3" t="inlineStr"/>
@@ -15981,7 +15989,7 @@
       </c>
       <c r="U20" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="4" t="inlineStr">
@@ -15998,24 +16006,24 @@
     <row r="21">
       <c r="A21" s="3" t="inlineStr">
         <is>
-          <t>3302210001</t>
+          <t>3501110005</t>
         </is>
       </c>
       <c r="B21" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
+          <t>INSECTICIDA GERANIOS LU 750 ML</t>
         </is>
       </c>
       <c r="C21" s="3" t="inlineStr"/>
       <c r="D21" s="3" t="inlineStr"/>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G21" s="4" t="n">
@@ -16043,7 +16051,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="4" t="n">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="P21" s="4" t="n">
         <v>59</v>
@@ -16064,7 +16072,7 @@
       </c>
       <c r="U21" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="4" t="inlineStr">
@@ -16081,24 +16089,24 @@
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
-          <t>3901110002</t>
+          <t>3501140001</t>
         </is>
       </c>
       <c r="B22" s="3" t="inlineStr">
         <is>
-          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
+          <t>AVIDUST 1KG</t>
         </is>
       </c>
       <c r="C22" s="3" t="inlineStr"/>
       <c r="D22" s="3" t="inlineStr"/>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G22" s="4" t="n">
@@ -16126,7 +16134,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="4" t="n">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="P22" s="4" t="n">
         <v>59</v>
@@ -16147,7 +16155,7 @@
       </c>
       <c r="U22" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="4" t="inlineStr">
@@ -16164,24 +16172,24 @@
     <row r="23">
       <c r="A23" s="3" t="inlineStr">
         <is>
-          <t>3601040001</t>
+          <t>3401040003</t>
         </is>
       </c>
       <c r="B23" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
+          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
         </is>
       </c>
       <c r="C23" s="3" t="inlineStr"/>
       <c r="D23" s="3" t="inlineStr"/>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G23" s="4" t="n">
@@ -16209,7 +16217,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="4" t="n">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="P23" s="4" t="n">
         <v>59</v>
@@ -16230,7 +16238,7 @@
       </c>
       <c r="U23" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="4" t="inlineStr">
@@ -16247,12 +16255,12 @@
     <row r="24">
       <c r="A24" s="3" t="inlineStr">
         <is>
-          <t>3302200003</t>
+          <t>3302210003</t>
         </is>
       </c>
       <c r="B24" s="3" t="inlineStr">
         <is>
-          <t>ABONO PALMERAS 500ML</t>
+          <t>CANABIUM REGULADOR PH 500ML 10893</t>
         </is>
       </c>
       <c r="C24" s="3" t="inlineStr"/>
@@ -16292,7 +16300,7 @@
         <v>0</v>
       </c>
       <c r="O24" s="4" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P24" s="4" t="n">
         <v>59</v>
@@ -16313,7 +16321,7 @@
       </c>
       <c r="U24" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="4" t="inlineStr">
@@ -16330,32 +16338,24 @@
     <row r="25">
       <c r="A25" s="3" t="inlineStr">
         <is>
-          <t>3403010003</t>
+          <t>3502020003</t>
         </is>
       </c>
       <c r="B25" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED GRANDES JARDINES</t>
-        </is>
-      </c>
-      <c r="C25" s="3" t="inlineStr">
-        <is>
-          <t>7I5KG</t>
-        </is>
-      </c>
-      <c r="D25" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="inlineStr"/>
+      <c r="D25" s="3" t="inlineStr"/>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G25" s="4" t="n">
@@ -16383,7 +16383,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="4" t="n">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="P25" s="4" t="n">
         <v>59</v>
@@ -16404,7 +16404,7 @@
       </c>
       <c r="U25" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="4" t="inlineStr">
@@ -16421,24 +16421,24 @@
     <row r="26">
       <c r="A26" s="3" t="inlineStr">
         <is>
-          <t>3402060004</t>
+          <t>3901030012</t>
         </is>
       </c>
       <c r="B26" s="3" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
+          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
         </is>
       </c>
       <c r="C26" s="3" t="inlineStr"/>
       <c r="D26" s="3" t="inlineStr"/>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G26" s="4" t="n">
@@ -16466,19 +16466,19 @@
         <v>0</v>
       </c>
       <c r="O26" s="4" t="n">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="P26" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q26" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R26" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T26" s="8" t="inlineStr">
         <is>
@@ -16487,12 +16487,12 @@
       </c>
       <c r="U26" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W26" s="4" t="inlineStr">
@@ -16504,24 +16504,24 @@
     <row r="27">
       <c r="A27" s="3" t="inlineStr">
         <is>
-          <t>3902070008</t>
+          <t>3501040003</t>
         </is>
       </c>
       <c r="B27" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA FRUIT</t>
+          <t>ANTIPULGONES LU 750 ML</t>
         </is>
       </c>
       <c r="C27" s="3" t="inlineStr"/>
       <c r="D27" s="3" t="inlineStr"/>
       <c r="E27" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F27" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G27" s="4" t="n">
@@ -16570,7 +16570,7 @@
       </c>
       <c r="U27" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="4" t="inlineStr">
@@ -16587,24 +16587,24 @@
     <row r="28">
       <c r="A28" s="3" t="inlineStr">
         <is>
-          <t>3601050004</t>
+          <t>3301030003</t>
         </is>
       </c>
       <c r="B28" s="3" t="inlineStr">
         <is>
-          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
+          <t>ABONO ROZE 1KG</t>
         </is>
       </c>
       <c r="C28" s="3" t="inlineStr"/>
       <c r="D28" s="3" t="inlineStr"/>
       <c r="E28" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F28" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G28" s="4" t="n">
@@ -16632,7 +16632,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="4" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P28" s="4" t="n">
         <v>59</v>
@@ -16653,7 +16653,7 @@
       </c>
       <c r="U28" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="4" t="inlineStr">
@@ -16670,24 +16670,32 @@
     <row r="29">
       <c r="A29" s="3" t="inlineStr">
         <is>
-          <t>3302210022</t>
+          <t>3403030001</t>
         </is>
       </c>
       <c r="B29" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
-        </is>
-      </c>
-      <c r="C29" s="3" t="inlineStr"/>
-      <c r="D29" s="3" t="inlineStr"/>
+          <t>ABONO CESPED LARGA DURACION</t>
+        </is>
+      </c>
+      <c r="C29" s="3" t="inlineStr">
+        <is>
+          <t>3KG</t>
+        </is>
+      </c>
+      <c r="D29" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E29" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F29" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G29" s="4" t="n">
@@ -16715,19 +16723,19 @@
         <v>0</v>
       </c>
       <c r="O29" s="4" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="P29" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q29" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R29" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T29" s="8" t="inlineStr">
         <is>
@@ -16736,12 +16744,12 @@
       </c>
       <c r="U29" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W29" s="4" t="inlineStr">
@@ -16753,24 +16761,24 @@
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
-          <t>3601050001</t>
+          <t>3901030009</t>
         </is>
       </c>
       <c r="B30" s="3" t="inlineStr">
         <is>
-          <t>BIO INSECTICIDA STOP 750ML</t>
+          <t>CEBO ANTIHORMIGAS 10GR</t>
         </is>
       </c>
       <c r="C30" s="3" t="inlineStr"/>
       <c r="D30" s="3" t="inlineStr"/>
       <c r="E30" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F30" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G30" s="4" t="n">
@@ -16798,19 +16806,19 @@
         <v>0</v>
       </c>
       <c r="O30" s="4" t="n">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="P30" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q30" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R30" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T30" s="8" t="inlineStr">
         <is>
@@ -16819,12 +16827,12 @@
       </c>
       <c r="U30" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W30" s="4" t="inlineStr">
@@ -16836,24 +16844,24 @@
     <row r="31">
       <c r="A31" s="3" t="inlineStr">
         <is>
-          <t>3901090004</t>
+          <t>3501050002</t>
         </is>
       </c>
       <c r="B31" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA RATONES</t>
+          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
         </is>
       </c>
       <c r="C31" s="3" t="inlineStr"/>
       <c r="D31" s="3" t="inlineStr"/>
       <c r="E31" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F31" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G31" s="4" t="n">
@@ -16881,7 +16889,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="4" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P31" s="4" t="n">
         <v>59</v>
@@ -16902,7 +16910,7 @@
       </c>
       <c r="U31" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="4" t="inlineStr">
@@ -16919,32 +16927,24 @@
     <row r="32">
       <c r="A32" s="3" t="inlineStr">
         <is>
-          <t>3602030003</t>
+          <t>3302210002</t>
         </is>
       </c>
       <c r="B32" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA BIOLOGICO</t>
-        </is>
-      </c>
-      <c r="C32" s="3" t="inlineStr">
-        <is>
-          <t>50G</t>
-        </is>
-      </c>
-      <c r="D32" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
+        </is>
+      </c>
+      <c r="C32" s="3" t="inlineStr"/>
+      <c r="D32" s="3" t="inlineStr"/>
       <c r="E32" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F32" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G32" s="4" t="n">
@@ -16972,19 +16972,19 @@
         <v>0</v>
       </c>
       <c r="O32" s="4" t="n">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="P32" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q32" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R32" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T32" s="8" t="inlineStr">
         <is>
@@ -16993,12 +16993,12 @@
       </c>
       <c r="U32" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W32" s="4" t="inlineStr">
@@ -17010,24 +17010,24 @@
     <row r="33">
       <c r="A33" s="3" t="inlineStr">
         <is>
-          <t>3902060002</t>
+          <t>3302210020</t>
         </is>
       </c>
       <c r="B33" s="3" t="inlineStr">
         <is>
-          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
+          <t>ABONO TREPADORAS ECO 800GR</t>
         </is>
       </c>
       <c r="C33" s="3" t="inlineStr"/>
       <c r="D33" s="3" t="inlineStr"/>
       <c r="E33" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F33" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G33" s="4" t="n">
@@ -17055,19 +17055,19 @@
         <v>0</v>
       </c>
       <c r="O33" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P33" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q33" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R33" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S33" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T33" s="8" t="inlineStr">
         <is>
@@ -17076,12 +17076,12 @@
       </c>
       <c r="U33" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W33" s="4" t="inlineStr">
@@ -17093,24 +17093,24 @@
     <row r="34">
       <c r="A34" s="3" t="inlineStr">
         <is>
-          <t>3302200008</t>
+          <t>3902070007</t>
         </is>
       </c>
       <c r="B34" s="3" t="inlineStr">
         <is>
-          <t>AZULADOR DE HORTENSIAS 800GR</t>
+          <t>FERO-TRAMPA CITRICOS</t>
         </is>
       </c>
       <c r="C34" s="3" t="inlineStr"/>
       <c r="D34" s="3" t="inlineStr"/>
       <c r="E34" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F34" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G34" s="4" t="n">
@@ -17138,7 +17138,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="4" t="n">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="P34" s="4" t="n">
         <v>59</v>
@@ -17159,7 +17159,7 @@
       </c>
       <c r="U34" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="4" t="inlineStr">
@@ -17176,24 +17176,24 @@
     <row r="35">
       <c r="A35" s="3" t="inlineStr">
         <is>
-          <t>3302070002</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B35" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS SOLUBLE 800GR</t>
+          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
         </is>
       </c>
       <c r="C35" s="3" t="inlineStr"/>
       <c r="D35" s="3" t="inlineStr"/>
       <c r="E35" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F35" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G35" s="4" t="n">
@@ -17221,19 +17221,19 @@
         <v>0</v>
       </c>
       <c r="O35" s="4" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="P35" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q35" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R35" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T35" s="8" t="inlineStr">
         <is>
@@ -17242,12 +17242,12 @@
       </c>
       <c r="U35" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W35" s="4" t="inlineStr">
@@ -17259,24 +17259,24 @@
     <row r="36">
       <c r="A36" s="3" t="inlineStr">
         <is>
-          <t>3302210004</t>
+          <t>3501100022</t>
         </is>
       </c>
       <c r="B36" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
+          <t>YNJECT GO PALMERAS (NO VENTA)</t>
         </is>
       </c>
       <c r="C36" s="3" t="inlineStr"/>
       <c r="D36" s="3" t="inlineStr"/>
       <c r="E36" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F36" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G36" s="4" t="n">
@@ -17304,19 +17304,19 @@
         <v>0</v>
       </c>
       <c r="O36" s="4" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="P36" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q36" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R36" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T36" s="8" t="inlineStr">
         <is>
@@ -17325,12 +17325,12 @@
       </c>
       <c r="U36" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W36" s="4" t="inlineStr">
@@ -17342,24 +17342,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>3302140001</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
+          <t>ABONO CESPED BOLSA</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -17387,7 +17387,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="4" t="n">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="P37" s="4" t="n">
         <v>59</v>
@@ -17408,7 +17408,7 @@
       </c>
       <c r="U37" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="4" t="inlineStr">
@@ -17425,24 +17425,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>3401040008</t>
+          <t>3902070004</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
+          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -17470,7 +17470,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="4" t="n">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="P38" s="4" t="n">
         <v>59</v>
@@ -17491,7 +17491,7 @@
       </c>
       <c r="U38" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="4" t="inlineStr">
@@ -17508,24 +17508,24 @@
     <row r="39">
       <c r="A39" s="3" t="inlineStr">
         <is>
-          <t>3302120001</t>
+          <t>3502010001</t>
         </is>
       </c>
       <c r="B39" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
+          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
         </is>
       </c>
       <c r="C39" s="3" t="inlineStr"/>
       <c r="D39" s="3" t="inlineStr"/>
       <c r="E39" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F39" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G39" s="4" t="n">
@@ -17553,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="P39" s="4" t="n">
         <v>59</v>
@@ -17574,7 +17574,7 @@
       </c>
       <c r="U39" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="4" t="inlineStr">
@@ -17591,24 +17591,24 @@
     <row r="40">
       <c r="A40" s="3" t="inlineStr">
         <is>
-          <t>3902070007</t>
+          <t>3403010005</t>
         </is>
       </c>
       <c r="B40" s="3" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA CITRICOS</t>
+          <t>ABONO GRAMA 2KG</t>
         </is>
       </c>
       <c r="C40" s="3" t="inlineStr"/>
       <c r="D40" s="3" t="inlineStr"/>
       <c r="E40" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F40" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G40" s="4" t="n">
@@ -17636,19 +17636,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="4" t="n">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="P40" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q40" s="4" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R40" s="4" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T40" s="8" t="inlineStr">
         <is>
@@ -17657,12 +17657,12 @@
       </c>
       <c r="U40" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W40" s="4" t="inlineStr">
@@ -17674,24 +17674,24 @@
     <row r="41">
       <c r="A41" s="3" t="inlineStr">
         <is>
-          <t>3602030001</t>
+          <t>3901040003</t>
         </is>
       </c>
       <c r="B41" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER SAL DE COBRE 70511</t>
+          <t>LU ANTIHORMIGAS 750ML CAJA</t>
         </is>
       </c>
       <c r="C41" s="3" t="inlineStr"/>
       <c r="D41" s="3" t="inlineStr"/>
       <c r="E41" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F41" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G41" s="4" t="n">
@@ -17719,7 +17719,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="4" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="P41" s="4" t="n">
         <v>59</v>
@@ -17740,7 +17740,7 @@
       </c>
       <c r="U41" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="4" t="inlineStr">
@@ -17757,24 +17757,24 @@
     <row r="42">
       <c r="A42" s="3" t="inlineStr">
         <is>
-          <t>3501100021</t>
+          <t>3902040002</t>
         </is>
       </c>
       <c r="B42" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PINO (NO VENTA)</t>
+          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
         </is>
       </c>
       <c r="C42" s="3" t="inlineStr"/>
       <c r="D42" s="3" t="inlineStr"/>
       <c r="E42" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F42" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G42" s="4" t="n">
@@ -17802,19 +17802,19 @@
         <v>0</v>
       </c>
       <c r="O42" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P42" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q42" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R42" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T42" s="8" t="inlineStr">
         <is>
@@ -17823,12 +17823,12 @@
       </c>
       <c r="U42" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W42" s="4" t="inlineStr">
@@ -17840,12 +17840,12 @@
     <row r="43">
       <c r="A43" s="3" t="inlineStr">
         <is>
-          <t>3301040005</t>
+          <t>3302200008</t>
         </is>
       </c>
       <c r="B43" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
+          <t>AZULADOR DE HORTENSIAS 800GR</t>
         </is>
       </c>
       <c r="C43" s="3" t="inlineStr"/>
@@ -17906,7 +17906,7 @@
       </c>
       <c r="U43" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="4" t="inlineStr">
@@ -17923,24 +17923,24 @@
     <row r="44">
       <c r="A44" s="3" t="inlineStr">
         <is>
-          <t>3302200018</t>
+          <t>3901090003</t>
         </is>
       </c>
       <c r="B44" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELOS</t>
+          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
         </is>
       </c>
       <c r="C44" s="3" t="inlineStr"/>
       <c r="D44" s="3" t="inlineStr"/>
       <c r="E44" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F44" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G44" s="4" t="n">
@@ -17968,7 +17968,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="4" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="P44" s="4" t="n">
         <v>59</v>
@@ -17989,7 +17989,7 @@
       </c>
       <c r="U44" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="4" t="inlineStr">
@@ -18006,12 +18006,12 @@
     <row r="45">
       <c r="A45" s="3" t="inlineStr">
         <is>
-          <t>3302070001</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B45" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS 750GR</t>
+          <t>FERRO PLUS REVERDECIENTE</t>
         </is>
       </c>
       <c r="C45" s="3" t="inlineStr"/>
@@ -18051,7 +18051,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="4" t="n">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="P45" s="4" t="n">
         <v>59</v>
@@ -18072,7 +18072,7 @@
       </c>
       <c r="U45" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="4" t="inlineStr">
@@ -18089,12 +18089,12 @@
     <row r="46">
       <c r="A46" s="3" t="inlineStr">
         <is>
-          <t>3901030012</t>
+          <t>3901130003</t>
         </is>
       </c>
       <c r="B46" s="3" t="inlineStr">
         <is>
-          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
+          <t>INSECTICIDA CARCOMA 200ML</t>
         </is>
       </c>
       <c r="C46" s="3" t="inlineStr"/>
@@ -18134,7 +18134,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="4" t="n">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="P46" s="4" t="n">
         <v>59</v>
@@ -18155,7 +18155,7 @@
       </c>
       <c r="U46" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="4" t="inlineStr">
@@ -18172,24 +18172,24 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>3302200014</t>
+          <t>3901040002</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
+          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
@@ -18217,7 +18217,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>43</v>
+        <v>18</v>
       </c>
       <c r="P47" s="4" t="n">
         <v>59</v>
@@ -18238,7 +18238,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -18255,24 +18255,24 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>3901040001</t>
+          <t>3302200003</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS PISTOLA 750ML</t>
+          <t>ABONO PALMERAS 500ML</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
@@ -18300,7 +18300,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>82</v>
+        <v>26</v>
       </c>
       <c r="P48" s="4" t="n">
         <v>59</v>
@@ -18321,7 +18321,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -18421,24 +18421,24 @@
     <row r="50">
       <c r="A50" s="3" t="inlineStr">
         <is>
-          <t>3901030002</t>
+          <t>3502010009</t>
         </is>
       </c>
       <c r="B50" s="3" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
+          <t>ENFERMEDADES ROSALES 10ML</t>
         </is>
       </c>
       <c r="C50" s="3" t="inlineStr"/>
       <c r="D50" s="3" t="inlineStr"/>
       <c r="E50" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F50" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G50" s="4" t="n">
@@ -18466,7 +18466,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="4" t="n">
-        <v>76</v>
+        <v>36</v>
       </c>
       <c r="P50" s="4" t="n">
         <v>59</v>
@@ -18487,7 +18487,7 @@
       </c>
       <c r="U50" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="4" t="inlineStr">
@@ -18504,24 +18504,24 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>3903020003</t>
+          <t>3402060004</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
+          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C51" s="3" t="inlineStr"/>
       <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
@@ -18549,19 +18549,19 @@
         <v>0</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P51" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q51" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R51" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S51" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T51" s="8" t="inlineStr">
         <is>
@@ -18570,12 +18570,12 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W51" s="4" t="inlineStr">
@@ -18587,12 +18587,12 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>3402020002</t>
+          <t>3402050003</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BIO FORTIGO FLORES 1L</t>
+          <t>COMPO ABRILLANTADOR 600ML</t>
         </is>
       </c>
       <c r="C52" s="3" t="inlineStr"/>
@@ -18632,7 +18632,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>42</v>
+        <v>16</v>
       </c>
       <c r="P52" s="4" t="n">
         <v>59</v>
@@ -18653,7 +18653,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -18670,24 +18670,24 @@
     <row r="53">
       <c r="A53" s="3" t="inlineStr">
         <is>
-          <t>3901030009</t>
+          <t>3601040001</t>
         </is>
       </c>
       <c r="B53" s="3" t="inlineStr">
         <is>
-          <t>CEBO ANTIHORMIGAS 10GR</t>
+          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
         </is>
       </c>
       <c r="C53" s="3" t="inlineStr"/>
       <c r="D53" s="3" t="inlineStr"/>
       <c r="E53" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F53" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G53" s="4" t="n">
@@ -18715,7 +18715,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="4" t="n">
-        <v>49</v>
+        <v>28</v>
       </c>
       <c r="P53" s="4" t="n">
         <v>59</v>
@@ -18736,7 +18736,7 @@
       </c>
       <c r="U53" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="4" t="inlineStr">
@@ -18753,24 +18753,24 @@
     <row r="54">
       <c r="A54" s="3" t="inlineStr">
         <is>
-          <t>3902070004</t>
+          <t>3602030001</t>
         </is>
       </c>
       <c r="B54" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
+          <t>BIOFLOWER SAL DE COBRE 70511</t>
         </is>
       </c>
       <c r="C54" s="3" t="inlineStr"/>
       <c r="D54" s="3" t="inlineStr"/>
       <c r="E54" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F54" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G54" s="4" t="n">
@@ -18798,7 +18798,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="4" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P54" s="4" t="n">
         <v>59</v>
@@ -18819,7 +18819,7 @@
       </c>
       <c r="U54" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="4" t="inlineStr">
@@ -18836,24 +18836,32 @@
     <row r="55">
       <c r="A55" s="3" t="inlineStr">
         <is>
-          <t>3502020003</t>
+          <t>3901030001</t>
         </is>
       </c>
       <c r="B55" s="3" t="inlineStr">
         <is>
-          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
-        </is>
-      </c>
-      <c r="C55" s="3" t="inlineStr"/>
-      <c r="D55" s="3" t="inlineStr"/>
+          <t>COMPO ANTIHORMIGAS</t>
+        </is>
+      </c>
+      <c r="C55" s="3" t="inlineStr">
+        <is>
+          <t>500G</t>
+        </is>
+      </c>
+      <c r="D55" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E55" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F55" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G55" s="4" t="n">
@@ -18881,7 +18889,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="4" t="n">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="P55" s="4" t="n">
         <v>59</v>
@@ -18902,7 +18910,7 @@
       </c>
       <c r="U55" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="4" t="inlineStr">
@@ -18919,24 +18927,24 @@
     <row r="56">
       <c r="A56" s="3" t="inlineStr">
         <is>
-          <t>3302100001</t>
+          <t>3903020005</t>
         </is>
       </c>
       <c r="B56" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
+          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
         </is>
       </c>
       <c r="C56" s="3" t="inlineStr"/>
       <c r="D56" s="3" t="inlineStr"/>
       <c r="E56" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F56" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G56" s="4" t="n">
@@ -18964,7 +18972,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="4" t="n">
-        <v>45</v>
+        <v>6</v>
       </c>
       <c r="P56" s="4" t="n">
         <v>59</v>
@@ -18985,7 +18993,7 @@
       </c>
       <c r="U56" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="4" t="inlineStr">
@@ -19002,24 +19010,24 @@
     <row r="57">
       <c r="A57" s="3" t="inlineStr">
         <is>
-          <t>3502010001</t>
+          <t>3601050007</t>
         </is>
       </c>
       <c r="B57" s="3" t="inlineStr">
         <is>
-          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
+          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
         </is>
       </c>
       <c r="C57" s="3" t="inlineStr"/>
       <c r="D57" s="3" t="inlineStr"/>
       <c r="E57" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F57" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G57" s="4" t="n">
@@ -19047,7 +19055,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="4" t="n">
-        <v>4</v>
+        <v>20</v>
       </c>
       <c r="P57" s="4" t="n">
         <v>59</v>
@@ -19068,7 +19076,7 @@
       </c>
       <c r="U57" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="4" t="inlineStr">
@@ -19085,24 +19093,24 @@
     <row r="58">
       <c r="A58" s="3" t="inlineStr">
         <is>
-          <t>3501040003</t>
+          <t>3402060002</t>
         </is>
       </c>
       <c r="B58" s="3" t="inlineStr">
         <is>
-          <t>ANTIPULGONES LU 750 ML</t>
+          <t>FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C58" s="3" t="inlineStr"/>
       <c r="D58" s="3" t="inlineStr"/>
       <c r="E58" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F58" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G58" s="4" t="n">
@@ -19130,7 +19138,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="4" t="n">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="P58" s="4" t="n">
         <v>59</v>
@@ -19151,7 +19159,7 @@
       </c>
       <c r="U58" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="4" t="inlineStr">
@@ -19168,24 +19176,24 @@
     <row r="59">
       <c r="A59" s="3" t="inlineStr">
         <is>
-          <t>3401040003</t>
+          <t>3302070001</t>
         </is>
       </c>
       <c r="B59" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
+          <t>ABONO GERANIOS 750GR</t>
         </is>
       </c>
       <c r="C59" s="3" t="inlineStr"/>
       <c r="D59" s="3" t="inlineStr"/>
       <c r="E59" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F59" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G59" s="4" t="n">
@@ -19213,7 +19221,7 @@
         <v>0</v>
       </c>
       <c r="O59" s="4" t="n">
-        <v>20</v>
+        <v>72</v>
       </c>
       <c r="P59" s="4" t="n">
         <v>59</v>
@@ -19234,7 +19242,7 @@
       </c>
       <c r="U59" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="4" t="inlineStr">
@@ -19251,32 +19259,24 @@
     <row r="60">
       <c r="A60" s="3" t="inlineStr">
         <is>
-          <t>3601050002</t>
+          <t>3302200017</t>
         </is>
       </c>
       <c r="B60" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ACEITE DE NEEM</t>
-        </is>
-      </c>
-      <c r="C60" s="3" t="inlineStr">
-        <is>
-          <t>450ML</t>
-        </is>
-      </c>
-      <c r="D60" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>REGENERADOR SUELO 250ML</t>
+        </is>
+      </c>
+      <c r="C60" s="3" t="inlineStr"/>
+      <c r="D60" s="3" t="inlineStr"/>
       <c r="E60" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F60" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G60" s="4" t="n">
@@ -19304,7 +19304,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="P60" s="4" t="n">
         <v>59</v>
@@ -19325,7 +19325,7 @@
       </c>
       <c r="U60" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="4" t="inlineStr">
@@ -19342,24 +19342,24 @@
     <row r="61">
       <c r="A61" s="3" t="inlineStr">
         <is>
-          <t>3301030003</t>
+          <t>3903010001</t>
         </is>
       </c>
       <c r="B61" s="3" t="inlineStr">
         <is>
-          <t>ABONO ROZE 1KG</t>
+          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
         </is>
       </c>
       <c r="C61" s="3" t="inlineStr"/>
       <c r="D61" s="3" t="inlineStr"/>
       <c r="E61" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F61" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G61" s="4" t="n">
@@ -19387,7 +19387,7 @@
         <v>0</v>
       </c>
       <c r="O61" s="4" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="P61" s="4" t="n">
         <v>59</v>
@@ -19408,7 +19408,7 @@
       </c>
       <c r="U61" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="4" t="inlineStr">
@@ -19425,24 +19425,24 @@
     <row r="62">
       <c r="A62" s="3" t="inlineStr">
         <is>
-          <t>3901130001</t>
+          <t>3301030004</t>
         </is>
       </c>
       <c r="B62" s="3" t="inlineStr">
         <is>
-          <t>FIN CHINCHES Y PULGAS 150ML</t>
+          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
         </is>
       </c>
       <c r="C62" s="3" t="inlineStr"/>
       <c r="D62" s="3" t="inlineStr"/>
       <c r="E62" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F62" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G62" s="4" t="n">
@@ -19470,7 +19470,7 @@
         <v>0</v>
       </c>
       <c r="O62" s="4" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="P62" s="4" t="n">
         <v>59</v>
@@ -19491,7 +19491,7 @@
       </c>
       <c r="U62" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="4" t="inlineStr">
@@ -19508,24 +19508,24 @@
     <row r="63">
       <c r="A63" s="3" t="inlineStr">
         <is>
-          <t>3601050007</t>
+          <t>3902040001</t>
         </is>
       </c>
       <c r="B63" s="3" t="inlineStr">
         <is>
-          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
+          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C63" s="3" t="inlineStr"/>
       <c r="D63" s="3" t="inlineStr"/>
       <c r="E63" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F63" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G63" s="4" t="n">
@@ -19553,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="4" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P63" s="4" t="n">
         <v>59</v>
@@ -19574,7 +19574,7 @@
       </c>
       <c r="U63" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="4" t="inlineStr">
@@ -19591,24 +19591,32 @@
     <row r="64">
       <c r="A64" s="3" t="inlineStr">
         <is>
-          <t>3502010007</t>
+          <t>3602030003</t>
         </is>
       </c>
       <c r="B64" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
-        </is>
-      </c>
-      <c r="C64" s="3" t="inlineStr"/>
-      <c r="D64" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA BIOLOGICO</t>
+        </is>
+      </c>
+      <c r="C64" s="3" t="inlineStr">
+        <is>
+          <t>50G</t>
+        </is>
+      </c>
+      <c r="D64" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E64" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F64" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G64" s="4" t="n">
@@ -19636,19 +19644,19 @@
         <v>0</v>
       </c>
       <c r="O64" s="4" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="P64" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q64" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R64" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S64" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T64" s="8" t="inlineStr">
         <is>
@@ -19657,12 +19665,12 @@
       </c>
       <c r="U64" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W64" s="4" t="inlineStr">
@@ -19674,12 +19682,12 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>3501140001</t>
+          <t>3502010007</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>AVIDUST 1KG</t>
+          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
@@ -19719,7 +19727,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="P65" s="4" t="n">
         <v>59</v>
@@ -19740,7 +19748,7 @@
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
@@ -19757,12 +19765,12 @@
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>3501100001</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>ANTIMINADOR 50ML</t>
+          <t>YNJECT CONECTOR PALMERA</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -19802,19 +19810,19 @@
         <v>0</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="P66" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>65.56</v>
+        <v>25.56</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T66" s="8" t="inlineStr">
         <is>
@@ -19823,12 +19831,12 @@
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
@@ -19840,24 +19848,24 @@
     <row r="67">
       <c r="A67" s="3" t="inlineStr">
         <is>
-          <t>3902070003</t>
+          <t>3501100013</t>
         </is>
       </c>
       <c r="B67" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
+          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
         </is>
       </c>
       <c r="C67" s="3" t="inlineStr"/>
       <c r="D67" s="3" t="inlineStr"/>
       <c r="E67" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F67" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G67" s="4" t="n">
@@ -19885,7 +19893,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="4" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="P67" s="4" t="n">
         <v>59</v>
@@ -19906,7 +19914,7 @@
       </c>
       <c r="U67" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="4" t="inlineStr">
@@ -19923,24 +19931,24 @@
     <row r="68">
       <c r="A68" s="3" t="inlineStr">
         <is>
-          <t>3902070006</t>
+          <t>3601050004</t>
         </is>
       </c>
       <c r="B68" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA MOSCAS</t>
+          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
         </is>
       </c>
       <c r="C68" s="3" t="inlineStr"/>
       <c r="D68" s="3" t="inlineStr"/>
       <c r="E68" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F68" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G68" s="4" t="n">
@@ -19968,7 +19976,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="4" t="n">
-        <v>38</v>
+        <v>18</v>
       </c>
       <c r="P68" s="4" t="n">
         <v>59</v>
@@ -19989,7 +19997,7 @@
       </c>
       <c r="U68" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="4" t="inlineStr">
@@ -20006,24 +20014,24 @@
     <row r="69">
       <c r="A69" s="3" t="inlineStr">
         <is>
-          <t>3501100002</t>
+          <t>3302100001</t>
         </is>
       </c>
       <c r="B69" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
+          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
         </is>
       </c>
       <c r="C69" s="3" t="inlineStr"/>
       <c r="D69" s="3" t="inlineStr"/>
       <c r="E69" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F69" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G69" s="4" t="n">
@@ -20051,7 +20059,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="4" t="n">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="P69" s="4" t="n">
         <v>59</v>
@@ -20072,7 +20080,7 @@
       </c>
       <c r="U69" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="4" t="inlineStr">
@@ -20089,24 +20097,24 @@
     <row r="70">
       <c r="A70" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3302210001</t>
         </is>
       </c>
       <c r="B70" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
+          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
         </is>
       </c>
       <c r="C70" s="3" t="inlineStr"/>
       <c r="D70" s="3" t="inlineStr"/>
       <c r="E70" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F70" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G70" s="4" t="n">
@@ -20134,7 +20142,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="4" t="n">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="P70" s="4" t="n">
         <v>59</v>
@@ -20155,7 +20163,7 @@
       </c>
       <c r="U70" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="4" t="inlineStr">
@@ -20172,32 +20180,24 @@
     <row r="71">
       <c r="A71" s="3" t="inlineStr">
         <is>
-          <t>3301030001</t>
+          <t>3902020002</t>
         </is>
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
-        </is>
-      </c>
-      <c r="C71" s="3" t="inlineStr">
-        <is>
-          <t>2,5Kg</t>
-        </is>
-      </c>
-      <c r="D71" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
+        </is>
+      </c>
+      <c r="C71" s="3" t="inlineStr"/>
+      <c r="D71" s="3" t="inlineStr"/>
       <c r="E71" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F71" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G71" s="4" t="n">
@@ -20225,7 +20225,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>122</v>
+        <v>24</v>
       </c>
       <c r="P71" s="4" t="n">
         <v>59</v>
@@ -20246,7 +20246,7 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
@@ -20263,24 +20263,24 @@
     <row r="72">
       <c r="A72" s="3" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3902060002</t>
         </is>
       </c>
       <c r="B72" s="3" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
+          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
         </is>
       </c>
       <c r="C72" s="3" t="inlineStr"/>
       <c r="D72" s="3" t="inlineStr"/>
       <c r="E72" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F72" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G72" s="4" t="n">
@@ -20308,7 +20308,7 @@
         <v>0</v>
       </c>
       <c r="O72" s="4" t="n">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="P72" s="4" t="n">
         <v>59</v>
@@ -20329,7 +20329,7 @@
       </c>
       <c r="U72" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="4" t="inlineStr">
@@ -20346,16 +20346,24 @@
     <row r="73">
       <c r="A73" s="3" t="inlineStr">
         <is>
-          <t>3501100013</t>
+          <t>3502010011</t>
         </is>
       </c>
       <c r="B73" s="3" t="inlineStr">
         <is>
-          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
-        </is>
-      </c>
-      <c r="C73" s="3" t="inlineStr"/>
-      <c r="D73" s="3" t="inlineStr"/>
+          <t>COMPO FUNGICIDA PHITOFTORA</t>
+        </is>
+      </c>
+      <c r="C73" s="3" t="inlineStr">
+        <is>
+          <t>45GR</t>
+        </is>
+      </c>
+      <c r="D73" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E73" s="4" t="inlineStr">
         <is>
           <t>35</t>
@@ -20391,19 +20399,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="4" t="n">
-        <v>10</v>
+        <v>80</v>
       </c>
       <c r="P73" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q73" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R73" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S73" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T73" s="8" t="inlineStr">
         <is>
@@ -20412,12 +20420,12 @@
       </c>
       <c r="U73" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W73" s="4" t="inlineStr">
@@ -20429,12 +20437,12 @@
     <row r="74">
       <c r="A74" s="3" t="inlineStr">
         <is>
-          <t>3902040002</t>
+          <t>3901030002</t>
         </is>
       </c>
       <c r="B74" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
+          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
         </is>
       </c>
       <c r="C74" s="3" t="inlineStr"/>
@@ -20474,7 +20482,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="4" t="n">
-        <v>2</v>
+        <v>76</v>
       </c>
       <c r="P74" s="4" t="n">
         <v>59</v>
@@ -20495,7 +20503,7 @@
       </c>
       <c r="U74" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="4" t="inlineStr">
@@ -20512,24 +20520,24 @@
     <row r="75">
       <c r="A75" s="3" t="inlineStr">
         <is>
-          <t>3701010002</t>
+          <t>3902070009</t>
         </is>
       </c>
       <c r="B75" s="3" t="inlineStr">
         <is>
-          <t>ROUNDUP GEL GARDEN</t>
+          <t>FERO-TRAMPA OLIVO</t>
         </is>
       </c>
       <c r="C75" s="3" t="inlineStr"/>
       <c r="D75" s="3" t="inlineStr"/>
       <c r="E75" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F75" s="4" t="inlineStr">
         <is>
-          <t>HERBICIDAS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G75" s="4" t="n">
@@ -20557,7 +20565,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="4" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P75" s="4" t="n">
         <v>59</v>
@@ -20578,7 +20586,7 @@
       </c>
       <c r="U75" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="4" t="inlineStr">
@@ -20595,24 +20603,24 @@
     <row r="76">
       <c r="A76" s="3" t="inlineStr">
         <is>
-          <t>3302200017</t>
+          <t>3902070005</t>
         </is>
       </c>
       <c r="B76" s="3" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELO 250ML</t>
+          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
         </is>
       </c>
       <c r="C76" s="3" t="inlineStr"/>
       <c r="D76" s="3" t="inlineStr"/>
       <c r="E76" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F76" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G76" s="4" t="n">
@@ -20640,7 +20648,7 @@
         <v>0</v>
       </c>
       <c r="O76" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P76" s="4" t="n">
         <v>59</v>
@@ -20661,7 +20669,7 @@
       </c>
       <c r="U76" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="4" t="inlineStr">
@@ -20678,32 +20686,24 @@
     <row r="77">
       <c r="A77" s="3" t="inlineStr">
         <is>
-          <t>3403030001</t>
+          <t>3902070008</t>
         </is>
       </c>
       <c r="B77" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED LARGA DURACION</t>
-        </is>
-      </c>
-      <c r="C77" s="3" t="inlineStr">
-        <is>
-          <t>3KG</t>
-        </is>
-      </c>
-      <c r="D77" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERO-TRAMPA FRUIT</t>
+        </is>
+      </c>
+      <c r="C77" s="3" t="inlineStr"/>
+      <c r="D77" s="3" t="inlineStr"/>
       <c r="E77" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F77" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G77" s="4" t="n">
@@ -20731,7 +20731,7 @@
         <v>0</v>
       </c>
       <c r="O77" s="4" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="P77" s="4" t="n">
         <v>59</v>
@@ -20752,7 +20752,7 @@
       </c>
       <c r="U77" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="4" t="inlineStr">
@@ -20769,24 +20769,24 @@
     <row r="78">
       <c r="A78" s="3" t="inlineStr">
         <is>
-          <t>3402060002</t>
+          <t>3502010014</t>
         </is>
       </c>
       <c r="B78" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE BONSAIS 500ML</t>
+          <t>REVUS ANTIMILDIU 20ML</t>
         </is>
       </c>
       <c r="C78" s="3" t="inlineStr"/>
       <c r="D78" s="3" t="inlineStr"/>
       <c r="E78" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F78" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G78" s="4" t="n">
@@ -20814,7 +20814,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="4" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P78" s="4" t="n">
         <v>59</v>
@@ -20835,7 +20835,7 @@
       </c>
       <c r="U78" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="4" t="inlineStr">
@@ -20852,24 +20852,24 @@
     <row r="79">
       <c r="A79" s="3" t="inlineStr">
         <is>
-          <t>3302210009</t>
+          <t>3403040000</t>
         </is>
       </c>
       <c r="B79" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
         </is>
       </c>
       <c r="C79" s="3" t="inlineStr"/>
       <c r="D79" s="3" t="inlineStr"/>
       <c r="E79" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F79" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G79" s="4" t="n">
@@ -20897,7 +20897,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="4" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P79" s="4" t="n">
         <v>59</v>
@@ -20918,7 +20918,7 @@
       </c>
       <c r="U79" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="4" t="inlineStr">
@@ -20935,32 +20935,24 @@
     <row r="80">
       <c r="A80" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3302120001</t>
         </is>
       </c>
       <c r="B80" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
-        </is>
-      </c>
-      <c r="C80" s="3" t="inlineStr">
-        <is>
-          <t>1I5KG</t>
-        </is>
-      </c>
-      <c r="D80" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
+        </is>
+      </c>
+      <c r="C80" s="3" t="inlineStr"/>
+      <c r="D80" s="3" t="inlineStr"/>
       <c r="E80" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F80" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G80" s="4" t="n">
@@ -20988,19 +20980,19 @@
         <v>0</v>
       </c>
       <c r="O80" s="4" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="P80" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q80" s="4" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R80" s="4" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S80" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T80" s="8" t="inlineStr">
         <is>
@@ -21009,12 +21001,12 @@
       </c>
       <c r="U80" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="4" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W80" s="4" t="inlineStr">
@@ -21026,12 +21018,12 @@
     <row r="81">
       <c r="A81" s="3" t="inlineStr">
         <is>
-          <t>3902020002</t>
+          <t>3904010002</t>
         </is>
       </c>
       <c r="B81" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
+          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
         </is>
       </c>
       <c r="C81" s="3" t="inlineStr"/>
@@ -21071,7 +21063,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="4" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P81" s="4" t="n">
         <v>59</v>
@@ -21092,7 +21084,7 @@
       </c>
       <c r="U81" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="4" t="inlineStr">
@@ -21109,32 +21101,24 @@
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
         <is>
-          <t>3901030011</t>
+          <t>3501100021</t>
         </is>
       </c>
       <c r="B82" s="3" t="inlineStr">
         <is>
-          <t>KB NEXA HORMIGAS GRANULADO</t>
-        </is>
-      </c>
-      <c r="C82" s="3" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D82" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>YNJECT GO PINO (NO VENTA)</t>
+        </is>
+      </c>
+      <c r="C82" s="3" t="inlineStr"/>
+      <c r="D82" s="3" t="inlineStr"/>
       <c r="E82" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F82" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G82" s="4" t="n">
@@ -21162,19 +21146,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="4" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P82" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q82" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R82" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S82" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T82" s="8" t="inlineStr">
         <is>
@@ -21183,12 +21167,12 @@
       </c>
       <c r="U82" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W82" s="4" t="inlineStr">
@@ -21200,24 +21184,24 @@
     <row r="83">
       <c r="A83" s="3" t="inlineStr">
         <is>
-          <t>3302150003</t>
+          <t>3901080002</t>
         </is>
       </c>
       <c r="B83" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO CITRICOS 750GR</t>
+          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
         </is>
       </c>
       <c r="C83" s="3" t="inlineStr"/>
       <c r="D83" s="3" t="inlineStr"/>
       <c r="E83" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F83" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G83" s="4" t="n">
@@ -21245,7 +21229,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="4" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P83" s="4" t="n">
         <v>59</v>
@@ -21266,7 +21250,7 @@
       </c>
       <c r="U83" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="4" t="inlineStr">
@@ -21283,16 +21267,24 @@
     <row r="84">
       <c r="A84" s="3" t="inlineStr">
         <is>
-          <t>3901110003</t>
+          <t>3901030011</t>
         </is>
       </c>
       <c r="B84" s="3" t="inlineStr">
         <is>
-          <t>PORTACEBO RATAS</t>
-        </is>
-      </c>
-      <c r="C84" s="3" t="inlineStr"/>
-      <c r="D84" s="3" t="inlineStr"/>
+          <t>KB NEXA HORMIGAS GRANULADO</t>
+        </is>
+      </c>
+      <c r="C84" s="3" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D84" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E84" s="4" t="inlineStr">
         <is>
           <t>39</t>
@@ -21328,7 +21320,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="4" t="n">
-        <v>2</v>
+        <v>38</v>
       </c>
       <c r="P84" s="4" t="n">
         <v>59</v>
@@ -21349,7 +21341,7 @@
       </c>
       <c r="U84" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="4" t="inlineStr">
@@ -21366,24 +21358,24 @@
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
         <is>
-          <t>3302170005</t>
+          <t>3904010004</t>
         </is>
       </c>
       <c r="B85" s="3" t="inlineStr">
         <is>
-          <t>VARITAS HUERTO FRUTALES</t>
+          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
         </is>
       </c>
       <c r="C85" s="3" t="inlineStr"/>
       <c r="D85" s="3" t="inlineStr"/>
       <c r="E85" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F85" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G85" s="4" t="n">
@@ -21411,7 +21403,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="4" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P85" s="4" t="n">
         <v>59</v>
@@ -21432,7 +21424,7 @@
       </c>
       <c r="U85" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="4" t="inlineStr">
@@ -21449,12 +21441,12 @@
     <row r="86">
       <c r="A86" s="3" t="inlineStr">
         <is>
-          <t>3502010009</t>
+          <t>3501040002</t>
         </is>
       </c>
       <c r="B86" s="3" t="inlineStr">
         <is>
-          <t>ENFERMEDADES ROSALES 10ML</t>
+          <t>INSECTICIDA PULGON 750ML</t>
         </is>
       </c>
       <c r="C86" s="3" t="inlineStr"/>
@@ -21494,7 +21486,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="4" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P86" s="4" t="n">
         <v>59</v>
@@ -21515,7 +21507,7 @@
       </c>
       <c r="U86" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="4" t="inlineStr">
@@ -21532,12 +21524,12 @@
     <row r="87">
       <c r="A87" s="3" t="inlineStr">
         <is>
-          <t>3501100022</t>
+          <t>3501100011</t>
         </is>
       </c>
       <c r="B87" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PALMERAS (NO VENTA)</t>
+          <t>PACK FRUTALES VITHAL</t>
         </is>
       </c>
       <c r="C87" s="3" t="inlineStr"/>
@@ -21577,19 +21569,19 @@
         <v>0</v>
       </c>
       <c r="O87" s="4" t="n">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="P87" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q87" s="4" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R87" s="4" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S87" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T87" s="8" t="inlineStr">
         <is>
@@ -21598,12 +21590,12 @@
       </c>
       <c r="U87" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W87" s="4" t="inlineStr">
@@ -21615,24 +21607,24 @@
     <row r="88">
       <c r="A88" s="3" t="inlineStr">
         <is>
-          <t>3402050003</t>
+          <t>3601040002</t>
         </is>
       </c>
       <c r="B88" s="3" t="inlineStr">
         <is>
-          <t>COMPO ABRILLANTADOR 600ML</t>
+          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
         </is>
       </c>
       <c r="C88" s="3" t="inlineStr"/>
       <c r="D88" s="3" t="inlineStr"/>
       <c r="E88" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F88" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G88" s="4" t="n">
@@ -21660,7 +21652,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="4" t="n">
-        <v>16</v>
+        <v>36</v>
       </c>
       <c r="P88" s="4" t="n">
         <v>59</v>
@@ -21681,7 +21673,7 @@
       </c>
       <c r="U88" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="4" t="inlineStr">
@@ -21698,12 +21690,12 @@
     <row r="89">
       <c r="A89" s="3" t="inlineStr">
         <is>
-          <t>3501110005</t>
+          <t>3501080003</t>
         </is>
       </c>
       <c r="B89" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA GERANIOS LU 750 ML</t>
+          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
         </is>
       </c>
       <c r="C89" s="3" t="inlineStr"/>
@@ -21743,7 +21735,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="4" t="n">
-        <v>54</v>
+        <v>25</v>
       </c>
       <c r="P89" s="4" t="n">
         <v>59</v>
@@ -21764,7 +21756,7 @@
       </c>
       <c r="U89" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="4" t="inlineStr">
@@ -21781,12 +21773,12 @@
     <row r="90">
       <c r="A90" s="3" t="inlineStr">
         <is>
-          <t>3502010005</t>
+          <t>3502020002</t>
         </is>
       </c>
       <c r="B90" s="3" t="inlineStr">
         <is>
-          <t>AZUFRE 450 GRS.</t>
+          <t>FUNGICIDA ROSALES 750ML</t>
         </is>
       </c>
       <c r="C90" s="3" t="inlineStr"/>
@@ -21826,7 +21818,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="4" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="P90" s="4" t="n">
         <v>59</v>
@@ -21847,7 +21839,7 @@
       </c>
       <c r="U90" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="4" t="inlineStr">
@@ -21864,24 +21856,24 @@
     <row r="91">
       <c r="A91" s="3" t="inlineStr">
         <is>
-          <t>3502020002</t>
+          <t>3902070003</t>
         </is>
       </c>
       <c r="B91" s="3" t="inlineStr">
         <is>
-          <t>FUNGICIDA ROSALES 750ML</t>
+          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
         </is>
       </c>
       <c r="C91" s="3" t="inlineStr"/>
       <c r="D91" s="3" t="inlineStr"/>
       <c r="E91" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F91" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G91" s="4" t="n">
@@ -21909,7 +21901,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="P91" s="4" t="n">
         <v>59</v>
@@ -21930,7 +21922,7 @@
       </c>
       <c r="U91" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="4" t="inlineStr">
@@ -21947,24 +21939,24 @@
     <row r="92">
       <c r="A92" s="3" t="inlineStr">
         <is>
-          <t>3301030004</t>
+          <t>3601050001</t>
         </is>
       </c>
       <c r="B92" s="3" t="inlineStr">
         <is>
-          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
+          <t>BIO INSECTICIDA STOP 750ML</t>
         </is>
       </c>
       <c r="C92" s="3" t="inlineStr"/>
       <c r="D92" s="3" t="inlineStr"/>
       <c r="E92" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F92" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G92" s="4" t="n">
@@ -21992,19 +21984,19 @@
         <v>0</v>
       </c>
       <c r="O92" s="4" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P92" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q92" s="4" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R92" s="4" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S92" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T92" s="8" t="inlineStr">
         <is>
@@ -22013,12 +22005,12 @@
       </c>
       <c r="U92" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W92" s="4" t="inlineStr">
@@ -22030,24 +22022,24 @@
     <row r="93">
       <c r="A93" s="3" t="inlineStr">
         <is>
-          <t>3901130003</t>
+          <t>3302210009</t>
         </is>
       </c>
       <c r="B93" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA CARCOMA 200ML</t>
+          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
         </is>
       </c>
       <c r="C93" s="3" t="inlineStr"/>
       <c r="D93" s="3" t="inlineStr"/>
       <c r="E93" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F93" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G93" s="4" t="n">
@@ -22075,7 +22067,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="4" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P93" s="4" t="n">
         <v>59</v>
@@ -22096,7 +22088,7 @@
       </c>
       <c r="U93" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="4" t="inlineStr">
@@ -22113,24 +22105,24 @@
     <row r="94">
       <c r="A94" s="3" t="inlineStr">
         <is>
-          <t>3601040002</t>
+          <t>3401040008</t>
         </is>
       </c>
       <c r="B94" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
+          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C94" s="3" t="inlineStr"/>
       <c r="D94" s="3" t="inlineStr"/>
       <c r="E94" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F94" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G94" s="4" t="n">
@@ -22158,7 +22150,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="4" t="n">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="P94" s="4" t="n">
         <v>59</v>
@@ -22179,7 +22171,7 @@
       </c>
       <c r="U94" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="4" t="inlineStr">
@@ -22196,24 +22188,24 @@
     <row r="95">
       <c r="A95" s="3" t="inlineStr">
         <is>
-          <t>3901130002</t>
+          <t>3501100005</t>
         </is>
       </c>
       <c r="B95" s="3" t="inlineStr">
         <is>
-          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C95" s="3" t="inlineStr"/>
       <c r="D95" s="3" t="inlineStr"/>
       <c r="E95" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F95" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G95" s="4" t="n">
@@ -22241,7 +22233,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="4" t="n">
-        <v>38</v>
+        <v>151</v>
       </c>
       <c r="P95" s="4" t="n">
         <v>59</v>
@@ -22262,7 +22254,7 @@
       </c>
       <c r="U95" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="4" t="inlineStr">
@@ -22279,24 +22271,24 @@
     <row r="96">
       <c r="A96" s="3" t="inlineStr">
         <is>
-          <t>3501080003</t>
+          <t>3902010001</t>
         </is>
       </c>
       <c r="B96" s="3" t="inlineStr">
         <is>
-          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
+          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
         </is>
       </c>
       <c r="C96" s="3" t="inlineStr"/>
       <c r="D96" s="3" t="inlineStr"/>
       <c r="E96" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F96" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G96" s="4" t="n">
@@ -22324,7 +22316,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="4" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="P96" s="4" t="n">
         <v>59</v>
@@ -22345,7 +22337,7 @@
       </c>
       <c r="U96" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="4" t="inlineStr">
@@ -22362,12 +22354,12 @@
     <row r="97">
       <c r="A97" s="3" t="inlineStr">
         <is>
-          <t>3902070005</t>
+          <t>3901130002</t>
         </is>
       </c>
       <c r="B97" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
+          <t>FIN INSECTOS CONCENTRADO 25ML</t>
         </is>
       </c>
       <c r="C97" s="3" t="inlineStr"/>
@@ -22407,7 +22399,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="4" t="n">
-        <v>30</v>
+        <v>38</v>
       </c>
       <c r="P97" s="4" t="n">
         <v>59</v>
@@ -22428,7 +22420,7 @@
       </c>
       <c r="U97" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V97" s="4" t="inlineStr">
@@ -22445,24 +22437,32 @@
     <row r="98">
       <c r="A98" s="3" t="inlineStr">
         <is>
-          <t>3904010002</t>
+          <t>3601050002</t>
         </is>
       </c>
       <c r="B98" s="3" t="inlineStr">
         <is>
-          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
-        </is>
-      </c>
-      <c r="C98" s="3" t="inlineStr"/>
-      <c r="D98" s="3" t="inlineStr"/>
+          <t>BIOFLOWER ACEITE DE NEEM</t>
+        </is>
+      </c>
+      <c r="C98" s="3" t="inlineStr">
+        <is>
+          <t>450ML</t>
+        </is>
+      </c>
+      <c r="D98" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E98" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F98" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G98" s="4" t="n">
@@ -22511,7 +22511,7 @@
       </c>
       <c r="U98" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V98" s="4" t="inlineStr">
@@ -22528,24 +22528,24 @@
     <row r="99">
       <c r="A99" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3302210022</t>
         </is>
       </c>
       <c r="B99" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
+          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
         </is>
       </c>
       <c r="C99" s="3" t="inlineStr"/>
       <c r="D99" s="3" t="inlineStr"/>
       <c r="E99" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F99" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G99" s="4" t="n">
@@ -22573,16 +22573,16 @@
         <v>0</v>
       </c>
       <c r="O99" s="4" t="n">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="P99" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q99" s="4" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="R99" s="4" t="n">
-        <v>2.22</v>
+        <v>24.44</v>
       </c>
       <c r="S99" s="5" t="n">
         <v>0</v>
@@ -22599,7 +22599,7 @@
       </c>
       <c r="V99" s="4" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W99" s="4" t="inlineStr">
@@ -22611,12 +22611,12 @@
     <row r="100">
       <c r="A100" s="3" t="inlineStr">
         <is>
-          <t>3401050003</t>
+          <t>3402020002</t>
         </is>
       </c>
       <c r="B100" s="3" t="inlineStr">
         <is>
-          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
+          <t>BIO FORTIGO FLORES 1L</t>
         </is>
       </c>
       <c r="C100" s="3" t="inlineStr"/>
@@ -22656,7 +22656,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="4" t="n">
-        <v>2</v>
+        <v>42</v>
       </c>
       <c r="P100" s="4" t="n">
         <v>59</v>
@@ -22677,7 +22677,7 @@
       </c>
       <c r="U100" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V100" s="4" t="inlineStr">
@@ -22694,24 +22694,24 @@
     <row r="101">
       <c r="A101" s="3" t="inlineStr">
         <is>
-          <t>3501040002</t>
+          <t>3302140001</t>
         </is>
       </c>
       <c r="B101" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGON 750ML</t>
+          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
         </is>
       </c>
       <c r="C101" s="3" t="inlineStr"/>
       <c r="D101" s="3" t="inlineStr"/>
       <c r="E101" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F101" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G101" s="4" t="n">
@@ -22739,7 +22739,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="4" t="n">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="P101" s="4" t="n">
         <v>59</v>
@@ -22760,7 +22760,7 @@
       </c>
       <c r="U101" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V101" s="4" t="inlineStr">
@@ -22777,24 +22777,24 @@
     <row r="102">
       <c r="A102" s="3" t="inlineStr">
         <is>
-          <t>3901050001</t>
+          <t>3501100001</t>
         </is>
       </c>
       <c r="B102" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
+          <t>ANTIMINADOR 50ML</t>
         </is>
       </c>
       <c r="C102" s="3" t="inlineStr"/>
       <c r="D102" s="3" t="inlineStr"/>
       <c r="E102" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F102" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G102" s="4" t="n">
@@ -22822,7 +22822,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="4" t="n">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="P102" s="4" t="n">
         <v>59</v>
@@ -22843,7 +22843,7 @@
       </c>
       <c r="U102" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V102" s="4" t="inlineStr">
@@ -22860,24 +22860,24 @@
     <row r="103">
       <c r="A103" s="3" t="inlineStr">
         <is>
-          <t>3901090001</t>
+          <t>3302170005</t>
         </is>
       </c>
       <c r="B103" s="3" t="inlineStr">
         <is>
-          <t>COLA PARA RATONES RATIGLUE 135G</t>
+          <t>VARITAS HUERTO FRUTALES</t>
         </is>
       </c>
       <c r="C103" s="3" t="inlineStr"/>
       <c r="D103" s="3" t="inlineStr"/>
       <c r="E103" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F103" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G103" s="4" t="n">
@@ -22905,7 +22905,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P103" s="4" t="n">
         <v>59</v>
@@ -22926,7 +22926,7 @@
       </c>
       <c r="U103" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V103" s="4" t="inlineStr">
@@ -22943,24 +22943,24 @@
     <row r="104">
       <c r="A104" s="3" t="inlineStr">
         <is>
-          <t>3901030010</t>
+          <t>3302210004</t>
         </is>
       </c>
       <c r="B104" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ARBORICOLA</t>
+          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
         </is>
       </c>
       <c r="C104" s="3" t="inlineStr"/>
       <c r="D104" s="3" t="inlineStr"/>
       <c r="E104" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F104" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G104" s="4" t="n">
@@ -22988,7 +22988,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P104" s="4" t="n">
         <v>59</v>
@@ -23009,7 +23009,7 @@
       </c>
       <c r="U104" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V104" s="4" t="inlineStr">
@@ -23026,24 +23026,32 @@
     <row r="105">
       <c r="A105" s="3" t="inlineStr">
         <is>
-          <t>3901040003</t>
+          <t>3301030001</t>
         </is>
       </c>
       <c r="B105" s="3" t="inlineStr">
         <is>
-          <t>LU ANTIHORMIGAS 750ML CAJA</t>
-        </is>
-      </c>
-      <c r="C105" s="3" t="inlineStr"/>
-      <c r="D105" s="3" t="inlineStr"/>
+          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
+        </is>
+      </c>
+      <c r="C105" s="3" t="inlineStr">
+        <is>
+          <t>2,5Kg</t>
+        </is>
+      </c>
+      <c r="D105" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E105" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F105" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G105" s="4" t="n">
@@ -23071,7 +23079,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="4" t="n">
-        <v>24</v>
+        <v>122</v>
       </c>
       <c r="P105" s="4" t="n">
         <v>59</v>
@@ -23092,7 +23100,7 @@
       </c>
       <c r="U105" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V105" s="4" t="inlineStr">
@@ -23109,32 +23117,24 @@
     <row r="106">
       <c r="A106" s="3" t="inlineStr">
         <is>
-          <t>3901030001</t>
+          <t>3302070002</t>
         </is>
       </c>
       <c r="B106" s="3" t="inlineStr">
         <is>
-          <t>COMPO ANTIHORMIGAS</t>
-        </is>
-      </c>
-      <c r="C106" s="3" t="inlineStr">
-        <is>
-          <t>500G</t>
-        </is>
-      </c>
-      <c r="D106" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ABONO GERANIOS SOLUBLE 800GR</t>
+        </is>
+      </c>
+      <c r="C106" s="3" t="inlineStr"/>
+      <c r="D106" s="3" t="inlineStr"/>
       <c r="E106" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F106" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G106" s="4" t="n">
@@ -23162,7 +23162,7 @@
         <v>0</v>
       </c>
       <c r="O106" s="4" t="n">
-        <v>98</v>
+        <v>20</v>
       </c>
       <c r="P106" s="4" t="n">
         <v>59</v>
@@ -23183,7 +23183,7 @@
       </c>
       <c r="U106" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V106" s="4" t="inlineStr">
@@ -23200,12 +23200,12 @@
     <row r="107">
       <c r="A107" s="3" t="inlineStr">
         <is>
-          <t>3903020005</t>
+          <t>3903020003</t>
         </is>
       </c>
       <c r="B107" s="3" t="inlineStr">
         <is>
-          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
+          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
         </is>
       </c>
       <c r="C107" s="3" t="inlineStr"/>
@@ -23245,7 +23245,7 @@
         <v>0</v>
       </c>
       <c r="O107" s="4" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="P107" s="4" t="n">
         <v>59</v>
@@ -23266,7 +23266,7 @@
       </c>
       <c r="U107" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V107" s="4" t="inlineStr">
@@ -23283,24 +23283,24 @@
     <row r="108">
       <c r="A108" s="3" t="inlineStr">
         <is>
-          <t>3501050002</t>
+          <t>3901030010</t>
         </is>
       </c>
       <c r="B108" s="3" t="inlineStr">
         <is>
-          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
+          <t>ECOFIN CINTA ARBORICOLA</t>
         </is>
       </c>
       <c r="C108" s="3" t="inlineStr"/>
       <c r="D108" s="3" t="inlineStr"/>
       <c r="E108" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F108" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G108" s="4" t="n">
@@ -23328,7 +23328,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="4" t="n">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="P108" s="4" t="n">
         <v>59</v>
@@ -23349,7 +23349,7 @@
       </c>
       <c r="U108" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V108" s="4" t="inlineStr">
@@ -23366,24 +23366,24 @@
     <row r="109">
       <c r="A109" s="3" t="inlineStr">
         <is>
-          <t>3901090003</t>
+          <t>3301040005</t>
         </is>
       </c>
       <c r="B109" s="3" t="inlineStr">
         <is>
-          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
+          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C109" s="3" t="inlineStr"/>
       <c r="D109" s="3" t="inlineStr"/>
       <c r="E109" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F109" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G109" s="4" t="n">
@@ -23411,7 +23411,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="4" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="P109" s="4" t="n">
         <v>59</v>
@@ -23432,7 +23432,7 @@
       </c>
       <c r="U109" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V109" s="4" t="inlineStr">
@@ -23449,24 +23449,32 @@
     <row r="110">
       <c r="A110" s="3" t="inlineStr">
         <is>
-          <t>3501140005</t>
+          <t>3301040001</t>
         </is>
       </c>
       <c r="B110" s="3" t="inlineStr">
         <is>
-          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
-        </is>
-      </c>
-      <c r="C110" s="3" t="inlineStr"/>
-      <c r="D110" s="3" t="inlineStr"/>
+          <t>ABONO LIQUIDO UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="C110" s="3" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D110" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E110" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F110" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G110" s="4" t="n">
@@ -23494,7 +23502,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="4" t="n">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="P110" s="4" t="n">
         <v>59</v>
@@ -23515,7 +23523,7 @@
       </c>
       <c r="U110" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V110" s="4" t="inlineStr">
@@ -23532,24 +23540,24 @@
     <row r="111">
       <c r="A111" s="3" t="inlineStr">
         <is>
-          <t>3901040002</t>
+          <t>3501100015</t>
         </is>
       </c>
       <c r="B111" s="3" t="inlineStr">
         <is>
-          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
+          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C111" s="3" t="inlineStr"/>
       <c r="D111" s="3" t="inlineStr"/>
       <c r="E111" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F111" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G111" s="4" t="n">
@@ -23577,19 +23585,19 @@
         <v>0</v>
       </c>
       <c r="O111" s="4" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="P111" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q111" s="4" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R111" s="4" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S111" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T111" s="8" t="inlineStr">
         <is>
@@ -23598,12 +23606,12 @@
       </c>
       <c r="U111" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V111" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W111" s="4" t="inlineStr">
@@ -23615,24 +23623,24 @@
     <row r="112">
       <c r="A112" s="3" t="inlineStr">
         <is>
-          <t>3902010001</t>
+          <t>3701010002</t>
         </is>
       </c>
       <c r="B112" s="3" t="inlineStr">
         <is>
-          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
+          <t>ROUNDUP GEL GARDEN</t>
         </is>
       </c>
       <c r="C112" s="3" t="inlineStr"/>
       <c r="D112" s="3" t="inlineStr"/>
       <c r="E112" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F112" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>HERBICIDAS</t>
         </is>
       </c>
       <c r="G112" s="4" t="n">
@@ -23660,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="4" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P112" s="4" t="n">
         <v>59</v>
@@ -23681,7 +23689,7 @@
       </c>
       <c r="U112" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V112" s="4" t="inlineStr">
@@ -23698,32 +23706,24 @@
     <row r="113">
       <c r="A113" s="3" t="inlineStr">
         <is>
-          <t>3502010011</t>
+          <t>3302150003</t>
         </is>
       </c>
       <c r="B113" s="3" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA PHITOFTORA</t>
-        </is>
-      </c>
-      <c r="C113" s="3" t="inlineStr">
-        <is>
-          <t>45GR</t>
-        </is>
-      </c>
-      <c r="D113" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>COMPO BIO CITRICOS 750GR</t>
+        </is>
+      </c>
+      <c r="C113" s="3" t="inlineStr"/>
+      <c r="D113" s="3" t="inlineStr"/>
       <c r="E113" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F113" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G113" s="4" t="n">
@@ -23751,19 +23751,19 @@
         <v>0</v>
       </c>
       <c r="O113" s="4" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="P113" s="4" t="n">
         <v>59</v>
       </c>
       <c r="Q113" s="4" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R113" s="4" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S113" s="5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T113" s="8" t="inlineStr">
         <is>
@@ -23772,12 +23772,12 @@
       </c>
       <c r="U113" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V113" s="4" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W113" s="4" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
@@ -7270,24 +7270,24 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>3501040001</t>
+          <t>3302010002</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGONES 10ML</t>
+          <t>ABONO CONIFERAS Y SETOS 750GR</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -7297,13 +7297,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>23.9</v>
+        <v>21.9</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>9.789999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>9.09</v>
+        <v>15.38</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>0</v>
@@ -7315,10 +7315,10 @@
         <v>4.6</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="Q10" s="3" t="n">
         <v>59</v>
@@ -7353,24 +7353,24 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>3302010002</t>
+          <t>3501040001</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>ABONO CONIFERAS Y SETOS 750GR</t>
+          <t>INSECTICIDA PULGONES 10ML</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
@@ -7380,13 +7380,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>21.9</v>
+        <v>23.9</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>8.140000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>15.38</v>
+        <v>9.09</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>4.6</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="3" t="n">
         <v>59</v>
@@ -7950,12 +7950,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>3501020003</t>
+          <t>3501110004</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>LU KETAR INSECTICIDA TOTAL PLUS 750ML</t>
+          <t>L.U. ANTITALADRO 750ML</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -7977,13 +7977,13 @@
         <v>2</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>25.98</v>
+        <v>27.9</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>12.35</v>
+        <v>13.94</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>4.55</v>
+        <v>5.56</v>
       </c>
       <c r="L18" s="3" t="n">
         <v>0</v>
@@ -7995,10 +7995,10 @@
         <v>4.6</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q18" s="3" t="n">
         <v>59</v>
@@ -8033,12 +8033,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>3501110004</t>
+          <t>3501020003</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>L.U. ANTITALADRO 750ML</t>
+          <t>LU KETAR INSECTICIDA TOTAL PLUS 750ML</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -8060,13 +8060,13 @@
         <v>2</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>27.9</v>
+        <v>25.98</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>13.94</v>
+        <v>12.35</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>5.56</v>
+        <v>4.55</v>
       </c>
       <c r="L19" s="3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>4.6</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>59</v>
@@ -11232,24 +11232,32 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>3501140003</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA SUELO 600GR</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
+          <t>FERRO PLUS REVERDECIENTE</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>1KG</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -11265,7 +11273,7 @@
         <v>5.35</v>
       </c>
       <c r="K3" s="3" t="n">
-        <v>25</v>
+        <v>3.33</v>
       </c>
       <c r="L3" s="3" t="n">
         <v>0</v>
@@ -11277,10 +11285,10 @@
         <v>2.3</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="P3" s="3" t="n">
-        <v>46</v>
+        <v>5</v>
       </c>
       <c r="Q3" s="3" t="n">
         <v>59</v>
@@ -11315,32 +11323,24 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3501140003</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
-        </is>
-      </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>1KG</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>INSECTICIDA SUELO 600GR</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr"/>
+      <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
@@ -11356,7 +11356,7 @@
         <v>5.35</v>
       </c>
       <c r="K4" s="3" t="n">
-        <v>3.33</v>
+        <v>25</v>
       </c>
       <c r="L4" s="3" t="n">
         <v>0</v>
@@ -11368,10 +11368,10 @@
         <v>2.3</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>29</v>
+        <v>3</v>
       </c>
       <c r="P4" s="3" t="n">
-        <v>5</v>
+        <v>46</v>
       </c>
       <c r="Q4" s="3" t="n">
         <v>59</v>
@@ -12991,24 +12991,16 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>3401040002</t>
+          <t>3402040004</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO LIQUIDO</t>
-        </is>
-      </c>
-      <c r="C24" s="2" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D24" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr"/>
+      <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
           <t>34</t>
@@ -13026,13 +13018,13 @@
         <v>1</v>
       </c>
       <c r="I24" s="3" t="n">
-        <v>7.99</v>
+        <v>7.49</v>
       </c>
       <c r="J24" s="3" t="n">
-        <v>3.11</v>
+        <v>2.7</v>
       </c>
       <c r="K24" s="3" t="n">
-        <v>2.7</v>
+        <v>10</v>
       </c>
       <c r="L24" s="3" t="n">
         <v>0</v>
@@ -13044,10 +13036,10 @@
         <v>2.3</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="P24" s="3" t="n">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="Q24" s="3" t="n">
         <v>59</v>
@@ -13082,16 +13074,24 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>3402040004</t>
+          <t>3401040002</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS VERDES 500 ML</t>
-        </is>
-      </c>
-      <c r="C25" s="2" t="inlineStr"/>
-      <c r="D25" s="2" t="inlineStr"/>
+          <t>FERTILIZANTE GUANO LIQUIDO</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E25" s="3" t="inlineStr">
         <is>
           <t>34</t>
@@ -13109,13 +13109,13 @@
         <v>1</v>
       </c>
       <c r="I25" s="3" t="n">
-        <v>7.49</v>
+        <v>7.99</v>
       </c>
       <c r="J25" s="3" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="K25" s="3" t="n">
         <v>2.7</v>
-      </c>
-      <c r="K25" s="3" t="n">
-        <v>10</v>
       </c>
       <c r="L25" s="3" t="n">
         <v>0</v>
@@ -13127,10 +13127,10 @@
         <v>2.3</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="P25" s="3" t="n">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="Q25" s="3" t="n">
         <v>59</v>
@@ -14407,24 +14407,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>3302120001</t>
+          <t>3401050003</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
+          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>59</v>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
@@ -14490,24 +14490,24 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>3302210009</t>
+          <t>3502010007</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
         </is>
       </c>
       <c r="C3" s="2" t="inlineStr"/>
       <c r="D3" s="2" t="inlineStr"/>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -14535,7 +14535,7 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>59</v>
@@ -14556,7 +14556,7 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
@@ -14573,12 +14573,12 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>3902010001</t>
+          <t>3902070006</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
+          <t>ECOFIN TRAMPA MOSCAS</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
@@ -14618,7 +14618,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>18</v>
+        <v>38</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>59</v>
@@ -14639,7 +14639,7 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
@@ -14656,24 +14656,24 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3602030001</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
+          <t>BIOFLOWER SAL DE COBRE 70511</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
@@ -14701,19 +14701,19 @@
         <v>0</v>
       </c>
       <c r="O5" s="3" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="P5" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q5" s="3" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R5" s="3" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T5" s="7" t="inlineStr">
         <is>
@@ -14722,12 +14722,12 @@
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W5" s="3" t="inlineStr">
@@ -14739,24 +14739,24 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>3901110003</t>
+          <t>3302200003</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>PORTACEBO RATAS</t>
+          <t>ABONO PALMERAS 500ML</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G6" s="3" t="n">
@@ -14784,7 +14784,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>59</v>
@@ -14805,7 +14805,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -14822,32 +14822,24 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>3601050002</t>
+          <t>3302210009</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER ACEITE DE NEEM</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>450ML</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr"/>
+      <c r="D7" s="2" t="inlineStr"/>
       <c r="E7" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F7" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G7" s="3" t="n">
@@ -14875,7 +14867,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>59</v>
@@ -14896,7 +14888,7 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
@@ -14913,24 +14905,24 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>3901040003</t>
+          <t>3601050007</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>LU ANTIHORMIGAS 750ML CAJA</t>
+          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G8" s="3" t="n">
@@ -14958,7 +14950,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>59</v>
@@ -14979,7 +14971,7 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
@@ -14996,12 +14988,12 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>3901050006</t>
+          <t>3901110002</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>TRAMPA SICUR TRAMP 2 UDS</t>
+          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
@@ -15041,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>59</v>
@@ -15062,7 +15054,7 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
@@ -15079,24 +15071,24 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>3403040000</t>
+          <t>3501080003</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
+          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -15124,7 +15116,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>59</v>
@@ -15145,7 +15137,7 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
@@ -15162,32 +15154,24 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>3403010003</t>
+          <t>3904010004</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>ABONO CESPED GRANDES JARDINES</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>7I5KG</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr"/>
+      <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
@@ -15215,7 +15199,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>39</v>
+        <v>2</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>59</v>
@@ -15236,7 +15220,7 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
@@ -15253,12 +15237,12 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>3501110005</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA GERANIOS LU 750 ML</t>
+          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
@@ -15298,19 +15282,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -15319,12 +15303,12 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
@@ -15336,24 +15320,24 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>3602030001</t>
+          <t>3302210022</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER SAL DE COBRE 70511</t>
+          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G13" s="3" t="n">
@@ -15381,19 +15365,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S13" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T13" s="7" t="inlineStr">
         <is>
@@ -15402,12 +15386,12 @@
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
@@ -15419,12 +15403,12 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>3302200018</t>
+          <t>3302200014</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELOS</t>
+          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
@@ -15464,7 +15448,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>59</v>
@@ -15485,7 +15469,7 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
@@ -15502,24 +15486,24 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>3902070008</t>
+          <t>3302210020</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA FRUIT</t>
+          <t>ABONO TREPADORAS ECO 800GR</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
@@ -15547,19 +15531,19 @@
         <v>0</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S15" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T15" s="7" t="inlineStr">
         <is>
@@ -15568,12 +15552,12 @@
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
@@ -15585,24 +15569,24 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>3901090001</t>
+          <t>3302120001</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>COLA PARA RATONES RATIGLUE 135G</t>
+          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
@@ -15651,7 +15635,7 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
@@ -15668,24 +15652,32 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>3501140005</t>
+          <t>3601050002</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr"/>
-      <c r="D17" s="2" t="inlineStr"/>
+          <t>BIOFLOWER ACEITE DE NEEM</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>450ML</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E17" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F17" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G17" s="3" t="n">
@@ -15713,7 +15705,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>42</v>
+        <v>10</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>59</v>
@@ -15734,7 +15726,7 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
@@ -15751,24 +15743,24 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>3502020003</t>
+          <t>3302100001</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
+          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -15796,7 +15788,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>59</v>
@@ -15817,7 +15809,7 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
@@ -15834,24 +15826,24 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>3401040008</t>
+          <t>3901040001</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
+          <t>ANTIHORMIGAS PISTOLA 750ML</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
       <c r="D19" s="2" t="inlineStr"/>
       <c r="E19" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F19" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G19" s="3" t="n">
@@ -15879,7 +15871,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>27</v>
+        <v>82</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>59</v>
@@ -15900,7 +15892,7 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
@@ -15917,24 +15909,24 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>3701010002</t>
+          <t>3904010002</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>ROUNDUP GEL GARDEN</t>
+          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
       <c r="D20" s="2" t="inlineStr"/>
       <c r="E20" s="3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F20" s="3" t="inlineStr">
         <is>
-          <t>HERBICIDAS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G20" s="3" t="n">
@@ -15962,7 +15954,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>59</v>
@@ -15983,7 +15975,7 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
@@ -16000,32 +15992,24 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>3301040001</t>
+          <t>3902070005</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr"/>
+      <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G21" s="3" t="n">
@@ -16053,7 +16037,7 @@
         <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>59</v>
@@ -16074,7 +16058,7 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
@@ -16091,24 +16075,24 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>3501100005</t>
+          <t>3302210004</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
+          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
       <c r="D22" s="2" t="inlineStr"/>
       <c r="E22" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F22" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G22" s="3" t="n">
@@ -16136,7 +16120,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>151</v>
+        <v>16</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>59</v>
@@ -16157,7 +16141,7 @@
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
@@ -16174,32 +16158,24 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>3901030001</t>
+          <t>3601040002</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>COMPO ANTIHORMIGAS</t>
-        </is>
-      </c>
-      <c r="C23" s="2" t="inlineStr">
-        <is>
-          <t>500G</t>
-        </is>
-      </c>
-      <c r="D23" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr"/>
+      <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
@@ -16227,7 +16203,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>98</v>
+        <v>36</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>59</v>
@@ -16248,7 +16224,7 @@
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
@@ -16265,24 +16241,24 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>3302210022</t>
+          <t>3901130002</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
+          <t>FIN INSECTOS CONCENTRADO 25ML</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
@@ -16310,19 +16286,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>12</v>
+        <v>38</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -16331,12 +16307,12 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
@@ -16348,24 +16324,24 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>3904010004</t>
+          <t>3502010001</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
+          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G25" s="3" t="n">
@@ -16393,7 +16369,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>59</v>
@@ -16414,7 +16390,7 @@
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
@@ -16431,12 +16407,12 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>3903020005</t>
+          <t>3902070009</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
+          <t>FERO-TRAMPA OLIVO</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
@@ -16476,7 +16452,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>6</v>
+        <v>24</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>59</v>
@@ -16497,7 +16473,7 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
@@ -16514,24 +16490,24 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>3501040003</t>
+          <t>3301030004</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>ANTIPULGONES LU 750 ML</t>
+          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -16559,7 +16535,7 @@
         <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>59</v>
@@ -16580,7 +16556,7 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
@@ -16597,24 +16573,24 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>3901090003</t>
+          <t>3302070001</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
+          <t>ABONO GERANIOS 750GR</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G28" s="3" t="n">
@@ -16642,7 +16618,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>59</v>
@@ -16663,7 +16639,7 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
@@ -16680,12 +16656,12 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>3902070004</t>
+          <t>3901140002</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
+          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
@@ -16725,7 +16701,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P29" s="3" t="n">
         <v>59</v>
@@ -16746,7 +16722,7 @@
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
@@ -16763,24 +16739,24 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>3901030009</t>
+          <t>3501050002</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>CEBO ANTIHORMIGAS 10GR</t>
+          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
       <c r="D30" s="2" t="inlineStr"/>
       <c r="E30" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F30" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G30" s="3" t="n">
@@ -16808,7 +16784,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>59</v>
@@ -16829,7 +16805,7 @@
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
@@ -16846,24 +16822,24 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>3903020003</t>
+          <t>3302150003</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
+          <t>COMPO BIO CITRICOS 750GR</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
       <c r="D31" s="2" t="inlineStr"/>
       <c r="E31" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F31" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G31" s="3" t="n">
@@ -16891,7 +16867,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>59</v>
@@ -16912,7 +16888,7 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
@@ -16929,24 +16905,32 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>3302210004</t>
+          <t>3403010003</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr"/>
-      <c r="D32" s="2" t="inlineStr"/>
+          <t>ABONO CESPED GRANDES JARDINES</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr">
+        <is>
+          <t>7I5KG</t>
+        </is>
+      </c>
+      <c r="D32" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E32" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F32" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G32" s="3" t="n">
@@ -16974,7 +16958,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>16</v>
+        <v>39</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>59</v>
@@ -16995,7 +16979,7 @@
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
@@ -17012,24 +16996,24 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>3501080003</t>
+          <t>3901040003</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
+          <t>LU ANTIHORMIGAS 750ML CAJA</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
@@ -17057,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>59</v>
@@ -17078,7 +17062,7 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
@@ -17095,24 +17079,24 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>3501100001</t>
+          <t>3302210002</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>ANTIMINADOR 50ML</t>
+          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
@@ -17140,7 +17124,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>59</v>
@@ -17161,7 +17145,7 @@
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
@@ -17178,24 +17162,24 @@
     <row r="35">
       <c r="A35" s="2" t="inlineStr">
         <is>
-          <t>3501050002</t>
+          <t>3901030007</t>
         </is>
       </c>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
+          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
         </is>
       </c>
       <c r="C35" s="2" t="inlineStr"/>
       <c r="D35" s="2" t="inlineStr"/>
       <c r="E35" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F35" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G35" s="3" t="n">
@@ -17223,7 +17207,7 @@
         <v>0</v>
       </c>
       <c r="O35" s="3" t="n">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="P35" s="3" t="n">
         <v>59</v>
@@ -17244,7 +17228,7 @@
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V35" s="3" t="inlineStr">
@@ -17261,12 +17245,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>3902070003</t>
+          <t>3901130003</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
+          <t>INSECTICIDA CARCOMA 200ML</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -17306,7 +17290,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="P36" s="3" t="n">
         <v>59</v>
@@ -17327,7 +17311,7 @@
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
@@ -17344,24 +17328,24 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3301040005</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA</t>
+          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G37" s="3" t="n">
@@ -17389,19 +17373,19 @@
         <v>0</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q37" s="3" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R37" s="3" t="n">
-        <v>25.56</v>
+        <v>65.56</v>
       </c>
       <c r="S37" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T37" s="7" t="inlineStr">
         <is>
@@ -17410,12 +17394,12 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W37" s="3" t="inlineStr">
@@ -17427,12 +17411,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>3502010009</t>
+          <t>3501140001</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>ENFERMEDADES ROSALES 10ML</t>
+          <t>AVIDUST 1KG</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -17472,7 +17456,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>59</v>
@@ -17493,7 +17477,7 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
@@ -17510,12 +17494,12 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>3902070007</t>
+          <t>3901090003</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA CITRICOS</t>
+          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
@@ -17555,7 +17539,7 @@
         <v>0</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>59</v>
@@ -17576,7 +17560,7 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
@@ -17593,24 +17577,32 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>3301030004</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr"/>
-      <c r="D40" s="2" t="inlineStr"/>
+          <t>ABONO CESPED BOLSA</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr">
+        <is>
+          <t>1I5KG</t>
+        </is>
+      </c>
+      <c r="D40" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G40" s="3" t="n">
@@ -17638,19 +17630,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>14</v>
+        <v>50</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T40" s="7" t="inlineStr">
         <is>
@@ -17659,12 +17651,12 @@
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W40" s="3" t="inlineStr">
@@ -17676,24 +17668,24 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>3302200017</t>
+          <t>3902040001</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELO 250ML</t>
+          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C41" s="2" t="inlineStr"/>
       <c r="D41" s="2" t="inlineStr"/>
       <c r="E41" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F41" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G41" s="3" t="n">
@@ -17721,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>59</v>
@@ -17742,7 +17734,7 @@
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
@@ -17759,12 +17751,12 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>3501100011</t>
+          <t>3501140005</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>PACK FRUTALES VITHAL</t>
+          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
@@ -17804,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>1</v>
+        <v>42</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>59</v>
@@ -17825,7 +17817,7 @@
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
@@ -17842,24 +17834,24 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>3902040001</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
+          <t>FERRO PLUS REVERDECIENTE</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G43" s="3" t="n">
@@ -17887,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>59</v>
@@ -17908,7 +17900,7 @@
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr">
@@ -17925,12 +17917,12 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>3502010007</t>
+          <t>3501040003</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
+          <t>ANTIPULGONES LU 750 ML</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
@@ -17970,7 +17962,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>59</v>
@@ -17991,7 +17983,7 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="3" t="inlineStr">
@@ -18008,24 +18000,24 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>3901030007</t>
+          <t>3501100011</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIHORMIGAS CEBO 10GR</t>
+          <t>PACK FRUTALES VITHAL</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
       <c r="D45" s="2" t="inlineStr"/>
       <c r="E45" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F45" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G45" s="3" t="n">
@@ -18053,7 +18045,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>59</v>
@@ -18074,7 +18066,7 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
@@ -18091,32 +18083,24 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>3502010011</t>
+          <t>3901030012</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA PHITOFTORA</t>
-        </is>
-      </c>
-      <c r="C46" s="2" t="inlineStr">
-        <is>
-          <t>45GR</t>
-        </is>
-      </c>
-      <c r="D46" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
+        </is>
+      </c>
+      <c r="C46" s="2" t="inlineStr"/>
+      <c r="D46" s="2" t="inlineStr"/>
       <c r="E46" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F46" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G46" s="3" t="n">
@@ -18144,19 +18128,19 @@
         <v>0</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>80</v>
+        <v>26</v>
       </c>
       <c r="P46" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q46" s="3" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R46" s="3" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S46" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T46" s="7" t="inlineStr">
         <is>
@@ -18165,12 +18149,12 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W46" s="3" t="inlineStr">
@@ -18182,24 +18166,32 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>3501100002</t>
+          <t>3301040001</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr"/>
-      <c r="D47" s="2" t="inlineStr"/>
+          <t>ABONO LIQUIDO UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D47" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G47" s="3" t="n">
@@ -18227,7 +18219,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>59</v>
@@ -18248,7 +18240,7 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
@@ -18265,24 +18257,32 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>3402020002</t>
+          <t>3901030001</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>BIO FORTIGO FLORES 1L</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr"/>
-      <c r="D48" s="2" t="inlineStr"/>
+          <t>COMPO ANTIHORMIGAS</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr">
+        <is>
+          <t>500G</t>
+        </is>
+      </c>
+      <c r="D48" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E48" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F48" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G48" s="3" t="n">
@@ -18310,7 +18310,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>42</v>
+        <v>98</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>59</v>
@@ -18331,7 +18331,7 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
@@ -18348,24 +18348,24 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>3601050004</t>
+          <t>3501100005</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
+          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G49" s="3" t="n">
@@ -18393,7 +18393,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>18</v>
+        <v>151</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>59</v>
@@ -18414,7 +18414,7 @@
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="3" t="inlineStr">
@@ -18431,12 +18431,12 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3402060002</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
+          <t>FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
@@ -18476,7 +18476,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>59</v>
@@ -18497,7 +18497,7 @@
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="3" t="inlineStr">
@@ -18514,12 +18514,12 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>3901130002</t>
+          <t>3901090004</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+          <t>ECOFIN TRAMPA RATONES</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
@@ -18559,7 +18559,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>59</v>
@@ -18580,7 +18580,7 @@
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
@@ -18597,24 +18597,24 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>3302180002</t>
+          <t>3601050004</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE TOMATES 500ML</t>
+          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr"/>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G52" s="3" t="n">
@@ -18642,7 +18642,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>59</v>
@@ -18663,7 +18663,7 @@
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr">
@@ -18680,24 +18680,24 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>3501040002</t>
+          <t>3902070007</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGON 750ML</t>
+          <t>FERO-TRAMPA CITRICOS</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr"/>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G53" s="3" t="n">
@@ -18725,7 +18725,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>18</v>
+        <v>34</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>59</v>
@@ -18746,7 +18746,7 @@
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="3" t="inlineStr">
@@ -18763,24 +18763,32 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>3904010002</t>
+          <t>3403030001</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr"/>
-      <c r="D54" s="2" t="inlineStr"/>
+          <t>ABONO CESPED LARGA DURACION</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr">
+        <is>
+          <t>3KG</t>
+        </is>
+      </c>
+      <c r="D54" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G54" s="3" t="n">
@@ -18808,7 +18816,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>59</v>
@@ -18829,7 +18837,7 @@
       </c>
       <c r="U54" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="3" t="inlineStr">
@@ -18846,24 +18854,24 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>3903010001</t>
+          <t>3502010014</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
+          <t>REVUS ANTIMILDIU 20ML</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G55" s="3" t="n">
@@ -18891,7 +18899,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="P55" s="3" t="n">
         <v>59</v>
@@ -18912,7 +18920,7 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
@@ -18929,24 +18937,24 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>3901080002</t>
+          <t>3302140001</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
+          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G56" s="3" t="n">
@@ -18974,7 +18982,7 @@
         <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>30</v>
+        <v>48</v>
       </c>
       <c r="P56" s="3" t="n">
         <v>59</v>
@@ -18995,7 +19003,7 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
@@ -19012,24 +19020,24 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>3502010001</t>
+          <t>3901030010</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
+          <t>ECOFIN CINTA ARBORICOLA</t>
         </is>
       </c>
       <c r="C57" s="2" t="inlineStr"/>
       <c r="D57" s="2" t="inlineStr"/>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G57" s="3" t="n">
@@ -19057,7 +19065,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="P57" s="3" t="n">
         <v>59</v>
@@ -19078,7 +19086,7 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
@@ -19095,24 +19103,24 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>3302170005</t>
+          <t>3401040008</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>VARITAS HUERTO FRUTALES</t>
+          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G58" s="3" t="n">
@@ -19140,7 +19148,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>59</v>
@@ -19161,7 +19169,7 @@
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr">
@@ -19178,24 +19186,24 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>3302150003</t>
+          <t>3403010005</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>COMPO BIO CITRICOS 750GR</t>
+          <t>ABONO GRAMA 2KG</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr"/>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G59" s="3" t="n">
@@ -19223,19 +19231,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="P59" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R59" s="3" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S59" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T59" s="7" t="inlineStr">
         <is>
@@ -19244,12 +19252,12 @@
       </c>
       <c r="U59" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W59" s="3" t="inlineStr">
@@ -19261,12 +19269,12 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>3901090004</t>
+          <t>3901130001</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA RATONES</t>
+          <t>FIN CHINCHES Y PULGAS 150ML</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
@@ -19306,7 +19314,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="P60" s="3" t="n">
         <v>59</v>
@@ -19327,7 +19335,7 @@
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr">
@@ -19344,32 +19352,24 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>3602030003</t>
+          <t>3302070002</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA BIOLOGICO</t>
-        </is>
-      </c>
-      <c r="C61" s="2" t="inlineStr">
-        <is>
-          <t>50G</t>
-        </is>
-      </c>
-      <c r="D61" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ABONO GERANIOS SOLUBLE 800GR</t>
+        </is>
+      </c>
+      <c r="C61" s="2" t="inlineStr"/>
+      <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G61" s="3" t="n">
@@ -19397,19 +19397,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P61" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q61" s="3" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R61" s="3" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S61" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T61" s="7" t="inlineStr">
         <is>
@@ -19418,12 +19418,12 @@
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W61" s="3" t="inlineStr">
@@ -19435,24 +19435,24 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>3302210001</t>
+          <t>3501100015</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
+          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr"/>
       <c r="D62" s="2" t="inlineStr"/>
       <c r="E62" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F62" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G62" s="3" t="n">
@@ -19480,19 +19480,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P62" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R62" s="3" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S62" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T62" s="7" t="inlineStr">
         <is>
@@ -19501,12 +19501,12 @@
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W62" s="3" t="inlineStr">
@@ -19518,24 +19518,24 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>3402050003</t>
+          <t>3302200018</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>COMPO ABRILLANTADOR 600ML</t>
+          <t>REGENERADOR SUELOS</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G63" s="3" t="n">
@@ -19563,7 +19563,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P63" s="3" t="n">
         <v>59</v>
@@ -19584,7 +19584,7 @@
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr">
@@ -19601,12 +19601,12 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>3301040005</t>
+          <t>3302210003</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
+          <t>CANABIUM REGULADOR PH 500ML 10893</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr"/>
@@ -19646,7 +19646,7 @@
         <v>0</v>
       </c>
       <c r="O64" s="3" t="n">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="P64" s="3" t="n">
         <v>59</v>
@@ -19667,7 +19667,7 @@
       </c>
       <c r="U64" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="3" t="inlineStr">
@@ -19684,24 +19684,24 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>3302140001</t>
+          <t>3502020002</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
+          <t>FUNGICIDA ROSALES 750ML</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr"/>
       <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G65" s="3" t="n">
@@ -19729,7 +19729,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="P65" s="3" t="n">
         <v>59</v>
@@ -19750,7 +19750,7 @@
       </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="3" t="inlineStr">
@@ -19767,12 +19767,12 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>3502010005</t>
+          <t>3501100001</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>AZUFRE 450 GRS.</t>
+          <t>ANTIMINADOR 50ML</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr"/>
@@ -19812,7 +19812,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="P66" s="3" t="n">
         <v>59</v>
@@ -19833,7 +19833,7 @@
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="3" t="inlineStr">
@@ -19850,24 +19850,24 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>3901040002</t>
+          <t>3502010009</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
+          <t>ENFERMEDADES ROSALES 10ML</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr"/>
       <c r="D67" s="2" t="inlineStr"/>
       <c r="E67" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F67" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G67" s="3" t="n">
@@ -19895,7 +19895,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="P67" s="3" t="n">
         <v>59</v>
@@ -19916,7 +19916,7 @@
       </c>
       <c r="U67" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="3" t="inlineStr">
@@ -19933,24 +19933,24 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>3501140001</t>
+          <t>3701010002</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>AVIDUST 1KG</t>
+          <t>ROUNDUP GEL GARDEN</t>
         </is>
       </c>
       <c r="C68" s="2" t="inlineStr"/>
       <c r="D68" s="2" t="inlineStr"/>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>HERBICIDAS</t>
         </is>
       </c>
       <c r="G68" s="3" t="n">
@@ -19978,7 +19978,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P68" s="3" t="n">
         <v>59</v>
@@ -19999,7 +19999,7 @@
       </c>
       <c r="U68" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="3" t="inlineStr">
@@ -20016,24 +20016,24 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>3902040002</t>
+          <t>3302180002</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
+          <t>FERTILIZANTE TOMATES 500ML</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr"/>
       <c r="D69" s="2" t="inlineStr"/>
       <c r="E69" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F69" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G69" s="3" t="n">
@@ -20061,7 +20061,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P69" s="3" t="n">
         <v>59</v>
@@ -20082,7 +20082,7 @@
       </c>
       <c r="U69" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="3" t="inlineStr">
@@ -20099,12 +20099,12 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>3502020002</t>
+          <t>3501100013</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>FUNGICIDA ROSALES 750ML</t>
+          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr"/>
@@ -20144,7 +20144,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="P70" s="3" t="n">
         <v>59</v>
@@ -20165,7 +20165,7 @@
       </c>
       <c r="U70" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="3" t="inlineStr">
@@ -20182,32 +20182,24 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>3901030011</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>KB NEXA HORMIGAS GRANULADO</t>
-        </is>
-      </c>
-      <c r="C71" s="2" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D71" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ABONO CESPED BOLSA</t>
+        </is>
+      </c>
+      <c r="C71" s="2" t="inlineStr"/>
+      <c r="D71" s="2" t="inlineStr"/>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G71" s="3" t="n">
@@ -20235,7 +20227,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="P71" s="3" t="n">
         <v>59</v>
@@ -20256,7 +20248,7 @@
       </c>
       <c r="U71" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="3" t="inlineStr">
@@ -20273,24 +20265,24 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>3302210002</t>
+          <t>3501100021</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
+          <t>YNJECT GO PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr"/>
       <c r="D72" s="2" t="inlineStr"/>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G72" s="3" t="n">
@@ -20318,19 +20310,19 @@
         <v>0</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="P72" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R72" s="3" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S72" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T72" s="7" t="inlineStr">
         <is>
@@ -20339,12 +20331,12 @@
       </c>
       <c r="U72" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W72" s="3" t="inlineStr">
@@ -20356,32 +20348,24 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3902060002</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
-        </is>
-      </c>
-      <c r="C73" s="2" t="inlineStr">
-        <is>
-          <t>1I5KG</t>
-        </is>
-      </c>
-      <c r="D73" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
+        </is>
+      </c>
+      <c r="C73" s="2" t="inlineStr"/>
+      <c r="D73" s="2" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G73" s="3" t="n">
@@ -20409,19 +20393,19 @@
         <v>0</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>50</v>
+        <v>8</v>
       </c>
       <c r="P73" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q73" s="3" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R73" s="3" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S73" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T73" s="7" t="inlineStr">
         <is>
@@ -20430,12 +20414,12 @@
       </c>
       <c r="U73" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W73" s="3" t="inlineStr">
@@ -20447,24 +20431,24 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>3402060002</t>
+          <t>3901040002</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE BONSAIS 500ML</t>
+          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr"/>
       <c r="D74" s="2" t="inlineStr"/>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G74" s="3" t="n">
@@ -20492,7 +20476,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="P74" s="3" t="n">
         <v>59</v>
@@ -20513,7 +20497,7 @@
       </c>
       <c r="U74" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="3" t="inlineStr">
@@ -20530,24 +20514,24 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>3601050001</t>
+          <t>3901090001</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>BIO INSECTICIDA STOP 750ML</t>
+          <t>COLA PARA RATONES RATIGLUE 135G</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr"/>
       <c r="D75" s="2" t="inlineStr"/>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G75" s="3" t="n">
@@ -20575,19 +20559,19 @@
         <v>0</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P75" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q75" s="3" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R75" s="3" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S75" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T75" s="7" t="inlineStr">
         <is>
@@ -20596,12 +20580,12 @@
       </c>
       <c r="U75" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W75" s="3" t="inlineStr">
@@ -20613,24 +20597,32 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>3901030010</t>
+          <t>3602030003</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ARBORICOLA</t>
-        </is>
-      </c>
-      <c r="C76" s="2" t="inlineStr"/>
-      <c r="D76" s="2" t="inlineStr"/>
+          <t>COMPO FUNGICIDA BIOLOGICO</t>
+        </is>
+      </c>
+      <c r="C76" s="2" t="inlineStr">
+        <is>
+          <t>50G</t>
+        </is>
+      </c>
+      <c r="D76" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G76" s="3" t="n">
@@ -20658,19 +20650,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="P76" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q76" s="3" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R76" s="3" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S76" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T76" s="7" t="inlineStr">
         <is>
@@ -20679,12 +20671,12 @@
       </c>
       <c r="U76" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W76" s="3" t="inlineStr">
@@ -20696,32 +20688,24 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>3301030001</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
-        </is>
-      </c>
-      <c r="C77" s="2" t="inlineStr">
-        <is>
-          <t>2,5Kg</t>
-        </is>
-      </c>
-      <c r="D77" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>YNJECT CONECTOR PALMERA</t>
+        </is>
+      </c>
+      <c r="C77" s="2" t="inlineStr"/>
+      <c r="D77" s="2" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G77" s="3" t="n">
@@ -20749,19 +20733,19 @@
         <v>0</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>122</v>
+        <v>30</v>
       </c>
       <c r="P77" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q77" s="3" t="n">
-        <v>59</v>
+        <v>23</v>
       </c>
       <c r="R77" s="3" t="n">
-        <v>65.56</v>
+        <v>25.56</v>
       </c>
       <c r="S77" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T77" s="7" t="inlineStr">
         <is>
@@ -20770,12 +20754,12 @@
       </c>
       <c r="U77" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W77" s="3" t="inlineStr">
@@ -20787,24 +20771,24 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>3501100022</t>
+          <t>3903020003</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>YNJECT GO PALMERAS (NO VENTA)</t>
+          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr"/>
       <c r="D78" s="2" t="inlineStr"/>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G78" s="3" t="n">
@@ -20832,19 +20816,19 @@
         <v>0</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>50</v>
+        <v>2</v>
       </c>
       <c r="P78" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q78" s="3" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R78" s="3" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S78" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T78" s="7" t="inlineStr">
         <is>
@@ -20853,12 +20837,12 @@
       </c>
       <c r="U78" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="3" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W78" s="3" t="inlineStr">
@@ -20870,12 +20854,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>3901130003</t>
+          <t>3902070008</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA CARCOMA 200ML</t>
+          <t>FERO-TRAMPA FRUIT</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
@@ -20915,7 +20899,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P79" s="3" t="n">
         <v>59</v>
@@ -20936,7 +20920,7 @@
       </c>
       <c r="U79" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="3" t="inlineStr">
@@ -20953,24 +20937,24 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>3501100013</t>
+          <t>3402050003</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
+          <t>COMPO ABRILLANTADOR 600ML</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr"/>
       <c r="D80" s="2" t="inlineStr"/>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G80" s="3" t="n">
@@ -20998,7 +20982,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P80" s="3" t="n">
         <v>59</v>
@@ -21019,7 +21003,7 @@
       </c>
       <c r="U80" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="3" t="inlineStr">
@@ -21036,12 +21020,12 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>3902070009</t>
+          <t>3902070004</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA OLIVO</t>
+          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr"/>
@@ -21081,7 +21065,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="P81" s="3" t="n">
         <v>59</v>
@@ -21102,7 +21086,7 @@
       </c>
       <c r="U81" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="3" t="inlineStr">
@@ -21119,24 +21103,24 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>3403010005</t>
+          <t>3901030009</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>ABONO GRAMA 2KG</t>
+          <t>CEBO ANTIHORMIGAS 10GR</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr"/>
       <c r="D82" s="2" t="inlineStr"/>
       <c r="E82" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F82" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G82" s="3" t="n">
@@ -21164,19 +21148,19 @@
         <v>0</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>12</v>
+        <v>49</v>
       </c>
       <c r="P82" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q82" s="3" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R82" s="3" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S82" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T82" s="7" t="inlineStr">
         <is>
@@ -21185,12 +21169,12 @@
       </c>
       <c r="U82" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W82" s="3" t="inlineStr">
@@ -21202,24 +21186,32 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>3601040001</t>
+          <t>3901030011</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr"/>
-      <c r="D83" s="2" t="inlineStr"/>
+          <t>KB NEXA HORMIGAS GRANULADO</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D83" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G83" s="3" t="n">
@@ -21247,7 +21239,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="P83" s="3" t="n">
         <v>59</v>
@@ -21268,7 +21260,7 @@
       </c>
       <c r="U83" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="3" t="inlineStr">
@@ -21285,12 +21277,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>3901130001</t>
+          <t>3901050006</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>FIN CHINCHES Y PULGAS 150ML</t>
+          <t>TRAMPA SICUR TRAMP 2 UDS</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr"/>
@@ -21330,7 +21322,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="P84" s="3" t="n">
         <v>59</v>
@@ -21351,7 +21343,7 @@
       </c>
       <c r="U84" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="3" t="inlineStr">
@@ -21368,24 +21360,32 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>3502010014</t>
+          <t>3301030001</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>REVUS ANTIMILDIU 20ML</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr"/>
-      <c r="D85" s="2" t="inlineStr"/>
+          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr">
+        <is>
+          <t>2,5Kg</t>
+        </is>
+      </c>
+      <c r="D85" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G85" s="3" t="n">
@@ -21413,7 +21413,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="P85" s="3" t="n">
         <v>59</v>
@@ -21434,7 +21434,7 @@
       </c>
       <c r="U85" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="3" t="inlineStr">
@@ -21451,24 +21451,24 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>3901110002</t>
+          <t>3501100002</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
+          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr"/>
       <c r="D86" s="2" t="inlineStr"/>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G86" s="3" t="n">
@@ -21496,7 +21496,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="P86" s="3" t="n">
         <v>59</v>
@@ -21517,7 +21517,7 @@
       </c>
       <c r="U86" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="3" t="inlineStr">
@@ -21534,24 +21534,24 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>3901050001</t>
+          <t>3402060004</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
+          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C87" s="2" t="inlineStr"/>
       <c r="D87" s="2" t="inlineStr"/>
       <c r="E87" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F87" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G87" s="3" t="n">
@@ -21579,19 +21579,19 @@
         <v>0</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P87" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q87" s="3" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R87" s="3" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S87" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T87" s="7" t="inlineStr">
         <is>
@@ -21600,12 +21600,12 @@
       </c>
       <c r="U87" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W87" s="3" t="inlineStr">
@@ -21617,24 +21617,24 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>3601040002</t>
+          <t>3501040002</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
+          <t>INSECTICIDA PULGON 750ML</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr"/>
       <c r="D88" s="2" t="inlineStr"/>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G88" s="3" t="n">
@@ -21662,7 +21662,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>36</v>
+        <v>18</v>
       </c>
       <c r="P88" s="3" t="n">
         <v>59</v>
@@ -21683,7 +21683,7 @@
       </c>
       <c r="U88" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="3" t="inlineStr">
@@ -21700,12 +21700,12 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>3901040001</t>
+          <t>3901030002</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS PISTOLA 750ML</t>
+          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr"/>
@@ -21745,7 +21745,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="3" t="n">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="P89" s="3" t="n">
         <v>59</v>
@@ -21766,7 +21766,7 @@
       </c>
       <c r="U89" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="3" t="inlineStr">
@@ -21783,24 +21783,24 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>3501100021</t>
+          <t>3902010001</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>YNJECT GO PINO (NO VENTA)</t>
+          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr"/>
       <c r="D90" s="2" t="inlineStr"/>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G90" s="3" t="n">
@@ -21828,19 +21828,19 @@
         <v>0</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="P90" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q90" s="3" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R90" s="3" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S90" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T90" s="7" t="inlineStr">
         <is>
@@ -21849,12 +21849,12 @@
       </c>
       <c r="U90" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="3" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W90" s="3" t="inlineStr">
@@ -21866,24 +21866,24 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>3301030003</t>
+          <t>3502010005</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>ABONO ROZE 1KG</t>
+          <t>AZUFRE 450 GRS.</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr"/>
       <c r="D91" s="2" t="inlineStr"/>
       <c r="E91" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F91" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G91" s="3" t="n">
@@ -21911,7 +21911,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="3" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="P91" s="3" t="n">
         <v>59</v>
@@ -21932,7 +21932,7 @@
       </c>
       <c r="U91" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="3" t="inlineStr">
@@ -21949,12 +21949,12 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>3302100001</t>
+          <t>3301030003</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
+          <t>ABONO ROZE 1KG</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr"/>
@@ -21994,7 +21994,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="3" t="n">
-        <v>45</v>
+        <v>10</v>
       </c>
       <c r="P92" s="3" t="n">
         <v>59</v>
@@ -22015,7 +22015,7 @@
       </c>
       <c r="U92" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="3" t="inlineStr">
@@ -22032,24 +22032,24 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>3302200003</t>
+          <t>3501110005</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>ABONO PALMERAS 500ML</t>
+          <t>INSECTICIDA GERANIOS LU 750 ML</t>
         </is>
       </c>
       <c r="C93" s="2" t="inlineStr"/>
       <c r="D93" s="2" t="inlineStr"/>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G93" s="3" t="n">
@@ -22077,7 +22077,7 @@
         <v>0</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="P93" s="3" t="n">
         <v>59</v>
@@ -22098,7 +22098,7 @@
       </c>
       <c r="U93" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="3" t="inlineStr">
@@ -22115,12 +22115,12 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3302200017</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
+          <t>REGENERADOR SUELO 250ML</t>
         </is>
       </c>
       <c r="C94" s="2" t="inlineStr"/>
@@ -22160,7 +22160,7 @@
         <v>0</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="P94" s="3" t="n">
         <v>59</v>
@@ -22181,7 +22181,7 @@
       </c>
       <c r="U94" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="3" t="inlineStr">
@@ -22198,24 +22198,24 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>3302210020</t>
+          <t>3402020002</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>ABONO TREPADORAS ECO 800GR</t>
+          <t>BIO FORTIGO FLORES 1L</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr"/>
       <c r="D95" s="2" t="inlineStr"/>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G95" s="3" t="n">
@@ -22243,19 +22243,19 @@
         <v>0</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>12</v>
+        <v>42</v>
       </c>
       <c r="P95" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q95" s="3" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R95" s="3" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S95" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T95" s="7" t="inlineStr">
         <is>
@@ -22264,12 +22264,12 @@
       </c>
       <c r="U95" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W95" s="3" t="inlineStr">
@@ -22281,24 +22281,24 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>3401050003</t>
+          <t>3502020003</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
+          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr"/>
       <c r="D96" s="2" t="inlineStr"/>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G96" s="3" t="n">
@@ -22326,7 +22326,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="P96" s="3" t="n">
         <v>59</v>
@@ -22347,7 +22347,7 @@
       </c>
       <c r="U96" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="3" t="inlineStr">
@@ -22364,24 +22364,24 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>3901140002</t>
+          <t>3302210001</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
+          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr"/>
       <c r="D97" s="2" t="inlineStr"/>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G97" s="3" t="n">
@@ -22409,7 +22409,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P97" s="3" t="n">
         <v>59</v>
@@ -22430,7 +22430,7 @@
       </c>
       <c r="U97" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V97" s="3" t="inlineStr">
@@ -22447,16 +22447,24 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>3501100015</t>
+          <t>3502010011</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr"/>
-      <c r="D98" s="2" t="inlineStr"/>
+          <t>COMPO FUNGICIDA PHITOFTORA</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr">
+        <is>
+          <t>45GR</t>
+        </is>
+      </c>
+      <c r="D98" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E98" s="3" t="inlineStr">
         <is>
           <t>35</t>
@@ -22492,16 +22500,16 @@
         <v>0</v>
       </c>
       <c r="O98" s="3" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P98" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q98" s="3" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="R98" s="3" t="n">
-        <v>2.22</v>
+        <v>24.44</v>
       </c>
       <c r="S98" s="4" t="n">
         <v>0</v>
@@ -22518,7 +22526,7 @@
       </c>
       <c r="V98" s="3" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W98" s="3" t="inlineStr">
@@ -22530,24 +22538,24 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>3302200014</t>
+          <t>3903020005</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
+          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr"/>
       <c r="D99" s="2" t="inlineStr"/>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G99" s="3" t="n">
@@ -22575,7 +22583,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="3" t="n">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="P99" s="3" t="n">
         <v>59</v>
@@ -22596,7 +22604,7 @@
       </c>
       <c r="U99" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V99" s="3" t="inlineStr">
@@ -22613,32 +22621,24 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>3403030001</t>
+          <t>3903010001</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>ABONO CESPED LARGA DURACION</t>
-        </is>
-      </c>
-      <c r="C100" s="2" t="inlineStr">
-        <is>
-          <t>3KG</t>
-        </is>
-      </c>
-      <c r="D100" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
+        </is>
+      </c>
+      <c r="C100" s="2" t="inlineStr"/>
+      <c r="D100" s="2" t="inlineStr"/>
       <c r="E100" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F100" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G100" s="3" t="n">
@@ -22666,7 +22666,7 @@
         <v>0</v>
       </c>
       <c r="O100" s="3" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="P100" s="3" t="n">
         <v>59</v>
@@ -22687,7 +22687,7 @@
       </c>
       <c r="U100" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V100" s="3" t="inlineStr">
@@ -22704,24 +22704,24 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>3302070002</t>
+          <t>3401040003</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS SOLUBLE 800GR</t>
+          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr"/>
       <c r="D101" s="2" t="inlineStr"/>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G101" s="3" t="n">
@@ -22770,7 +22770,7 @@
       </c>
       <c r="U101" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V101" s="3" t="inlineStr">
@@ -22787,12 +22787,12 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>3902070005</t>
+          <t>3902070003</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
+          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr"/>
@@ -22832,7 +22832,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="P102" s="3" t="n">
         <v>59</v>
@@ -22853,7 +22853,7 @@
       </c>
       <c r="U102" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V102" s="3" t="inlineStr">
@@ -22953,24 +22953,24 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>3601050007</t>
+          <t>3902040002</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
+          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr"/>
       <c r="D104" s="2" t="inlineStr"/>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G104" s="3" t="n">
@@ -22998,7 +22998,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P104" s="3" t="n">
         <v>59</v>
@@ -23019,7 +23019,7 @@
       </c>
       <c r="U104" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V104" s="3" t="inlineStr">
@@ -23036,24 +23036,24 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>3401040003</t>
+          <t>3901110003</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
+          <t>PORTACEBO RATAS</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr"/>
       <c r="D105" s="2" t="inlineStr"/>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G105" s="3" t="n">
@@ -23081,7 +23081,7 @@
         <v>0</v>
       </c>
       <c r="O105" s="3" t="n">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="P105" s="3" t="n">
         <v>59</v>
@@ -23102,7 +23102,7 @@
       </c>
       <c r="U105" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V105" s="3" t="inlineStr">
@@ -23119,24 +23119,24 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>3402060004</t>
+          <t>3501100022</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
+          <t>YNJECT GO PALMERAS (NO VENTA)</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr"/>
       <c r="D106" s="2" t="inlineStr"/>
       <c r="E106" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F106" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G106" s="3" t="n">
@@ -23164,16 +23164,16 @@
         <v>0</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="P106" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q106" s="3" t="n">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="R106" s="3" t="n">
-        <v>24.44</v>
+        <v>2.22</v>
       </c>
       <c r="S106" s="4" t="n">
         <v>0</v>
@@ -23190,7 +23190,7 @@
       </c>
       <c r="V106" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W106" s="3" t="inlineStr">
@@ -23202,24 +23202,24 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>3302210003</t>
+          <t>3601050001</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML 10893</t>
+          <t>BIO INSECTICIDA STOP 750ML</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr"/>
       <c r="D107" s="2" t="inlineStr"/>
       <c r="E107" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F107" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G107" s="3" t="n">
@@ -23253,13 +23253,13 @@
         <v>59</v>
       </c>
       <c r="Q107" s="3" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R107" s="3" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S107" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T107" s="7" t="inlineStr">
         <is>
@@ -23268,12 +23268,12 @@
       </c>
       <c r="U107" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V107" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W107" s="3" t="inlineStr">
@@ -23285,24 +23285,24 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>3902070006</t>
+          <t>3403040000</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA MOSCAS</t>
+          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr"/>
       <c r="D108" s="2" t="inlineStr"/>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G108" s="3" t="n">
@@ -23330,7 +23330,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="P108" s="3" t="n">
         <v>59</v>
@@ -23351,7 +23351,7 @@
       </c>
       <c r="U108" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V108" s="3" t="inlineStr">
@@ -23368,24 +23368,24 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>3901030002</t>
+          <t>3302170005</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
+          <t>VARITAS HUERTO FRUTALES</t>
         </is>
       </c>
       <c r="C109" s="2" t="inlineStr"/>
       <c r="D109" s="2" t="inlineStr"/>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G109" s="3" t="n">
@@ -23413,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="3" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="P109" s="3" t="n">
         <v>59</v>
@@ -23434,7 +23434,7 @@
       </c>
       <c r="U109" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V109" s="3" t="inlineStr">
@@ -23451,12 +23451,12 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>3302070001</t>
+          <t>3302200008</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS 750GR</t>
+          <t>AZULADOR DE HORTENSIAS 800GR</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr"/>
@@ -23496,7 +23496,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="3" t="n">
-        <v>72</v>
+        <v>16</v>
       </c>
       <c r="P110" s="3" t="n">
         <v>59</v>
@@ -23517,7 +23517,7 @@
       </c>
       <c r="U110" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V110" s="3" t="inlineStr">
@@ -23534,24 +23534,24 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>3902060002</t>
+          <t>3601040001</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
+          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr"/>
       <c r="D111" s="2" t="inlineStr"/>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G111" s="3" t="n">
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="P111" s="3" t="n">
         <v>59</v>
@@ -23600,7 +23600,7 @@
       </c>
       <c r="U111" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V111" s="3" t="inlineStr">
@@ -23617,12 +23617,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>3901030012</t>
+          <t>3901050001</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
+          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr"/>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="P112" s="3" t="n">
         <v>59</v>
@@ -23683,7 +23683,7 @@
       </c>
       <c r="U112" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V112" s="3" t="inlineStr">
@@ -23700,24 +23700,24 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>3302200008</t>
+          <t>3901080002</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>AZULADOR DE HORTENSIAS 800GR</t>
+          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr"/>
       <c r="D113" s="2" t="inlineStr"/>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G113" s="3" t="n">
@@ -23745,7 +23745,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="3" t="n">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="P113" s="3" t="n">
         <v>59</v>
@@ -23766,7 +23766,7 @@
       </c>
       <c r="U113" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V113" s="3" t="inlineStr">

--- a/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
+++ b/data/input/CLASIFICACION_ABC+D_FITOS_P1_2025.xlsx
@@ -7270,24 +7270,24 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>3302010002</t>
+          <t>3501040001</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>ABONO CONIFERAS Y SETOS 750GR</t>
+          <t>INSECTICIDA PULGONES 10ML</t>
         </is>
       </c>
       <c r="C10" s="2" t="inlineStr"/>
       <c r="D10" s="2" t="inlineStr"/>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -7297,13 +7297,13 @@
         <v>2</v>
       </c>
       <c r="I10" s="3" t="n">
-        <v>21.9</v>
+        <v>23.9</v>
       </c>
       <c r="J10" s="3" t="n">
-        <v>8.140000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="K10" s="3" t="n">
-        <v>15.38</v>
+        <v>9.09</v>
       </c>
       <c r="L10" s="3" t="n">
         <v>0</v>
@@ -7315,10 +7315,10 @@
         <v>4.6</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="P10" s="3" t="n">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="Q10" s="3" t="n">
         <v>59</v>
@@ -7353,24 +7353,24 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>3501040001</t>
+          <t>3302010002</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGONES 10ML</t>
+          <t>ABONO CONIFERAS Y SETOS 750GR</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
@@ -7380,13 +7380,13 @@
         <v>2</v>
       </c>
       <c r="I11" s="3" t="n">
-        <v>23.9</v>
+        <v>21.9</v>
       </c>
       <c r="J11" s="3" t="n">
-        <v>9.789999999999999</v>
+        <v>8.140000000000001</v>
       </c>
       <c r="K11" s="3" t="n">
-        <v>9.09</v>
+        <v>15.38</v>
       </c>
       <c r="L11" s="3" t="n">
         <v>0</v>
@@ -7398,10 +7398,10 @@
         <v>4.6</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="P11" s="3" t="n">
-        <v>36</v>
+        <v>4</v>
       </c>
       <c r="Q11" s="3" t="n">
         <v>59</v>
@@ -7950,12 +7950,12 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>3501110004</t>
+          <t>3501020003</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>L.U. ANTITALADRO 750ML</t>
+          <t>LU KETAR INSECTICIDA TOTAL PLUS 750ML</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
@@ -7977,13 +7977,13 @@
         <v>2</v>
       </c>
       <c r="I18" s="3" t="n">
-        <v>27.9</v>
+        <v>25.98</v>
       </c>
       <c r="J18" s="3" t="n">
-        <v>13.94</v>
+        <v>12.35</v>
       </c>
       <c r="K18" s="3" t="n">
-        <v>5.56</v>
+        <v>4.55</v>
       </c>
       <c r="L18" s="3" t="n">
         <v>0</v>
@@ -7995,10 +7995,10 @@
         <v>4.6</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="P18" s="3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="Q18" s="3" t="n">
         <v>59</v>
@@ -8033,12 +8033,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>3501020003</t>
+          <t>3501110004</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>LU KETAR INSECTICIDA TOTAL PLUS 750ML</t>
+          <t>L.U. ANTITALADRO 750ML</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -8060,13 +8060,13 @@
         <v>2</v>
       </c>
       <c r="I19" s="3" t="n">
-        <v>25.98</v>
+        <v>27.9</v>
       </c>
       <c r="J19" s="3" t="n">
-        <v>12.35</v>
+        <v>13.94</v>
       </c>
       <c r="K19" s="3" t="n">
-        <v>4.55</v>
+        <v>5.56</v>
       </c>
       <c r="L19" s="3" t="n">
         <v>0</v>
@@ -8078,10 +8078,10 @@
         <v>4.6</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="P19" s="3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q19" s="3" t="n">
         <v>59</v>
@@ -13248,24 +13248,24 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>3901140003</t>
+          <t>3301040004</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>LU INSECTICIDA ENTORNO ANIMALES 500ML</t>
+          <t>VITHAL ABONO FOLIAR UNIVERSAL 750ML</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -13281,7 +13281,7 @@
         <v>3.29</v>
       </c>
       <c r="K27" s="3" t="n">
-        <v>4.55</v>
+        <v>4.17</v>
       </c>
       <c r="L27" s="3" t="n">
         <v>0</v>
@@ -13293,10 +13293,10 @@
         <v>2.3</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="P27" s="3" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="Q27" s="3" t="n">
         <v>59</v>
@@ -13331,24 +13331,24 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>3301040004</t>
+          <t>3901140003</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>VITHAL ABONO FOLIAR UNIVERSAL 750ML</t>
+          <t>LU INSECTICIDA ENTORNO ANIMALES 500ML</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
       <c r="D28" s="2" t="inlineStr"/>
       <c r="E28" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F28" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G28" s="3" t="n">
@@ -13364,7 +13364,7 @@
         <v>3.29</v>
       </c>
       <c r="K28" s="3" t="n">
-        <v>4.17</v>
+        <v>4.55</v>
       </c>
       <c r="L28" s="3" t="n">
         <v>0</v>
@@ -13376,10 +13376,10 @@
         <v>2.3</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="P28" s="3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="Q28" s="3" t="n">
         <v>59</v>
@@ -14407,24 +14407,24 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>3401050003</t>
+          <t>3903020005</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
         <is>
-          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
+          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
         </is>
       </c>
       <c r="C2" s="2" t="inlineStr"/>
       <c r="D2" s="2" t="inlineStr"/>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G2" s="3" t="n">
@@ -14452,7 +14452,7 @@
         <v>0</v>
       </c>
       <c r="O2" s="3" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="P2" s="3" t="n">
         <v>59</v>
@@ -14473,7 +14473,7 @@
       </c>
       <c r="U2" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V2" s="3" t="inlineStr">
@@ -14490,24 +14490,32 @@
     <row r="3">
       <c r="A3" s="2" t="inlineStr">
         <is>
-          <t>3502010007</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B3" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
-        </is>
-      </c>
-      <c r="C3" s="2" t="inlineStr"/>
-      <c r="D3" s="2" t="inlineStr"/>
+          <t>ABONO CESPED BOLSA</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="inlineStr">
+        <is>
+          <t>1I5KG</t>
+        </is>
+      </c>
+      <c r="D3" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E3" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F3" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G3" s="3" t="n">
@@ -14535,19 +14543,19 @@
         <v>0</v>
       </c>
       <c r="O3" s="3" t="n">
-        <v>28</v>
+        <v>50</v>
       </c>
       <c r="P3" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q3" s="3" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R3" s="3" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T3" s="7" t="inlineStr">
         <is>
@@ -14556,12 +14564,12 @@
       </c>
       <c r="U3" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V3" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W3" s="3" t="inlineStr">
@@ -14573,24 +14581,24 @@
     <row r="4">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>3902070006</t>
+          <t>3701010002</t>
         </is>
       </c>
       <c r="B4" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA MOSCAS</t>
+          <t>ROUNDUP GEL GARDEN</t>
         </is>
       </c>
       <c r="C4" s="2" t="inlineStr"/>
       <c r="D4" s="2" t="inlineStr"/>
       <c r="E4" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F4" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>HERBICIDAS</t>
         </is>
       </c>
       <c r="G4" s="3" t="n">
@@ -14618,7 +14626,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="3" t="n">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="P4" s="3" t="n">
         <v>59</v>
@@ -14639,7 +14647,7 @@
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="3" t="inlineStr">
@@ -14656,24 +14664,24 @@
     <row r="5">
       <c r="A5" s="2" t="inlineStr">
         <is>
-          <t>3602030001</t>
+          <t>3902070003</t>
         </is>
       </c>
       <c r="B5" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER SAL DE COBRE 70511</t>
+          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
         </is>
       </c>
       <c r="C5" s="2" t="inlineStr"/>
       <c r="D5" s="2" t="inlineStr"/>
       <c r="E5" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F5" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G5" s="3" t="n">
@@ -14722,7 +14730,7 @@
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="3" t="inlineStr">
@@ -14739,24 +14747,24 @@
     <row r="6">
       <c r="A6" s="2" t="inlineStr">
         <is>
-          <t>3302200003</t>
+          <t>3501040003</t>
         </is>
       </c>
       <c r="B6" s="2" t="inlineStr">
         <is>
-          <t>ABONO PALMERAS 500ML</t>
+          <t>ANTIPULGONES LU 750 ML</t>
         </is>
       </c>
       <c r="C6" s="2" t="inlineStr"/>
       <c r="D6" s="2" t="inlineStr"/>
       <c r="E6" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F6" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G6" s="3" t="n">
@@ -14784,7 +14792,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="3" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="P6" s="3" t="n">
         <v>59</v>
@@ -14805,7 +14813,7 @@
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="3" t="inlineStr">
@@ -14822,12 +14830,12 @@
     <row r="7">
       <c r="A7" s="2" t="inlineStr">
         <is>
-          <t>3302210009</t>
+          <t>3302170005</t>
         </is>
       </c>
       <c r="B7" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
+          <t>VARITAS HUERTO FRUTALES</t>
         </is>
       </c>
       <c r="C7" s="2" t="inlineStr"/>
@@ -14867,7 +14875,7 @@
         <v>0</v>
       </c>
       <c r="O7" s="3" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="P7" s="3" t="n">
         <v>59</v>
@@ -14888,7 +14896,7 @@
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="3" t="inlineStr">
@@ -14905,24 +14913,24 @@
     <row r="8">
       <c r="A8" s="2" t="inlineStr">
         <is>
-          <t>3601050007</t>
+          <t>3902070007</t>
         </is>
       </c>
       <c r="B8" s="2" t="inlineStr">
         <is>
-          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
+          <t>FERO-TRAMPA CITRICOS</t>
         </is>
       </c>
       <c r="C8" s="2" t="inlineStr"/>
       <c r="D8" s="2" t="inlineStr"/>
       <c r="E8" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F8" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G8" s="3" t="n">
@@ -14950,7 +14958,7 @@
         <v>0</v>
       </c>
       <c r="O8" s="3" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P8" s="3" t="n">
         <v>59</v>
@@ -14971,7 +14979,7 @@
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="3" t="inlineStr">
@@ -14988,24 +14996,24 @@
     <row r="9">
       <c r="A9" s="2" t="inlineStr">
         <is>
-          <t>3901110002</t>
+          <t>3302210002</t>
         </is>
       </c>
       <c r="B9" s="2" t="inlineStr">
         <is>
-          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
+          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
         </is>
       </c>
       <c r="C9" s="2" t="inlineStr"/>
       <c r="D9" s="2" t="inlineStr"/>
       <c r="E9" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F9" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G9" s="3" t="n">
@@ -15033,7 +15041,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="3" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P9" s="3" t="n">
         <v>59</v>
@@ -15054,7 +15062,7 @@
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="3" t="inlineStr">
@@ -15071,24 +15079,32 @@
     <row r="10">
       <c r="A10" s="2" t="inlineStr">
         <is>
-          <t>3501080003</t>
+          <t>3301030001</t>
         </is>
       </c>
       <c r="B10" s="2" t="inlineStr">
         <is>
-          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
-        </is>
-      </c>
-      <c r="C10" s="2" t="inlineStr"/>
-      <c r="D10" s="2" t="inlineStr"/>
+          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>2,5Kg</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E10" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F10" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G10" s="3" t="n">
@@ -15116,7 +15132,7 @@
         <v>0</v>
       </c>
       <c r="O10" s="3" t="n">
-        <v>25</v>
+        <v>122</v>
       </c>
       <c r="P10" s="3" t="n">
         <v>59</v>
@@ -15137,7 +15153,7 @@
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="3" t="inlineStr">
@@ -15154,24 +15170,24 @@
     <row r="11">
       <c r="A11" s="2" t="inlineStr">
         <is>
-          <t>3904010004</t>
+          <t>3601050004</t>
         </is>
       </c>
       <c r="B11" s="2" t="inlineStr">
         <is>
-          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
+          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
         </is>
       </c>
       <c r="C11" s="2" t="inlineStr"/>
       <c r="D11" s="2" t="inlineStr"/>
       <c r="E11" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F11" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G11" s="3" t="n">
@@ -15199,7 +15215,7 @@
         <v>0</v>
       </c>
       <c r="O11" s="3" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="P11" s="3" t="n">
         <v>59</v>
@@ -15220,7 +15236,7 @@
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="3" t="inlineStr">
@@ -15237,24 +15253,24 @@
     <row r="12">
       <c r="A12" s="2" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3903010001</t>
         </is>
       </c>
       <c r="B12" s="2" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
+          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
         </is>
       </c>
       <c r="C12" s="2" t="inlineStr"/>
       <c r="D12" s="2" t="inlineStr"/>
       <c r="E12" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F12" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G12" s="3" t="n">
@@ -15282,19 +15298,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="3" t="n">
-        <v>50</v>
+        <v>6</v>
       </c>
       <c r="P12" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q12" s="3" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R12" s="3" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S12" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T12" s="7" t="inlineStr">
         <is>
@@ -15303,12 +15319,12 @@
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="3" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="3" t="inlineStr">
@@ -15320,24 +15336,24 @@
     <row r="13">
       <c r="A13" s="2" t="inlineStr">
         <is>
-          <t>3302210022</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B13" s="2" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
+          <t>YNJECT CONECTOR PALMERA</t>
         </is>
       </c>
       <c r="C13" s="2" t="inlineStr"/>
       <c r="D13" s="2" t="inlineStr"/>
       <c r="E13" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F13" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G13" s="3" t="n">
@@ -15365,16 +15381,16 @@
         <v>0</v>
       </c>
       <c r="O13" s="3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="P13" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q13" s="3" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="R13" s="3" t="n">
-        <v>24.44</v>
+        <v>25.56</v>
       </c>
       <c r="S13" s="4" t="n">
         <v>0</v>
@@ -15391,7 +15407,7 @@
       </c>
       <c r="V13" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Compra 05/02/2025</t>
         </is>
       </c>
       <c r="W13" s="3" t="inlineStr">
@@ -15403,24 +15419,24 @@
     <row r="14">
       <c r="A14" s="2" t="inlineStr">
         <is>
-          <t>3302200014</t>
+          <t>3502010009</t>
         </is>
       </c>
       <c r="B14" s="2" t="inlineStr">
         <is>
-          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
+          <t>ENFERMEDADES ROSALES 10ML</t>
         </is>
       </c>
       <c r="C14" s="2" t="inlineStr"/>
       <c r="D14" s="2" t="inlineStr"/>
       <c r="E14" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F14" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G14" s="3" t="n">
@@ -15448,7 +15464,7 @@
         <v>0</v>
       </c>
       <c r="O14" s="3" t="n">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="P14" s="3" t="n">
         <v>59</v>
@@ -15469,7 +15485,7 @@
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V14" s="3" t="inlineStr">
@@ -15486,24 +15502,24 @@
     <row r="15">
       <c r="A15" s="2" t="inlineStr">
         <is>
-          <t>3302210020</t>
+          <t>3501100022</t>
         </is>
       </c>
       <c r="B15" s="2" t="inlineStr">
         <is>
-          <t>ABONO TREPADORAS ECO 800GR</t>
+          <t>YNJECT GO PALMERAS (NO VENTA)</t>
         </is>
       </c>
       <c r="C15" s="2" t="inlineStr"/>
       <c r="D15" s="2" t="inlineStr"/>
       <c r="E15" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F15" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G15" s="3" t="n">
@@ -15531,16 +15547,16 @@
         <v>0</v>
       </c>
       <c r="O15" s="3" t="n">
-        <v>12</v>
+        <v>50</v>
       </c>
       <c r="P15" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q15" s="3" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="R15" s="3" t="n">
-        <v>17.78</v>
+        <v>2.22</v>
       </c>
       <c r="S15" s="4" t="n">
         <v>0</v>
@@ -15557,7 +15573,7 @@
       </c>
       <c r="V15" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W15" s="3" t="inlineStr">
@@ -15569,24 +15585,24 @@
     <row r="16">
       <c r="A16" s="2" t="inlineStr">
         <is>
-          <t>3302120001</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B16" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
+          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
         </is>
       </c>
       <c r="C16" s="2" t="inlineStr"/>
       <c r="D16" s="2" t="inlineStr"/>
       <c r="E16" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F16" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G16" s="3" t="n">
@@ -15614,19 +15630,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="3" t="n">
-        <v>16</v>
+        <v>50</v>
       </c>
       <c r="P16" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q16" s="3" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R16" s="3" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S16" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T16" s="7" t="inlineStr">
         <is>
@@ -15635,12 +15651,12 @@
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W16" s="3" t="inlineStr">
@@ -15652,24 +15668,16 @@
     <row r="17">
       <c r="A17" s="2" t="inlineStr">
         <is>
-          <t>3601050002</t>
+          <t>3601040002</t>
         </is>
       </c>
       <c r="B17" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER ACEITE DE NEEM</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>450ML</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr"/>
+      <c r="D17" s="2" t="inlineStr"/>
       <c r="E17" s="3" t="inlineStr">
         <is>
           <t>36</t>
@@ -15705,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="O17" s="3" t="n">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="P17" s="3" t="n">
         <v>59</v>
@@ -15726,7 +15734,7 @@
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V17" s="3" t="inlineStr">
@@ -15743,24 +15751,24 @@
     <row r="18">
       <c r="A18" s="2" t="inlineStr">
         <is>
-          <t>3302100001</t>
+          <t>3901040001</t>
         </is>
       </c>
       <c r="B18" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
+          <t>ANTIHORMIGAS PISTOLA 750ML</t>
         </is>
       </c>
       <c r="C18" s="2" t="inlineStr"/>
       <c r="D18" s="2" t="inlineStr"/>
       <c r="E18" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F18" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G18" s="3" t="n">
@@ -15788,7 +15796,7 @@
         <v>0</v>
       </c>
       <c r="O18" s="3" t="n">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="P18" s="3" t="n">
         <v>59</v>
@@ -15809,7 +15817,7 @@
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V18" s="3" t="inlineStr">
@@ -15826,12 +15834,12 @@
     <row r="19">
       <c r="A19" s="2" t="inlineStr">
         <is>
-          <t>3901040001</t>
+          <t>3901090003</t>
         </is>
       </c>
       <c r="B19" s="2" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS PISTOLA 750ML</t>
+          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
         </is>
       </c>
       <c r="C19" s="2" t="inlineStr"/>
@@ -15871,7 +15879,7 @@
         <v>0</v>
       </c>
       <c r="O19" s="3" t="n">
-        <v>82</v>
+        <v>8</v>
       </c>
       <c r="P19" s="3" t="n">
         <v>59</v>
@@ -15892,7 +15900,7 @@
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 365.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V19" s="3" t="inlineStr">
@@ -15909,12 +15917,12 @@
     <row r="20">
       <c r="A20" s="2" t="inlineStr">
         <is>
-          <t>3904010002</t>
+          <t>3901130002</t>
         </is>
       </c>
       <c r="B20" s="2" t="inlineStr">
         <is>
-          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
+          <t>FIN INSECTOS CONCENTRADO 25ML</t>
         </is>
       </c>
       <c r="C20" s="2" t="inlineStr"/>
@@ -15954,7 +15962,7 @@
         <v>0</v>
       </c>
       <c r="O20" s="3" t="n">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="P20" s="3" t="n">
         <v>59</v>
@@ -15975,7 +15983,7 @@
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V20" s="3" t="inlineStr">
@@ -15992,24 +16000,24 @@
     <row r="21">
       <c r="A21" s="2" t="inlineStr">
         <is>
-          <t>3902070005</t>
+          <t>3302210020</t>
         </is>
       </c>
       <c r="B21" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
+          <t>ABONO TREPADORAS ECO 800GR</t>
         </is>
       </c>
       <c r="C21" s="2" t="inlineStr"/>
       <c r="D21" s="2" t="inlineStr"/>
       <c r="E21" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F21" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G21" s="3" t="n">
@@ -16037,19 +16045,19 @@
         <v>0</v>
       </c>
       <c r="O21" s="3" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P21" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q21" s="3" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R21" s="3" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S21" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T21" s="7" t="inlineStr">
         <is>
@@ -16058,12 +16066,12 @@
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V21" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W21" s="3" t="inlineStr">
@@ -16075,12 +16083,12 @@
     <row r="22">
       <c r="A22" s="2" t="inlineStr">
         <is>
-          <t>3302210004</t>
+          <t>3302200018</t>
         </is>
       </c>
       <c r="B22" s="2" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
+          <t>REGENERADOR SUELOS</t>
         </is>
       </c>
       <c r="C22" s="2" t="inlineStr"/>
@@ -16120,7 +16128,7 @@
         <v>0</v>
       </c>
       <c r="O22" s="3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P22" s="3" t="n">
         <v>59</v>
@@ -16141,7 +16149,7 @@
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V22" s="3" t="inlineStr">
@@ -16158,24 +16166,24 @@
     <row r="23">
       <c r="A23" s="2" t="inlineStr">
         <is>
-          <t>3601040002</t>
+          <t>3901130003</t>
         </is>
       </c>
       <c r="B23" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER ANTICOCHINILLAS LPD 450ML</t>
+          <t>INSECTICIDA CARCOMA 200ML</t>
         </is>
       </c>
       <c r="C23" s="2" t="inlineStr"/>
       <c r="D23" s="2" t="inlineStr"/>
       <c r="E23" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F23" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G23" s="3" t="n">
@@ -16203,7 +16211,7 @@
         <v>0</v>
       </c>
       <c r="O23" s="3" t="n">
-        <v>36</v>
+        <v>14</v>
       </c>
       <c r="P23" s="3" t="n">
         <v>59</v>
@@ -16224,7 +16232,7 @@
       </c>
       <c r="U23" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 141.12€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V23" s="3" t="inlineStr">
@@ -16241,24 +16249,24 @@
     <row r="24">
       <c r="A24" s="2" t="inlineStr">
         <is>
-          <t>3901130002</t>
+          <t>3501100015</t>
         </is>
       </c>
       <c r="B24" s="2" t="inlineStr">
         <is>
-          <t>FIN INSECTOS CONCENTRADO 25ML</t>
+          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C24" s="2" t="inlineStr"/>
       <c r="D24" s="2" t="inlineStr"/>
       <c r="E24" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F24" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G24" s="3" t="n">
@@ -16286,19 +16294,19 @@
         <v>0</v>
       </c>
       <c r="O24" s="3" t="n">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="P24" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q24" s="3" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R24" s="3" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S24" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T24" s="7" t="inlineStr">
         <is>
@@ -16307,12 +16315,12 @@
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V24" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W24" s="3" t="inlineStr">
@@ -16324,24 +16332,24 @@
     <row r="25">
       <c r="A25" s="2" t="inlineStr">
         <is>
-          <t>3502010001</t>
+          <t>3302140001</t>
         </is>
       </c>
       <c r="B25" s="2" t="inlineStr">
         <is>
-          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
+          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
         </is>
       </c>
       <c r="C25" s="2" t="inlineStr"/>
       <c r="D25" s="2" t="inlineStr"/>
       <c r="E25" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F25" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G25" s="3" t="n">
@@ -16369,7 +16377,7 @@
         <v>0</v>
       </c>
       <c r="O25" s="3" t="n">
-        <v>4</v>
+        <v>48</v>
       </c>
       <c r="P25" s="3" t="n">
         <v>59</v>
@@ -16390,7 +16398,7 @@
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V25" s="3" t="inlineStr">
@@ -16407,24 +16415,24 @@
     <row r="26">
       <c r="A26" s="2" t="inlineStr">
         <is>
-          <t>3902070009</t>
+          <t>3302200014</t>
         </is>
       </c>
       <c r="B26" s="2" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA OLIVO</t>
+          <t>KB OSMOCOTE ABONO PLANTAS ACIDAS 750GR</t>
         </is>
       </c>
       <c r="C26" s="2" t="inlineStr"/>
       <c r="D26" s="2" t="inlineStr"/>
       <c r="E26" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F26" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G26" s="3" t="n">
@@ -16452,7 +16460,7 @@
         <v>0</v>
       </c>
       <c r="O26" s="3" t="n">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="P26" s="3" t="n">
         <v>59</v>
@@ -16473,7 +16481,7 @@
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 165.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V26" s="3" t="inlineStr">
@@ -16490,24 +16498,24 @@
     <row r="27">
       <c r="A27" s="2" t="inlineStr">
         <is>
-          <t>3301030004</t>
+          <t>3501100021</t>
         </is>
       </c>
       <c r="B27" s="2" t="inlineStr">
         <is>
-          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
+          <t>YNJECT GO PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C27" s="2" t="inlineStr"/>
       <c r="D27" s="2" t="inlineStr"/>
       <c r="E27" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F27" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G27" s="3" t="n">
@@ -16535,19 +16543,19 @@
         <v>0</v>
       </c>
       <c r="O27" s="3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P27" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q27" s="3" t="n">
-        <v>59</v>
+        <v>2</v>
       </c>
       <c r="R27" s="3" t="n">
-        <v>65.56</v>
+        <v>2.22</v>
       </c>
       <c r="S27" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T27" s="7" t="inlineStr">
         <is>
@@ -16556,12 +16564,12 @@
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V27" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 26/02/2025</t>
         </is>
       </c>
       <c r="W27" s="3" t="inlineStr">
@@ -16573,12 +16581,12 @@
     <row r="28">
       <c r="A28" s="2" t="inlineStr">
         <is>
-          <t>3302070001</t>
+          <t>3301030004</t>
         </is>
       </c>
       <c r="B28" s="2" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS 750GR</t>
+          <t>ABONO SOLUBLE UNIVERSAL 1KG</t>
         </is>
       </c>
       <c r="C28" s="2" t="inlineStr"/>
@@ -16618,7 +16626,7 @@
         <v>0</v>
       </c>
       <c r="O28" s="3" t="n">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="P28" s="3" t="n">
         <v>59</v>
@@ -16639,7 +16647,7 @@
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 59.09€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V28" s="3" t="inlineStr">
@@ -16656,24 +16664,24 @@
     <row r="29">
       <c r="A29" s="2" t="inlineStr">
         <is>
-          <t>3901140002</t>
+          <t>3502010007</t>
         </is>
       </c>
       <c r="B29" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
+          <t>BIOFLOWER FUNGIBAC COLA CABALLO 50ML</t>
         </is>
       </c>
       <c r="C29" s="2" t="inlineStr"/>
       <c r="D29" s="2" t="inlineStr"/>
       <c r="E29" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F29" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G29" s="3" t="n">
@@ -16701,7 +16709,7 @@
         <v>0</v>
       </c>
       <c r="O29" s="3" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="P29" s="3" t="n">
         <v>59</v>
@@ -16722,7 +16730,7 @@
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 98.98€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V29" s="3" t="inlineStr">
@@ -16739,12 +16747,12 @@
     <row r="30">
       <c r="A30" s="2" t="inlineStr">
         <is>
-          <t>3501050002</t>
+          <t>3501100002</t>
         </is>
       </c>
       <c r="B30" s="2" t="inlineStr">
         <is>
-          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
+          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
         </is>
       </c>
       <c r="C30" s="2" t="inlineStr"/>
@@ -16784,7 +16792,7 @@
         <v>0</v>
       </c>
       <c r="O30" s="3" t="n">
-        <v>34</v>
+        <v>52</v>
       </c>
       <c r="P30" s="3" t="n">
         <v>59</v>
@@ -16805,7 +16813,7 @@
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V30" s="3" t="inlineStr">
@@ -16822,12 +16830,12 @@
     <row r="31">
       <c r="A31" s="2" t="inlineStr">
         <is>
-          <t>3302150003</t>
+          <t>3302200003</t>
         </is>
       </c>
       <c r="B31" s="2" t="inlineStr">
         <is>
-          <t>COMPO BIO CITRICOS 750GR</t>
+          <t>ABONO PALMERAS 500ML</t>
         </is>
       </c>
       <c r="C31" s="2" t="inlineStr"/>
@@ -16867,7 +16875,7 @@
         <v>0</v>
       </c>
       <c r="O31" s="3" t="n">
-        <v>18</v>
+        <v>26</v>
       </c>
       <c r="P31" s="3" t="n">
         <v>59</v>
@@ -16888,7 +16896,7 @@
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.32€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V31" s="3" t="inlineStr">
@@ -16905,24 +16913,16 @@
     <row r="32">
       <c r="A32" s="2" t="inlineStr">
         <is>
-          <t>3403010003</t>
+          <t>3401040003</t>
         </is>
       </c>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>ABONO CESPED GRANDES JARDINES</t>
-        </is>
-      </c>
-      <c r="C32" s="2" t="inlineStr">
-        <is>
-          <t>7I5KG</t>
-        </is>
-      </c>
-      <c r="D32" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
+        </is>
+      </c>
+      <c r="C32" s="2" t="inlineStr"/>
+      <c r="D32" s="2" t="inlineStr"/>
       <c r="E32" s="3" t="inlineStr">
         <is>
           <t>34</t>
@@ -16958,7 +16958,7 @@
         <v>0</v>
       </c>
       <c r="O32" s="3" t="n">
-        <v>39</v>
+        <v>20</v>
       </c>
       <c r="P32" s="3" t="n">
         <v>59</v>
@@ -16979,7 +16979,7 @@
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V32" s="3" t="inlineStr">
@@ -16996,24 +16996,24 @@
     <row r="33">
       <c r="A33" s="2" t="inlineStr">
         <is>
-          <t>3901040003</t>
+          <t>3402050003</t>
         </is>
       </c>
       <c r="B33" s="2" t="inlineStr">
         <is>
-          <t>LU ANTIHORMIGAS 750ML CAJA</t>
+          <t>COMPO ABRILLANTADOR 600ML</t>
         </is>
       </c>
       <c r="C33" s="2" t="inlineStr"/>
       <c r="D33" s="2" t="inlineStr"/>
       <c r="E33" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F33" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G33" s="3" t="n">
@@ -17041,7 +17041,7 @@
         <v>0</v>
       </c>
       <c r="O33" s="3" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P33" s="3" t="n">
         <v>59</v>
@@ -17062,7 +17062,7 @@
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V33" s="3" t="inlineStr">
@@ -17079,24 +17079,24 @@
     <row r="34">
       <c r="A34" s="2" t="inlineStr">
         <is>
-          <t>3302210002</t>
+          <t>3901080002</t>
         </is>
       </c>
       <c r="B34" s="2" t="inlineStr">
         <is>
-          <t>CANABIUM BIO FLORACION 1000 ML CAJA</t>
+          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
         </is>
       </c>
       <c r="C34" s="2" t="inlineStr"/>
       <c r="D34" s="2" t="inlineStr"/>
       <c r="E34" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F34" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G34" s="3" t="n">
@@ -17124,7 +17124,7 @@
         <v>0</v>
       </c>
       <c r="O34" s="3" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="P34" s="3" t="n">
         <v>59</v>
@@ -17145,7 +17145,7 @@
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 130.66€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V34" s="3" t="inlineStr">
@@ -17245,12 +17245,12 @@
     <row r="36">
       <c r="A36" s="2" t="inlineStr">
         <is>
-          <t>3901130003</t>
+          <t>3902070009</t>
         </is>
       </c>
       <c r="B36" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA CARCOMA 200ML</t>
+          <t>FERO-TRAMPA OLIVO</t>
         </is>
       </c>
       <c r="C36" s="2" t="inlineStr"/>
@@ -17290,7 +17290,7 @@
         <v>0</v>
       </c>
       <c r="O36" s="3" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="P36" s="3" t="n">
         <v>59</v>
@@ -17311,7 +17311,7 @@
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V36" s="3" t="inlineStr">
@@ -17328,24 +17328,24 @@
     <row r="37">
       <c r="A37" s="2" t="inlineStr">
         <is>
-          <t>3301040005</t>
+          <t>3901110002</t>
         </is>
       </c>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
+          <t>BARRERA ROEDORES CEBO RATAS /RATONES PASTA 150GR</t>
         </is>
       </c>
       <c r="C37" s="2" t="inlineStr"/>
       <c r="D37" s="2" t="inlineStr"/>
       <c r="E37" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F37" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G37" s="3" t="n">
@@ -17373,7 +17373,7 @@
         <v>0</v>
       </c>
       <c r="O37" s="3" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P37" s="3" t="n">
         <v>59</v>
@@ -17394,7 +17394,7 @@
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.44€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V37" s="3" t="inlineStr">
@@ -17411,12 +17411,12 @@
     <row r="38">
       <c r="A38" s="2" t="inlineStr">
         <is>
-          <t>3501140001</t>
+          <t>3502010005</t>
         </is>
       </c>
       <c r="B38" s="2" t="inlineStr">
         <is>
-          <t>AVIDUST 1KG</t>
+          <t>AZUFRE 450 GRS.</t>
         </is>
       </c>
       <c r="C38" s="2" t="inlineStr"/>
@@ -17456,7 +17456,7 @@
         <v>0</v>
       </c>
       <c r="O38" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P38" s="3" t="n">
         <v>59</v>
@@ -17477,7 +17477,7 @@
       </c>
       <c r="U38" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V38" s="3" t="inlineStr">
@@ -17494,24 +17494,24 @@
     <row r="39">
       <c r="A39" s="2" t="inlineStr">
         <is>
-          <t>3901090003</t>
+          <t>3403010005</t>
         </is>
       </c>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>REPELENTE ULTRASONIDO RATAS RATONES</t>
+          <t>ABONO GRAMA 2KG</t>
         </is>
       </c>
       <c r="C39" s="2" t="inlineStr"/>
       <c r="D39" s="2" t="inlineStr"/>
       <c r="E39" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F39" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G39" s="3" t="n">
@@ -17539,19 +17539,19 @@
         <v>0</v>
       </c>
       <c r="O39" s="3" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="P39" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q39" s="3" t="n">
-        <v>59</v>
+        <v>16</v>
       </c>
       <c r="R39" s="3" t="n">
-        <v>65.56</v>
+        <v>17.78</v>
       </c>
       <c r="S39" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T39" s="7" t="inlineStr">
         <is>
@@ -17560,12 +17560,12 @@
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 37.3€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V39" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 12/02/2025</t>
         </is>
       </c>
       <c r="W39" s="3" t="inlineStr">
@@ -17577,32 +17577,24 @@
     <row r="40">
       <c r="A40" s="2" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3302200008</t>
         </is>
       </c>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
-        </is>
-      </c>
-      <c r="C40" s="2" t="inlineStr">
-        <is>
-          <t>1I5KG</t>
-        </is>
-      </c>
-      <c r="D40" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>AZULADOR DE HORTENSIAS 800GR</t>
+        </is>
+      </c>
+      <c r="C40" s="2" t="inlineStr"/>
+      <c r="D40" s="2" t="inlineStr"/>
       <c r="E40" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F40" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G40" s="3" t="n">
@@ -17630,19 +17622,19 @@
         <v>0</v>
       </c>
       <c r="O40" s="3" t="n">
-        <v>50</v>
+        <v>16</v>
       </c>
       <c r="P40" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q40" s="3" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R40" s="3" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S40" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T40" s="7" t="inlineStr">
         <is>
@@ -17651,12 +17643,12 @@
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V40" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W40" s="3" t="inlineStr">
@@ -17668,16 +17660,24 @@
     <row r="41">
       <c r="A41" s="2" t="inlineStr">
         <is>
-          <t>3902040001</t>
+          <t>3901030011</t>
         </is>
       </c>
       <c r="B41" s="2" t="inlineStr">
         <is>
-          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
-        </is>
-      </c>
-      <c r="C41" s="2" t="inlineStr"/>
-      <c r="D41" s="2" t="inlineStr"/>
+          <t>KB NEXA HORMIGAS GRANULADO</t>
+        </is>
+      </c>
+      <c r="C41" s="2" t="inlineStr">
+        <is>
+          <t>250G</t>
+        </is>
+      </c>
+      <c r="D41" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E41" s="3" t="inlineStr">
         <is>
           <t>39</t>
@@ -17713,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="O41" s="3" t="n">
-        <v>6</v>
+        <v>38</v>
       </c>
       <c r="P41" s="3" t="n">
         <v>59</v>
@@ -17734,7 +17734,7 @@
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V41" s="3" t="inlineStr">
@@ -17751,24 +17751,24 @@
     <row r="42">
       <c r="A42" s="2" t="inlineStr">
         <is>
-          <t>3501140005</t>
+          <t>3901050006</t>
         </is>
       </c>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
+          <t>TRAMPA SICUR TRAMP 2 UDS</t>
         </is>
       </c>
       <c r="C42" s="2" t="inlineStr"/>
       <c r="D42" s="2" t="inlineStr"/>
       <c r="E42" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F42" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G42" s="3" t="n">
@@ -17796,7 +17796,7 @@
         <v>0</v>
       </c>
       <c r="O42" s="3" t="n">
-        <v>42</v>
+        <v>8</v>
       </c>
       <c r="P42" s="3" t="n">
         <v>59</v>
@@ -17817,7 +17817,7 @@
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V42" s="3" t="inlineStr">
@@ -17834,24 +17834,24 @@
     <row r="43">
       <c r="A43" s="2" t="inlineStr">
         <is>
-          <t>3302200011</t>
+          <t>3901090001</t>
         </is>
       </c>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>FERRO PLUS REVERDECIENTE</t>
+          <t>COLA PARA RATONES RATIGLUE 135G</t>
         </is>
       </c>
       <c r="C43" s="2" t="inlineStr"/>
       <c r="D43" s="2" t="inlineStr"/>
       <c r="E43" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F43" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G43" s="3" t="n">
@@ -17879,7 +17879,7 @@
         <v>0</v>
       </c>
       <c r="O43" s="3" t="n">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="P43" s="3" t="n">
         <v>59</v>
@@ -17900,7 +17900,7 @@
       </c>
       <c r="U43" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V43" s="3" t="inlineStr">
@@ -17917,24 +17917,24 @@
     <row r="44">
       <c r="A44" s="2" t="inlineStr">
         <is>
-          <t>3501040003</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B44" s="2" t="inlineStr">
         <is>
-          <t>ANTIPULGONES LU 750 ML</t>
+          <t>ABONO CESPED BOLSA</t>
         </is>
       </c>
       <c r="C44" s="2" t="inlineStr"/>
       <c r="D44" s="2" t="inlineStr"/>
       <c r="E44" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F44" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G44" s="3" t="n">
@@ -17962,7 +17962,7 @@
         <v>0</v>
       </c>
       <c r="O44" s="3" t="n">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="P44" s="3" t="n">
         <v>59</v>
@@ -17983,7 +17983,7 @@
       </c>
       <c r="U44" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V44" s="3" t="inlineStr">
@@ -18000,12 +18000,12 @@
     <row r="45">
       <c r="A45" s="2" t="inlineStr">
         <is>
-          <t>3501100011</t>
+          <t>3502020003</t>
         </is>
       </c>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>PACK FRUTALES VITHAL</t>
+          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
         </is>
       </c>
       <c r="C45" s="2" t="inlineStr"/>
@@ -18045,7 +18045,7 @@
         <v>0</v>
       </c>
       <c r="O45" s="3" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="P45" s="3" t="n">
         <v>59</v>
@@ -18066,7 +18066,7 @@
       </c>
       <c r="U45" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V45" s="3" t="inlineStr">
@@ -18083,12 +18083,12 @@
     <row r="46">
       <c r="A46" s="2" t="inlineStr">
         <is>
-          <t>3901030012</t>
+          <t>3901030009</t>
         </is>
       </c>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
+          <t>CEBO ANTIHORMIGAS 10GR</t>
         </is>
       </c>
       <c r="C46" s="2" t="inlineStr"/>
@@ -18128,7 +18128,7 @@
         <v>0</v>
       </c>
       <c r="O46" s="3" t="n">
-        <v>26</v>
+        <v>49</v>
       </c>
       <c r="P46" s="3" t="n">
         <v>59</v>
@@ -18149,7 +18149,7 @@
       </c>
       <c r="U46" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V46" s="3" t="inlineStr">
@@ -18166,32 +18166,24 @@
     <row r="47">
       <c r="A47" s="2" t="inlineStr">
         <is>
-          <t>3301040001</t>
+          <t>3902070004</t>
         </is>
       </c>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO UNIVERSAL</t>
-        </is>
-      </c>
-      <c r="C47" s="2" t="inlineStr">
-        <is>
-          <t>500Ml</t>
-        </is>
-      </c>
-      <c r="D47" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
+        </is>
+      </c>
+      <c r="C47" s="2" t="inlineStr"/>
+      <c r="D47" s="2" t="inlineStr"/>
       <c r="E47" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F47" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G47" s="3" t="n">
@@ -18219,7 +18211,7 @@
         <v>0</v>
       </c>
       <c r="O47" s="3" t="n">
-        <v>58</v>
+        <v>20</v>
       </c>
       <c r="P47" s="3" t="n">
         <v>59</v>
@@ -18240,7 +18232,7 @@
       </c>
       <c r="U47" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V47" s="3" t="inlineStr">
@@ -18257,24 +18249,16 @@
     <row r="48">
       <c r="A48" s="2" t="inlineStr">
         <is>
-          <t>3901030001</t>
+          <t>3901040002</t>
         </is>
       </c>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>COMPO ANTIHORMIGAS</t>
-        </is>
-      </c>
-      <c r="C48" s="2" t="inlineStr">
-        <is>
-          <t>500G</t>
-        </is>
-      </c>
-      <c r="D48" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
+        </is>
+      </c>
+      <c r="C48" s="2" t="inlineStr"/>
+      <c r="D48" s="2" t="inlineStr"/>
       <c r="E48" s="3" t="inlineStr">
         <is>
           <t>39</t>
@@ -18310,7 +18294,7 @@
         <v>0</v>
       </c>
       <c r="O48" s="3" t="n">
-        <v>98</v>
+        <v>18</v>
       </c>
       <c r="P48" s="3" t="n">
         <v>59</v>
@@ -18331,7 +18315,7 @@
       </c>
       <c r="U48" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V48" s="3" t="inlineStr">
@@ -18348,24 +18332,24 @@
     <row r="49">
       <c r="A49" s="2" t="inlineStr">
         <is>
-          <t>3501100005</t>
+          <t>3401050003</t>
         </is>
       </c>
       <c r="B49" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
+          <t>SOLABIOL FERTILIZANTE CONIFERAS 1.5KG</t>
         </is>
       </c>
       <c r="C49" s="2" t="inlineStr"/>
       <c r="D49" s="2" t="inlineStr"/>
       <c r="E49" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F49" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G49" s="3" t="n">
@@ -18393,7 +18377,7 @@
         <v>0</v>
       </c>
       <c r="O49" s="3" t="n">
-        <v>151</v>
+        <v>2</v>
       </c>
       <c r="P49" s="3" t="n">
         <v>59</v>
@@ -18414,7 +18398,7 @@
       </c>
       <c r="U49" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 7.41€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V49" s="3" t="inlineStr">
@@ -18431,24 +18415,24 @@
     <row r="50">
       <c r="A50" s="2" t="inlineStr">
         <is>
-          <t>3402060002</t>
+          <t>3902040002</t>
         </is>
       </c>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE BONSAIS 500ML</t>
+          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
         </is>
       </c>
       <c r="C50" s="2" t="inlineStr"/>
       <c r="D50" s="2" t="inlineStr"/>
       <c r="E50" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F50" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G50" s="3" t="n">
@@ -18476,7 +18460,7 @@
         <v>0</v>
       </c>
       <c r="O50" s="3" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="P50" s="3" t="n">
         <v>59</v>
@@ -18497,7 +18481,7 @@
       </c>
       <c r="U50" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V50" s="3" t="inlineStr">
@@ -18514,24 +18498,24 @@
     <row r="51">
       <c r="A51" s="2" t="inlineStr">
         <is>
-          <t>3901090004</t>
+          <t>3602030001</t>
         </is>
       </c>
       <c r="B51" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN TRAMPA RATONES</t>
+          <t>BIOFLOWER SAL DE COBRE 70511</t>
         </is>
       </c>
       <c r="C51" s="2" t="inlineStr"/>
       <c r="D51" s="2" t="inlineStr"/>
       <c r="E51" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F51" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G51" s="3" t="n">
@@ -18559,7 +18543,7 @@
         <v>0</v>
       </c>
       <c r="O51" s="3" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P51" s="3" t="n">
         <v>59</v>
@@ -18580,7 +18564,7 @@
       </c>
       <c r="U51" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V51" s="3" t="inlineStr">
@@ -18597,24 +18581,24 @@
     <row r="52">
       <c r="A52" s="2" t="inlineStr">
         <is>
-          <t>3601050004</t>
+          <t>3302120001</t>
         </is>
       </c>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>FAZILO INSECTICIDA NATURAL 750ML</t>
+          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
         </is>
       </c>
       <c r="C52" s="2" t="inlineStr"/>
       <c r="D52" s="2" t="inlineStr"/>
       <c r="E52" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F52" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G52" s="3" t="n">
@@ -18642,7 +18626,7 @@
         <v>0</v>
       </c>
       <c r="O52" s="3" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="P52" s="3" t="n">
         <v>59</v>
@@ -18663,7 +18647,7 @@
       </c>
       <c r="U52" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 79.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 40.54€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V52" s="3" t="inlineStr">
@@ -18680,24 +18664,24 @@
     <row r="53">
       <c r="A53" s="2" t="inlineStr">
         <is>
-          <t>3902070007</t>
+          <t>3301040005</t>
         </is>
       </c>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA CITRICOS</t>
+          <t>COMPO BIO FORTIGO FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C53" s="2" t="inlineStr"/>
       <c r="D53" s="2" t="inlineStr"/>
       <c r="E53" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F53" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G53" s="3" t="n">
@@ -18725,7 +18709,7 @@
         <v>0</v>
       </c>
       <c r="O53" s="3" t="n">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="P53" s="3" t="n">
         <v>59</v>
@@ -18746,7 +18730,7 @@
       </c>
       <c r="U53" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 125.9€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V53" s="3" t="inlineStr">
@@ -18763,32 +18747,24 @@
     <row r="54">
       <c r="A54" s="2" t="inlineStr">
         <is>
-          <t>3403030001</t>
+          <t>3902070008</t>
         </is>
       </c>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>ABONO CESPED LARGA DURACION</t>
-        </is>
-      </c>
-      <c r="C54" s="2" t="inlineStr">
-        <is>
-          <t>3KG</t>
-        </is>
-      </c>
-      <c r="D54" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>FERO-TRAMPA FRUIT</t>
+        </is>
+      </c>
+      <c r="C54" s="2" t="inlineStr"/>
+      <c r="D54" s="2" t="inlineStr"/>
       <c r="E54" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F54" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G54" s="3" t="n">
@@ -18816,7 +18792,7 @@
         <v>0</v>
       </c>
       <c r="O54" s="3" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="P54" s="3" t="n">
         <v>59</v>
@@ -18837,7 +18813,7 @@
       </c>
       <c r="U54" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V54" s="3" t="inlineStr">
@@ -18854,24 +18830,24 @@
     <row r="55">
       <c r="A55" s="2" t="inlineStr">
         <is>
-          <t>3502010014</t>
+          <t>3904010002</t>
         </is>
       </c>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>REVUS ANTIMILDIU 20ML</t>
+          <t>BUHO ESPANTAPAJAROS CABEZA GIRATORIA 16X16X4</t>
         </is>
       </c>
       <c r="C55" s="2" t="inlineStr"/>
       <c r="D55" s="2" t="inlineStr"/>
       <c r="E55" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F55" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G55" s="3" t="n">
@@ -18899,7 +18875,7 @@
         <v>0</v>
       </c>
       <c r="O55" s="3" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="P55" s="3" t="n">
         <v>59</v>
@@ -18920,7 +18896,7 @@
       </c>
       <c r="U55" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.65€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V55" s="3" t="inlineStr">
@@ -18937,24 +18913,24 @@
     <row r="56">
       <c r="A56" s="2" t="inlineStr">
         <is>
-          <t>3302140001</t>
+          <t>3601050001</t>
         </is>
       </c>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTES TOMATES 500ML</t>
+          <t>BIO INSECTICIDA STOP 750ML</t>
         </is>
       </c>
       <c r="C56" s="2" t="inlineStr"/>
       <c r="D56" s="2" t="inlineStr"/>
       <c r="E56" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F56" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G56" s="3" t="n">
@@ -18982,19 +18958,19 @@
         <v>0</v>
       </c>
       <c r="O56" s="3" t="n">
-        <v>48</v>
+        <v>24</v>
       </c>
       <c r="P56" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q56" s="3" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R56" s="3" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S56" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T56" s="7" t="inlineStr">
         <is>
@@ -19003,12 +18979,12 @@
       </c>
       <c r="U56" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 121.63€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V56" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W56" s="3" t="inlineStr">
@@ -19020,24 +18996,32 @@
     <row r="57">
       <c r="A57" s="2" t="inlineStr">
         <is>
-          <t>3901030010</t>
+          <t>3601050002</t>
         </is>
       </c>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ARBORICOLA</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr"/>
-      <c r="D57" s="2" t="inlineStr"/>
+          <t>BIOFLOWER ACEITE DE NEEM</t>
+        </is>
+      </c>
+      <c r="C57" s="2" t="inlineStr">
+        <is>
+          <t>450ML</t>
+        </is>
+      </c>
+      <c r="D57" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E57" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F57" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G57" s="3" t="n">
@@ -19065,7 +19049,7 @@
         <v>0</v>
       </c>
       <c r="O57" s="3" t="n">
-        <v>24</v>
+        <v>10</v>
       </c>
       <c r="P57" s="3" t="n">
         <v>59</v>
@@ -19086,7 +19070,7 @@
       </c>
       <c r="U57" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V57" s="3" t="inlineStr">
@@ -19103,24 +19087,24 @@
     <row r="58">
       <c r="A58" s="2" t="inlineStr">
         <is>
-          <t>3401040008</t>
+          <t>3902060002</t>
         </is>
       </c>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
+          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
         </is>
       </c>
       <c r="C58" s="2" t="inlineStr"/>
       <c r="D58" s="2" t="inlineStr"/>
       <c r="E58" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F58" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G58" s="3" t="n">
@@ -19148,7 +19132,7 @@
         <v>0</v>
       </c>
       <c r="O58" s="3" t="n">
-        <v>27</v>
+        <v>8</v>
       </c>
       <c r="P58" s="3" t="n">
         <v>59</v>
@@ -19169,7 +19153,7 @@
       </c>
       <c r="U58" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V58" s="3" t="inlineStr">
@@ -19186,24 +19170,24 @@
     <row r="59">
       <c r="A59" s="2" t="inlineStr">
         <is>
-          <t>3403010005</t>
+          <t>3502020002</t>
         </is>
       </c>
       <c r="B59" s="2" t="inlineStr">
         <is>
-          <t>ABONO GRAMA 2KG</t>
+          <t>FUNGICIDA ROSALES 750ML</t>
         </is>
       </c>
       <c r="C59" s="2" t="inlineStr"/>
       <c r="D59" s="2" t="inlineStr"/>
       <c r="E59" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F59" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G59" s="3" t="n">
@@ -19231,19 +19215,19 @@
         <v>0</v>
       </c>
       <c r="O59" s="3" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="P59" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q59" s="3" t="n">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="R59" s="3" t="n">
-        <v>17.78</v>
+        <v>65.56</v>
       </c>
       <c r="S59" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T59" s="7" t="inlineStr">
         <is>
@@ -19252,12 +19236,12 @@
       </c>
       <c r="U59" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V59" s="3" t="inlineStr">
         <is>
-          <t>Compra 12/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W59" s="3" t="inlineStr">
@@ -19269,24 +19253,24 @@
     <row r="60">
       <c r="A60" s="2" t="inlineStr">
         <is>
-          <t>3901130001</t>
+          <t>3501040002</t>
         </is>
       </c>
       <c r="B60" s="2" t="inlineStr">
         <is>
-          <t>FIN CHINCHES Y PULGAS 150ML</t>
+          <t>INSECTICIDA PULGON 750ML</t>
         </is>
       </c>
       <c r="C60" s="2" t="inlineStr"/>
       <c r="D60" s="2" t="inlineStr"/>
       <c r="E60" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F60" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G60" s="3" t="n">
@@ -19314,7 +19298,7 @@
         <v>0</v>
       </c>
       <c r="O60" s="3" t="n">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="P60" s="3" t="n">
         <v>59</v>
@@ -19335,7 +19319,7 @@
       </c>
       <c r="U60" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V60" s="3" t="inlineStr">
@@ -19352,24 +19336,24 @@
     <row r="61">
       <c r="A61" s="2" t="inlineStr">
         <is>
-          <t>3302070002</t>
+          <t>3402060004</t>
         </is>
       </c>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS SOLUBLE 800GR</t>
+          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C61" s="2" t="inlineStr"/>
       <c r="D61" s="2" t="inlineStr"/>
       <c r="E61" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F61" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G61" s="3" t="n">
@@ -19397,19 +19381,19 @@
         <v>0</v>
       </c>
       <c r="O61" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P61" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q61" s="3" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R61" s="3" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S61" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T61" s="7" t="inlineStr">
         <is>
@@ -19418,12 +19402,12 @@
       </c>
       <c r="U61" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V61" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W61" s="3" t="inlineStr">
@@ -19435,12 +19419,12 @@
     <row r="62">
       <c r="A62" s="2" t="inlineStr">
         <is>
-          <t>3501100015</t>
+          <t>3501050002</t>
         </is>
       </c>
       <c r="B62" s="2" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
+          <t>ACARICIDA ACARIN HEXITIAZOX 10G</t>
         </is>
       </c>
       <c r="C62" s="2" t="inlineStr"/>
@@ -19480,19 +19464,19 @@
         <v>0</v>
       </c>
       <c r="O62" s="3" t="n">
-        <v>20</v>
+        <v>34</v>
       </c>
       <c r="P62" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q62" s="3" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R62" s="3" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S62" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T62" s="7" t="inlineStr">
         <is>
@@ -19501,12 +19485,12 @@
       </c>
       <c r="U62" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.05€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V62" s="3" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W62" s="3" t="inlineStr">
@@ -19518,24 +19502,24 @@
     <row r="63">
       <c r="A63" s="2" t="inlineStr">
         <is>
-          <t>3302200018</t>
+          <t>3904010004</t>
         </is>
       </c>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELOS</t>
+          <t>REPELENTE ELECTRONICO DE AVES Y ANIMALES SALVAJES</t>
         </is>
       </c>
       <c r="C63" s="2" t="inlineStr"/>
       <c r="D63" s="2" t="inlineStr"/>
       <c r="E63" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F63" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G63" s="3" t="n">
@@ -19563,7 +19547,7 @@
         <v>0</v>
       </c>
       <c r="O63" s="3" t="n">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="P63" s="3" t="n">
         <v>59</v>
@@ -19584,7 +19568,7 @@
       </c>
       <c r="U63" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 55.76€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 27.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V63" s="3" t="inlineStr">
@@ -19601,24 +19585,24 @@
     <row r="64">
       <c r="A64" s="2" t="inlineStr">
         <is>
-          <t>3302210003</t>
+          <t>3902020002</t>
         </is>
       </c>
       <c r="B64" s="2" t="inlineStr">
         <is>
-          <t>CANABIUM REGULADOR PH 500ML 10893</t>
+          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
         </is>
       </c>
       <c r="C64" s="2" t="inlineStr"/>
       <c r="D64" s="2" t="inlineStr"/>
       <c r="E64" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F64" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G64" s="3" t="n">
@@ -19667,7 +19651,7 @@
       </c>
       <c r="U64" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V64" s="3" t="inlineStr">
@@ -19684,24 +19668,24 @@
     <row r="65">
       <c r="A65" s="2" t="inlineStr">
         <is>
-          <t>3502020002</t>
+          <t>3302180002</t>
         </is>
       </c>
       <c r="B65" s="2" t="inlineStr">
         <is>
-          <t>FUNGICIDA ROSALES 750ML</t>
+          <t>FERTILIZANTE TOMATES 500ML</t>
         </is>
       </c>
       <c r="C65" s="2" t="inlineStr"/>
       <c r="D65" s="2" t="inlineStr"/>
       <c r="E65" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F65" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G65" s="3" t="n">
@@ -19729,7 +19713,7 @@
         <v>0</v>
       </c>
       <c r="O65" s="3" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="P65" s="3" t="n">
         <v>59</v>
@@ -19750,7 +19734,7 @@
       </c>
       <c r="U65" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 117.35€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V65" s="3" t="inlineStr">
@@ -19767,24 +19751,24 @@
     <row r="66">
       <c r="A66" s="2" t="inlineStr">
         <is>
-          <t>3501100001</t>
+          <t>3302200011</t>
         </is>
       </c>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>ANTIMINADOR 50ML</t>
+          <t>FERRO PLUS REVERDECIENTE</t>
         </is>
       </c>
       <c r="C66" s="2" t="inlineStr"/>
       <c r="D66" s="2" t="inlineStr"/>
       <c r="E66" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F66" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G66" s="3" t="n">
@@ -19812,7 +19796,7 @@
         <v>0</v>
       </c>
       <c r="O66" s="3" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P66" s="3" t="n">
         <v>59</v>
@@ -19833,7 +19817,7 @@
       </c>
       <c r="U66" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.01€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V66" s="3" t="inlineStr">
@@ -19850,12 +19834,12 @@
     <row r="67">
       <c r="A67" s="2" t="inlineStr">
         <is>
-          <t>3502010009</t>
+          <t>3501110005</t>
         </is>
       </c>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>ENFERMEDADES ROSALES 10ML</t>
+          <t>INSECTICIDA GERANIOS LU 750 ML</t>
         </is>
       </c>
       <c r="C67" s="2" t="inlineStr"/>
@@ -19895,7 +19879,7 @@
         <v>0</v>
       </c>
       <c r="O67" s="3" t="n">
-        <v>36</v>
+        <v>54</v>
       </c>
       <c r="P67" s="3" t="n">
         <v>59</v>
@@ -19916,7 +19900,7 @@
       </c>
       <c r="U67" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 108.86€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V67" s="3" t="inlineStr">
@@ -19933,24 +19917,32 @@
     <row r="68">
       <c r="A68" s="2" t="inlineStr">
         <is>
-          <t>3701010002</t>
+          <t>3301040001</t>
         </is>
       </c>
       <c r="B68" s="2" t="inlineStr">
         <is>
-          <t>ROUNDUP GEL GARDEN</t>
-        </is>
-      </c>
-      <c r="C68" s="2" t="inlineStr"/>
-      <c r="D68" s="2" t="inlineStr"/>
+          <t>ABONO LIQUIDO UNIVERSAL</t>
+        </is>
+      </c>
+      <c r="C68" s="2" t="inlineStr">
+        <is>
+          <t>500Ml</t>
+        </is>
+      </c>
+      <c r="D68" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E68" s="3" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F68" s="3" t="inlineStr">
         <is>
-          <t>HERBICIDAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G68" s="3" t="n">
@@ -19978,7 +19970,7 @@
         <v>0</v>
       </c>
       <c r="O68" s="3" t="n">
-        <v>16</v>
+        <v>58</v>
       </c>
       <c r="P68" s="3" t="n">
         <v>59</v>
@@ -19999,7 +19991,7 @@
       </c>
       <c r="U68" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 104.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V68" s="3" t="inlineStr">
@@ -20016,12 +20008,12 @@
     <row r="69">
       <c r="A69" s="2" t="inlineStr">
         <is>
-          <t>3302180002</t>
+          <t>3302210009</t>
         </is>
       </c>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE TOMATES 500ML</t>
+          <t>FERTILIZANTE PLANTAS AROMATICAS 500ML</t>
         </is>
       </c>
       <c r="C69" s="2" t="inlineStr"/>
@@ -20061,7 +20053,7 @@
         <v>0</v>
       </c>
       <c r="O69" s="3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="P69" s="3" t="n">
         <v>59</v>
@@ -20082,7 +20074,7 @@
       </c>
       <c r="U69" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.91€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 4.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V69" s="3" t="inlineStr">
@@ -20099,24 +20091,24 @@
     <row r="70">
       <c r="A70" s="2" t="inlineStr">
         <is>
-          <t>3501100013</t>
+          <t>3402060002</t>
         </is>
       </c>
       <c r="B70" s="2" t="inlineStr">
         <is>
-          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
+          <t>FERTILIZANTE BONSAIS 500ML</t>
         </is>
       </c>
       <c r="C70" s="2" t="inlineStr"/>
       <c r="D70" s="2" t="inlineStr"/>
       <c r="E70" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F70" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G70" s="3" t="n">
@@ -20144,7 +20136,7 @@
         <v>0</v>
       </c>
       <c r="O70" s="3" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="P70" s="3" t="n">
         <v>59</v>
@@ -20165,7 +20157,7 @@
       </c>
       <c r="U70" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V70" s="3" t="inlineStr">
@@ -20182,24 +20174,24 @@
     <row r="71">
       <c r="A71" s="2" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3901030012</t>
         </is>
       </c>
       <c r="B71" s="2" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
+          <t>VITHAL D NATUR ANTIHORMIGAS 450GR</t>
         </is>
       </c>
       <c r="C71" s="2" t="inlineStr"/>
       <c r="D71" s="2" t="inlineStr"/>
       <c r="E71" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F71" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G71" s="3" t="n">
@@ -20227,7 +20219,7 @@
         <v>0</v>
       </c>
       <c r="O71" s="3" t="n">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="P71" s="3" t="n">
         <v>59</v>
@@ -20248,7 +20240,7 @@
       </c>
       <c r="U71" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 75.6€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 76.62€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V71" s="3" t="inlineStr">
@@ -20265,24 +20257,24 @@
     <row r="72">
       <c r="A72" s="2" t="inlineStr">
         <is>
-          <t>3501100021</t>
+          <t>3901050001</t>
         </is>
       </c>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>YNJECT GO PINO (NO VENTA)</t>
+          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
         </is>
       </c>
       <c r="C72" s="2" t="inlineStr"/>
       <c r="D72" s="2" t="inlineStr"/>
       <c r="E72" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F72" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G72" s="3" t="n">
@@ -20310,19 +20302,19 @@
         <v>0</v>
       </c>
       <c r="O72" s="3" t="n">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="P72" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q72" s="3" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R72" s="3" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S72" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T72" s="7" t="inlineStr">
         <is>
@@ -20331,12 +20323,12 @@
       </c>
       <c r="U72" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V72" s="3" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W72" s="3" t="inlineStr">
@@ -20348,24 +20340,24 @@
     <row r="73">
       <c r="A73" s="2" t="inlineStr">
         <is>
-          <t>3902060002</t>
+          <t>3302210001</t>
         </is>
       </c>
       <c r="B73" s="2" t="inlineStr">
         <is>
-          <t>BOMBILLA NOMADIC ANTIMOSQUITO 2EN1</t>
+          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
         </is>
       </c>
       <c r="C73" s="2" t="inlineStr"/>
       <c r="D73" s="2" t="inlineStr"/>
       <c r="E73" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F73" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G73" s="3" t="n">
@@ -20393,7 +20385,7 @@
         <v>0</v>
       </c>
       <c r="O73" s="3" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="P73" s="3" t="n">
         <v>59</v>
@@ -20414,7 +20406,7 @@
       </c>
       <c r="U73" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.79€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V73" s="3" t="inlineStr">
@@ -20431,24 +20423,24 @@
     <row r="74">
       <c r="A74" s="2" t="inlineStr">
         <is>
-          <t>3901040002</t>
+          <t>3301030003</t>
         </is>
       </c>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>ECO STOP INSET PLUS EXT/INT HORMIGAS 500ML</t>
+          <t>ABONO ROZE 1KG</t>
         </is>
       </c>
       <c r="C74" s="2" t="inlineStr"/>
       <c r="D74" s="2" t="inlineStr"/>
       <c r="E74" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F74" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G74" s="3" t="n">
@@ -20476,7 +20468,7 @@
         <v>0</v>
       </c>
       <c r="O74" s="3" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="P74" s="3" t="n">
         <v>59</v>
@@ -20497,7 +20489,7 @@
       </c>
       <c r="U74" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 28.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V74" s="3" t="inlineStr">
@@ -20514,24 +20506,24 @@
     <row r="75">
       <c r="A75" s="2" t="inlineStr">
         <is>
-          <t>3901090001</t>
+          <t>3302070001</t>
         </is>
       </c>
       <c r="B75" s="2" t="inlineStr">
         <is>
-          <t>COLA PARA RATONES RATIGLUE 135G</t>
+          <t>ABONO GERANIOS 750GR</t>
         </is>
       </c>
       <c r="C75" s="2" t="inlineStr"/>
       <c r="D75" s="2" t="inlineStr"/>
       <c r="E75" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F75" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G75" s="3" t="n">
@@ -20559,7 +20551,7 @@
         <v>0</v>
       </c>
       <c r="O75" s="3" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="P75" s="3" t="n">
         <v>59</v>
@@ -20580,7 +20572,7 @@
       </c>
       <c r="U75" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 202.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V75" s="3" t="inlineStr">
@@ -20597,17 +20589,17 @@
     <row r="76">
       <c r="A76" s="2" t="inlineStr">
         <is>
-          <t>3602030003</t>
+          <t>3901030001</t>
         </is>
       </c>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA BIOLOGICO</t>
+          <t>COMPO ANTIHORMIGAS</t>
         </is>
       </c>
       <c r="C76" s="2" t="inlineStr">
         <is>
-          <t>50G</t>
+          <t>500G</t>
         </is>
       </c>
       <c r="D76" s="2" t="inlineStr">
@@ -20617,12 +20609,12 @@
       </c>
       <c r="E76" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F76" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G76" s="3" t="n">
@@ -20650,19 +20642,19 @@
         <v>0</v>
       </c>
       <c r="O76" s="3" t="n">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="P76" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q76" s="3" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R76" s="3" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S76" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T76" s="7" t="inlineStr">
         <is>
@@ -20671,12 +20663,12 @@
       </c>
       <c r="U76" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 321.73€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V76" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W76" s="3" t="inlineStr">
@@ -20688,24 +20680,24 @@
     <row r="77">
       <c r="A77" s="2" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3601050007</t>
         </is>
       </c>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA</t>
+          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
         </is>
       </c>
       <c r="C77" s="2" t="inlineStr"/>
       <c r="D77" s="2" t="inlineStr"/>
       <c r="E77" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F77" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G77" s="3" t="n">
@@ -20733,19 +20725,19 @@
         <v>0</v>
       </c>
       <c r="O77" s="3" t="n">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="P77" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q77" s="3" t="n">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="R77" s="3" t="n">
-        <v>25.56</v>
+        <v>65.56</v>
       </c>
       <c r="S77" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T77" s="7" t="inlineStr">
         <is>
@@ -20754,12 +20746,12 @@
       </c>
       <c r="U77" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.4€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V77" s="3" t="inlineStr">
         <is>
-          <t>Compra 05/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W77" s="3" t="inlineStr">
@@ -20771,24 +20763,24 @@
     <row r="78">
       <c r="A78" s="2" t="inlineStr">
         <is>
-          <t>3903020003</t>
+          <t>3302100001</t>
         </is>
       </c>
       <c r="B78" s="2" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
+          <t>ABONO LIQUIDO PLANTAS ACIDAS</t>
         </is>
       </c>
       <c r="C78" s="2" t="inlineStr"/>
       <c r="D78" s="2" t="inlineStr"/>
       <c r="E78" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F78" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G78" s="3" t="n">
@@ -20816,7 +20808,7 @@
         <v>0</v>
       </c>
       <c r="O78" s="3" t="n">
-        <v>2</v>
+        <v>45</v>
       </c>
       <c r="P78" s="3" t="n">
         <v>59</v>
@@ -20837,7 +20829,7 @@
       </c>
       <c r="U78" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 99.22€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V78" s="3" t="inlineStr">
@@ -20854,12 +20846,12 @@
     <row r="79">
       <c r="A79" s="2" t="inlineStr">
         <is>
-          <t>3902070008</t>
+          <t>3903020003</t>
         </is>
       </c>
       <c r="B79" s="2" t="inlineStr">
         <is>
-          <t>FERO-TRAMPA FRUIT</t>
+          <t>AHUYENTADOR ROEDORES ELECTRICO 400M2</t>
         </is>
       </c>
       <c r="C79" s="2" t="inlineStr"/>
@@ -20899,7 +20891,7 @@
         <v>0</v>
       </c>
       <c r="O79" s="3" t="n">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="P79" s="3" t="n">
         <v>59</v>
@@ -20920,7 +20912,7 @@
       </c>
       <c r="U79" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.87€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.28€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V79" s="3" t="inlineStr">
@@ -20937,24 +20929,24 @@
     <row r="80">
       <c r="A80" s="2" t="inlineStr">
         <is>
-          <t>3402050003</t>
+          <t>3501100013</t>
         </is>
       </c>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>COMPO ABRILLANTADOR 600ML</t>
+          <t>PLATINUM 10 DIRECTO ARBOL CURATIVO</t>
         </is>
       </c>
       <c r="C80" s="2" t="inlineStr"/>
       <c r="D80" s="2" t="inlineStr"/>
       <c r="E80" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F80" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G80" s="3" t="n">
@@ -20982,7 +20974,7 @@
         <v>0</v>
       </c>
       <c r="O80" s="3" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="P80" s="3" t="n">
         <v>59</v>
@@ -21003,7 +20995,7 @@
       </c>
       <c r="U80" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 56.67€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 96.11€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V80" s="3" t="inlineStr">
@@ -21020,24 +21012,24 @@
     <row r="81">
       <c r="A81" s="2" t="inlineStr">
         <is>
-          <t>3902070004</t>
+          <t>3502010014</t>
         </is>
       </c>
       <c r="B81" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN CINTA ENCOLADA MOSCAS</t>
+          <t>REVUS ANTIMILDIU 20ML</t>
         </is>
       </c>
       <c r="C81" s="2" t="inlineStr"/>
       <c r="D81" s="2" t="inlineStr"/>
       <c r="E81" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F81" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G81" s="3" t="n">
@@ -21065,7 +21057,7 @@
         <v>0</v>
       </c>
       <c r="O81" s="3" t="n">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="P81" s="3" t="n">
         <v>59</v>
@@ -21086,7 +21078,7 @@
       </c>
       <c r="U81" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 14.7€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V81" s="3" t="inlineStr">
@@ -21103,12 +21095,12 @@
     <row r="82">
       <c r="A82" s="2" t="inlineStr">
         <is>
-          <t>3901030009</t>
+          <t>3902040001</t>
         </is>
       </c>
       <c r="B82" s="2" t="inlineStr">
         <is>
-          <t>CEBO ANTIHORMIGAS 10GR</t>
+          <t>ANTIMOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C82" s="2" t="inlineStr"/>
@@ -21148,7 +21140,7 @@
         <v>0</v>
       </c>
       <c r="O82" s="3" t="n">
-        <v>49</v>
+        <v>6</v>
       </c>
       <c r="P82" s="3" t="n">
         <v>59</v>
@@ -21169,7 +21161,7 @@
       </c>
       <c r="U82" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 131.37€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V82" s="3" t="inlineStr">
@@ -21186,32 +21178,24 @@
     <row r="83">
       <c r="A83" s="2" t="inlineStr">
         <is>
-          <t>3901030011</t>
+          <t>3502010001</t>
         </is>
       </c>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>KB NEXA HORMIGAS GRANULADO</t>
-        </is>
-      </c>
-      <c r="C83" s="2" t="inlineStr">
-        <is>
-          <t>250G</t>
-        </is>
-      </c>
-      <c r="D83" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ABONO ANTIAMARRON CONIFERAS 1KG CUBO</t>
+        </is>
+      </c>
+      <c r="C83" s="2" t="inlineStr"/>
+      <c r="D83" s="2" t="inlineStr"/>
       <c r="E83" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F83" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G83" s="3" t="n">
@@ -21239,7 +21223,7 @@
         <v>0</v>
       </c>
       <c r="O83" s="3" t="n">
-        <v>38</v>
+        <v>4</v>
       </c>
       <c r="P83" s="3" t="n">
         <v>59</v>
@@ -21260,7 +21244,7 @@
       </c>
       <c r="U83" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 127.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.72€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V83" s="3" t="inlineStr">
@@ -21277,12 +21261,12 @@
     <row r="84">
       <c r="A84" s="2" t="inlineStr">
         <is>
-          <t>3901050006</t>
+          <t>3902070005</t>
         </is>
       </c>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>TRAMPA SICUR TRAMP 2 UDS</t>
+          <t>ECOFIN RECAMBIO CEBO ATRAYENTE MOSCAS</t>
         </is>
       </c>
       <c r="C84" s="2" t="inlineStr"/>
@@ -21322,7 +21306,7 @@
         <v>0</v>
       </c>
       <c r="O84" s="3" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="P84" s="3" t="n">
         <v>59</v>
@@ -21343,7 +21327,7 @@
       </c>
       <c r="U84" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 10.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V84" s="3" t="inlineStr">
@@ -21360,32 +21344,24 @@
     <row r="85">
       <c r="A85" s="2" t="inlineStr">
         <is>
-          <t>3301030001</t>
+          <t>3901090004</t>
         </is>
       </c>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>ABONO AZUL UNIVERSAL BLAUKORN</t>
-        </is>
-      </c>
-      <c r="C85" s="2" t="inlineStr">
-        <is>
-          <t>2,5Kg</t>
-        </is>
-      </c>
-      <c r="D85" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>ECOFIN TRAMPA RATONES</t>
+        </is>
+      </c>
+      <c r="C85" s="2" t="inlineStr"/>
+      <c r="D85" s="2" t="inlineStr"/>
       <c r="E85" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F85" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G85" s="3" t="n">
@@ -21413,7 +21389,7 @@
         <v>0</v>
       </c>
       <c r="O85" s="3" t="n">
-        <v>122</v>
+        <v>20</v>
       </c>
       <c r="P85" s="3" t="n">
         <v>59</v>
@@ -21434,7 +21410,7 @@
       </c>
       <c r="U85" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 495.32€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 77.14€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V85" s="3" t="inlineStr">
@@ -21451,24 +21427,24 @@
     <row r="86">
       <c r="A86" s="2" t="inlineStr">
         <is>
-          <t>3501100002</t>
+          <t>3302210003</t>
         </is>
       </c>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>BIOFLOWER TIERRA DE DIATOMEAS 300GR</t>
+          <t>CANABIUM REGULADOR PH 500ML 10893</t>
         </is>
       </c>
       <c r="C86" s="2" t="inlineStr"/>
       <c r="D86" s="2" t="inlineStr"/>
       <c r="E86" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F86" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G86" s="3" t="n">
@@ -21496,7 +21472,7 @@
         <v>0</v>
       </c>
       <c r="O86" s="3" t="n">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="P86" s="3" t="n">
         <v>59</v>
@@ -21517,7 +21493,7 @@
       </c>
       <c r="U86" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 159.07€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 58.13€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V86" s="3" t="inlineStr">
@@ -21534,16 +21510,24 @@
     <row r="87">
       <c r="A87" s="2" t="inlineStr">
         <is>
-          <t>3402060004</t>
+          <t>3403010003</t>
         </is>
       </c>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>BIO FERTILIZANTE BONSAIS 500ML</t>
-        </is>
-      </c>
-      <c r="C87" s="2" t="inlineStr"/>
-      <c r="D87" s="2" t="inlineStr"/>
+          <t>ABONO CESPED GRANDES JARDINES</t>
+        </is>
+      </c>
+      <c r="C87" s="2" t="inlineStr">
+        <is>
+          <t>7I5KG</t>
+        </is>
+      </c>
+      <c r="D87" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E87" s="3" t="inlineStr">
         <is>
           <t>34</t>
@@ -21579,19 +21563,19 @@
         <v>0</v>
       </c>
       <c r="O87" s="3" t="n">
-        <v>12</v>
+        <v>39</v>
       </c>
       <c r="P87" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q87" s="3" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R87" s="3" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S87" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T87" s="7" t="inlineStr">
         <is>
@@ -21600,12 +21584,12 @@
       </c>
       <c r="U87" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 653.02€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V87" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W87" s="3" t="inlineStr">
@@ -21617,24 +21601,24 @@
     <row r="88">
       <c r="A88" s="2" t="inlineStr">
         <is>
-          <t>3501040002</t>
+          <t>3901110003</t>
         </is>
       </c>
       <c r="B88" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGON 750ML</t>
+          <t>PORTACEBO RATAS</t>
         </is>
       </c>
       <c r="C88" s="2" t="inlineStr"/>
       <c r="D88" s="2" t="inlineStr"/>
       <c r="E88" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F88" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G88" s="3" t="n">
@@ -21662,7 +21646,7 @@
         <v>0</v>
       </c>
       <c r="O88" s="3" t="n">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="P88" s="3" t="n">
         <v>59</v>
@@ -21683,7 +21667,7 @@
       </c>
       <c r="U88" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 44.48€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V88" s="3" t="inlineStr">
@@ -21700,24 +21684,24 @@
     <row r="89">
       <c r="A89" s="2" t="inlineStr">
         <is>
-          <t>3901030002</t>
+          <t>3302070002</t>
         </is>
       </c>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
+          <t>ABONO GERANIOS SOLUBLE 800GR</t>
         </is>
       </c>
       <c r="C89" s="2" t="inlineStr"/>
       <c r="D89" s="2" t="inlineStr"/>
       <c r="E89" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F89" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G89" s="3" t="n">
@@ -21745,7 +21729,7 @@
         <v>0</v>
       </c>
       <c r="O89" s="3" t="n">
-        <v>76</v>
+        <v>20</v>
       </c>
       <c r="P89" s="3" t="n">
         <v>59</v>
@@ -21766,7 +21750,7 @@
       </c>
       <c r="U89" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 68.6€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V89" s="3" t="inlineStr">
@@ -21783,24 +21767,24 @@
     <row r="90">
       <c r="A90" s="2" t="inlineStr">
         <is>
-          <t>3902010001</t>
+          <t>3403040000</t>
         </is>
       </c>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
+          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
         </is>
       </c>
       <c r="C90" s="2" t="inlineStr"/>
       <c r="D90" s="2" t="inlineStr"/>
       <c r="E90" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F90" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G90" s="3" t="n">
@@ -21828,7 +21812,7 @@
         <v>0</v>
       </c>
       <c r="O90" s="3" t="n">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="P90" s="3" t="n">
         <v>59</v>
@@ -21849,7 +21833,7 @@
       </c>
       <c r="U90" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V90" s="3" t="inlineStr">
@@ -21866,12 +21850,12 @@
     <row r="91">
       <c r="A91" s="2" t="inlineStr">
         <is>
-          <t>3502010005</t>
+          <t>3501080003</t>
         </is>
       </c>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>AZUFRE 450 GRS.</t>
+          <t>LISTO PARA DILUIR ANTICOCHINILLAS 1L</t>
         </is>
       </c>
       <c r="C91" s="2" t="inlineStr"/>
@@ -21911,7 +21895,7 @@
         <v>0</v>
       </c>
       <c r="O91" s="3" t="n">
-        <v>16</v>
+        <v>25</v>
       </c>
       <c r="P91" s="3" t="n">
         <v>59</v>
@@ -21932,7 +21916,7 @@
       </c>
       <c r="U91" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 50.62€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 114.45€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V91" s="3" t="inlineStr">
@@ -21949,24 +21933,24 @@
     <row r="92">
       <c r="A92" s="2" t="inlineStr">
         <is>
-          <t>3301030003</t>
+          <t>3902010001</t>
         </is>
       </c>
       <c r="B92" s="2" t="inlineStr">
         <is>
-          <t>ABONO ROZE 1KG</t>
+          <t>ECOFIN ATRAYENTE AVISPAS 150ML</t>
         </is>
       </c>
       <c r="C92" s="2" t="inlineStr"/>
       <c r="D92" s="2" t="inlineStr"/>
       <c r="E92" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F92" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G92" s="3" t="n">
@@ -21994,7 +21978,7 @@
         <v>0</v>
       </c>
       <c r="O92" s="3" t="n">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="P92" s="3" t="n">
         <v>59</v>
@@ -22015,7 +21999,7 @@
       </c>
       <c r="U92" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 22.82€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 33.26€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V92" s="3" t="inlineStr">
@@ -22032,24 +22016,32 @@
     <row r="93">
       <c r="A93" s="2" t="inlineStr">
         <is>
-          <t>3501110005</t>
+          <t>3602030003</t>
         </is>
       </c>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA GERANIOS LU 750 ML</t>
-        </is>
-      </c>
-      <c r="C93" s="2" t="inlineStr"/>
-      <c r="D93" s="2" t="inlineStr"/>
+          <t>COMPO FUNGICIDA BIOLOGICO</t>
+        </is>
+      </c>
+      <c r="C93" s="2" t="inlineStr">
+        <is>
+          <t>50G</t>
+        </is>
+      </c>
+      <c r="D93" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E93" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F93" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G93" s="3" t="n">
@@ -22077,19 +22069,19 @@
         <v>0</v>
       </c>
       <c r="O93" s="3" t="n">
-        <v>54</v>
+        <v>30</v>
       </c>
       <c r="P93" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q93" s="3" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R93" s="3" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S93" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T93" s="7" t="inlineStr">
         <is>
@@ -22098,12 +22090,12 @@
       </c>
       <c r="U93" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 174.64€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V93" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W93" s="3" t="inlineStr">
@@ -22115,24 +22107,32 @@
     <row r="94">
       <c r="A94" s="2" t="inlineStr">
         <is>
-          <t>3302200017</t>
+          <t>3502010011</t>
         </is>
       </c>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>REGENERADOR SUELO 250ML</t>
-        </is>
-      </c>
-      <c r="C94" s="2" t="inlineStr"/>
-      <c r="D94" s="2" t="inlineStr"/>
+          <t>COMPO FUNGICIDA PHITOFTORA</t>
+        </is>
+      </c>
+      <c r="C94" s="2" t="inlineStr">
+        <is>
+          <t>45GR</t>
+        </is>
+      </c>
+      <c r="D94" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E94" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F94" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G94" s="3" t="n">
@@ -22160,19 +22160,19 @@
         <v>0</v>
       </c>
       <c r="O94" s="3" t="n">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="P94" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q94" s="3" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R94" s="3" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S94" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T94" s="7" t="inlineStr">
         <is>
@@ -22181,12 +22181,12 @@
       </c>
       <c r="U94" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V94" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W94" s="3" t="inlineStr">
@@ -22198,24 +22198,24 @@
     <row r="95">
       <c r="A95" s="2" t="inlineStr">
         <is>
-          <t>3402020002</t>
+          <t>3901030010</t>
         </is>
       </c>
       <c r="B95" s="2" t="inlineStr">
         <is>
-          <t>BIO FORTIGO FLORES 1L</t>
+          <t>ECOFIN CINTA ARBORICOLA</t>
         </is>
       </c>
       <c r="C95" s="2" t="inlineStr"/>
       <c r="D95" s="2" t="inlineStr"/>
       <c r="E95" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F95" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G95" s="3" t="n">
@@ -22243,7 +22243,7 @@
         <v>0</v>
       </c>
       <c r="O95" s="3" t="n">
-        <v>42</v>
+        <v>24</v>
       </c>
       <c r="P95" s="3" t="n">
         <v>59</v>
@@ -22264,7 +22264,7 @@
       </c>
       <c r="U95" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 94.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V95" s="3" t="inlineStr">
@@ -22281,24 +22281,24 @@
     <row r="96">
       <c r="A96" s="2" t="inlineStr">
         <is>
-          <t>3502020003</t>
+          <t>3302200017</t>
         </is>
       </c>
       <c r="B96" s="2" t="inlineStr">
         <is>
-          <t>VITHAL FUNGICIDA ARMICARB GARDEN</t>
+          <t>REGENERADOR SUELO 250ML</t>
         </is>
       </c>
       <c r="C96" s="2" t="inlineStr"/>
       <c r="D96" s="2" t="inlineStr"/>
       <c r="E96" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F96" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G96" s="3" t="n">
@@ -22326,7 +22326,7 @@
         <v>0</v>
       </c>
       <c r="O96" s="3" t="n">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="P96" s="3" t="n">
         <v>59</v>
@@ -22347,7 +22347,7 @@
       </c>
       <c r="U96" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 36.55€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 51.8€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V96" s="3" t="inlineStr">
@@ -22364,24 +22364,24 @@
     <row r="97">
       <c r="A97" s="2" t="inlineStr">
         <is>
-          <t>3302210001</t>
+          <t>3901040003</t>
         </is>
       </c>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>CANABIUM BIO CRECIMIENTO 1000ML CAJA</t>
+          <t>LU ANTIHORMIGAS 750ML CAJA</t>
         </is>
       </c>
       <c r="C97" s="2" t="inlineStr"/>
       <c r="D97" s="2" t="inlineStr"/>
       <c r="E97" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F97" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G97" s="3" t="n">
@@ -22409,7 +22409,7 @@
         <v>0</v>
       </c>
       <c r="O97" s="3" t="n">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="P97" s="3" t="n">
         <v>59</v>
@@ -22430,7 +22430,7 @@
       </c>
       <c r="U97" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.29€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 83.16€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V97" s="3" t="inlineStr">
@@ -22447,32 +22447,24 @@
     <row r="98">
       <c r="A98" s="2" t="inlineStr">
         <is>
-          <t>3502010011</t>
+          <t>3901140002</t>
         </is>
       </c>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>COMPO FUNGICIDA PHITOFTORA</t>
-        </is>
-      </c>
-      <c r="C98" s="2" t="inlineStr">
-        <is>
-          <t>45GR</t>
-        </is>
-      </c>
-      <c r="D98" s="2" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>INSECTICIDA DESCARGA TOTAL 150ML 20597</t>
+        </is>
+      </c>
+      <c r="C98" s="2" t="inlineStr"/>
+      <c r="D98" s="2" t="inlineStr"/>
       <c r="E98" s="3" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F98" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G98" s="3" t="n">
@@ -22500,19 +22492,19 @@
         <v>0</v>
       </c>
       <c r="O98" s="3" t="n">
-        <v>80</v>
+        <v>18</v>
       </c>
       <c r="P98" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q98" s="3" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R98" s="3" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S98" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T98" s="7" t="inlineStr">
         <is>
@@ -22521,12 +22513,12 @@
       </c>
       <c r="U98" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 61.61€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V98" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W98" s="3" t="inlineStr">
@@ -22538,24 +22530,24 @@
     <row r="99">
       <c r="A99" s="2" t="inlineStr">
         <is>
-          <t>3903020005</t>
+          <t>3501140005</t>
         </is>
       </c>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>AHUYENTADOR INSECTOS VOLADORES 50M2 Y RATON</t>
+          <t>INSECTRIN INSECTICIDA RASTREROS 200GR</t>
         </is>
       </c>
       <c r="C99" s="2" t="inlineStr"/>
       <c r="D99" s="2" t="inlineStr"/>
       <c r="E99" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F99" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G99" s="3" t="n">
@@ -22583,7 +22575,7 @@
         <v>0</v>
       </c>
       <c r="O99" s="3" t="n">
-        <v>6</v>
+        <v>42</v>
       </c>
       <c r="P99" s="3" t="n">
         <v>59</v>
@@ -22604,7 +22596,7 @@
       </c>
       <c r="U99" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 39.69€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 80.85€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V99" s="3" t="inlineStr">
@@ -22621,12 +22613,12 @@
     <row r="100">
       <c r="A100" s="2" t="inlineStr">
         <is>
-          <t>3903010001</t>
+          <t>3901130001</t>
         </is>
       </c>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>BARRERA POLICARBONATO -ACERO ALA STOP 1.5M</t>
+          <t>FIN CHINCHES Y PULGAS 150ML</t>
         </is>
       </c>
       <c r="C100" s="2" t="inlineStr"/>
@@ -22687,7 +22679,7 @@
       </c>
       <c r="U100" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 30.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 15.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V100" s="3" t="inlineStr">
@@ -22704,24 +22696,24 @@
     <row r="101">
       <c r="A101" s="2" t="inlineStr">
         <is>
-          <t>3401040003</t>
+          <t>3901030002</t>
         </is>
       </c>
       <c r="B101" s="2" t="inlineStr">
         <is>
-          <t>FERTILIZANTE GUANO ROSALES 1 KG.</t>
+          <t>ANTIHORMIGAS CEBO TRAMPA BLISTER</t>
         </is>
       </c>
       <c r="C101" s="2" t="inlineStr"/>
       <c r="D101" s="2" t="inlineStr"/>
       <c r="E101" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F101" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G101" s="3" t="n">
@@ -22749,7 +22741,7 @@
         <v>0</v>
       </c>
       <c r="O101" s="3" t="n">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="P101" s="3" t="n">
         <v>59</v>
@@ -22770,7 +22762,7 @@
       </c>
       <c r="U101" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 86.24€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 224.5€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V101" s="3" t="inlineStr">
@@ -22787,24 +22779,24 @@
     <row r="102">
       <c r="A102" s="2" t="inlineStr">
         <is>
-          <t>3902070003</t>
+          <t>3402020002</t>
         </is>
       </c>
       <c r="B102" s="2" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS LARVAS MOSQUIT 20ML</t>
+          <t>BIO FORTIGO FLORES 1L</t>
         </is>
       </c>
       <c r="C102" s="2" t="inlineStr"/>
       <c r="D102" s="2" t="inlineStr"/>
       <c r="E102" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F102" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G102" s="3" t="n">
@@ -22832,7 +22824,7 @@
         <v>0</v>
       </c>
       <c r="O102" s="3" t="n">
-        <v>8</v>
+        <v>42</v>
       </c>
       <c r="P102" s="3" t="n">
         <v>59</v>
@@ -22853,7 +22845,7 @@
       </c>
       <c r="U102" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 18.31€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 145.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V102" s="3" t="inlineStr">
@@ -22870,24 +22862,24 @@
     <row r="103">
       <c r="A103" s="2" t="inlineStr">
         <is>
-          <t>3902020002</t>
+          <t>3302150003</t>
         </is>
       </c>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS ANTIAVISPAS 500ML</t>
+          <t>COMPO BIO CITRICOS 750GR</t>
         </is>
       </c>
       <c r="C103" s="2" t="inlineStr"/>
       <c r="D103" s="2" t="inlineStr"/>
       <c r="E103" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F103" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G103" s="3" t="n">
@@ -22915,7 +22907,7 @@
         <v>0</v>
       </c>
       <c r="O103" s="3" t="n">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="P103" s="3" t="n">
         <v>59</v>
@@ -22936,7 +22928,7 @@
       </c>
       <c r="U103" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 65.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 64.89€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V103" s="3" t="inlineStr">
@@ -22953,24 +22945,24 @@
     <row r="104">
       <c r="A104" s="2" t="inlineStr">
         <is>
-          <t>3902040002</t>
+          <t>3501140001</t>
         </is>
       </c>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS MOSQUITO TIGRE 1L</t>
+          <t>AVIDUST 1KG</t>
         </is>
       </c>
       <c r="C104" s="2" t="inlineStr"/>
       <c r="D104" s="2" t="inlineStr"/>
       <c r="E104" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F104" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G104" s="3" t="n">
@@ -22998,7 +22990,7 @@
         <v>0</v>
       </c>
       <c r="O104" s="3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="P104" s="3" t="n">
         <v>59</v>
@@ -23019,7 +23011,7 @@
       </c>
       <c r="U104" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 9.24€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V104" s="3" t="inlineStr">
@@ -23036,24 +23028,24 @@
     <row r="105">
       <c r="A105" s="2" t="inlineStr">
         <is>
-          <t>3901110003</t>
+          <t>3302210022</t>
         </is>
       </c>
       <c r="B105" s="2" t="inlineStr">
         <is>
-          <t>PORTACEBO RATAS</t>
+          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
         </is>
       </c>
       <c r="C105" s="2" t="inlineStr"/>
       <c r="D105" s="2" t="inlineStr"/>
       <c r="E105" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F105" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G105" s="3" t="n">
@@ -23081,19 +23073,19 @@
         <v>0</v>
       </c>
       <c r="O105" s="3" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="P105" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q105" s="3" t="n">
-        <v>59</v>
+        <v>22</v>
       </c>
       <c r="R105" s="3" t="n">
-        <v>65.56</v>
+        <v>24.44</v>
       </c>
       <c r="S105" s="4" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T105" s="7" t="inlineStr">
         <is>
@@ -23102,12 +23094,12 @@
       </c>
       <c r="U105" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 6.27€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V105" s="3" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 06/02/2025</t>
         </is>
       </c>
       <c r="W105" s="3" t="inlineStr">
@@ -23119,12 +23111,12 @@
     <row r="106">
       <c r="A106" s="2" t="inlineStr">
         <is>
-          <t>3501100022</t>
+          <t>3501100001</t>
         </is>
       </c>
       <c r="B106" s="2" t="inlineStr">
         <is>
-          <t>YNJECT GO PALMERAS (NO VENTA)</t>
+          <t>ANTIMINADOR 50ML</t>
         </is>
       </c>
       <c r="C106" s="2" t="inlineStr"/>
@@ -23164,19 +23156,19 @@
         <v>0</v>
       </c>
       <c r="O106" s="3" t="n">
-        <v>50</v>
+        <v>32</v>
       </c>
       <c r="P106" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q106" s="3" t="n">
-        <v>2</v>
+        <v>59</v>
       </c>
       <c r="R106" s="3" t="n">
-        <v>2.22</v>
+        <v>65.56</v>
       </c>
       <c r="S106" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T106" s="7" t="inlineStr">
         <is>
@@ -23185,12 +23177,12 @@
       </c>
       <c r="U106" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 107.07€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V106" s="3" t="inlineStr">
         <is>
-          <t>Compra 26/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W106" s="3" t="inlineStr">
@@ -23202,12 +23194,12 @@
     <row r="107">
       <c r="A107" s="2" t="inlineStr">
         <is>
-          <t>3601050001</t>
+          <t>3601040001</t>
         </is>
       </c>
       <c r="B107" s="2" t="inlineStr">
         <is>
-          <t>BIO INSECTICIDA STOP 750ML</t>
+          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
         </is>
       </c>
       <c r="C107" s="2" t="inlineStr"/>
@@ -23247,19 +23239,19 @@
         <v>0</v>
       </c>
       <c r="O107" s="3" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="P107" s="3" t="n">
         <v>59</v>
       </c>
       <c r="Q107" s="3" t="n">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="R107" s="3" t="n">
-        <v>24.44</v>
+        <v>65.56</v>
       </c>
       <c r="S107" s="4" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="T107" s="7" t="inlineStr">
         <is>
@@ -23268,12 +23260,12 @@
       </c>
       <c r="U107" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V107" s="3" t="inlineStr">
         <is>
-          <t>Compra 06/02/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W107" s="3" t="inlineStr">
@@ -23285,24 +23277,24 @@
     <row r="108">
       <c r="A108" s="2" t="inlineStr">
         <is>
-          <t>3403040000</t>
+          <t>3302210004</t>
         </is>
       </c>
       <c r="B108" s="2" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CESPED CON HERBICIDA</t>
+          <t>CANABIUM REGULADOR PH 500ML DOWN</t>
         </is>
       </c>
       <c r="C108" s="2" t="inlineStr"/>
       <c r="D108" s="2" t="inlineStr"/>
       <c r="E108" s="3" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F108" s="3" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G108" s="3" t="n">
@@ -23330,7 +23322,7 @@
         <v>0</v>
       </c>
       <c r="O108" s="3" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="P108" s="3" t="n">
         <v>59</v>
@@ -23351,7 +23343,7 @@
       </c>
       <c r="U108" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 21.17€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V108" s="3" t="inlineStr">
@@ -23368,24 +23360,32 @@
     <row r="109">
       <c r="A109" s="2" t="inlineStr">
         <is>
-          <t>3302170005</t>
+          <t>3403030001</t>
         </is>
       </c>
       <c r="B109" s="2" t="inlineStr">
         <is>
-          <t>VARITAS HUERTO FRUTALES</t>
-        </is>
-      </c>
-      <c r="C109" s="2" t="inlineStr"/>
-      <c r="D109" s="2" t="inlineStr"/>
+          <t>ABONO CESPED LARGA DURACION</t>
+        </is>
+      </c>
+      <c r="C109" s="2" t="inlineStr">
+        <is>
+          <t>3KG</t>
+        </is>
+      </c>
+      <c r="D109" s="2" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E109" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F109" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G109" s="3" t="n">
@@ -23413,7 +23413,7 @@
         <v>0</v>
       </c>
       <c r="O109" s="3" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="P109" s="3" t="n">
         <v>59</v>
@@ -23434,7 +23434,7 @@
       </c>
       <c r="U109" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 34.02€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 123.23€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V109" s="3" t="inlineStr">
@@ -23451,24 +23451,24 @@
     <row r="110">
       <c r="A110" s="2" t="inlineStr">
         <is>
-          <t>3302200008</t>
+          <t>3401040008</t>
         </is>
       </c>
       <c r="B110" s="2" t="inlineStr">
         <is>
-          <t>AZULADOR DE HORTENSIAS 800GR</t>
+          <t>BIOFLOWER FERTILIZANTE UNIVERSAL 1L</t>
         </is>
       </c>
       <c r="C110" s="2" t="inlineStr"/>
       <c r="D110" s="2" t="inlineStr"/>
       <c r="E110" s="3" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F110" s="3" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G110" s="3" t="n">
@@ -23496,7 +23496,7 @@
         <v>0</v>
       </c>
       <c r="O110" s="3" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P110" s="3" t="n">
         <v>59</v>
@@ -23517,7 +23517,7 @@
       </c>
       <c r="U110" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 88.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.25€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V110" s="3" t="inlineStr">
@@ -23534,24 +23534,24 @@
     <row r="111">
       <c r="A111" s="2" t="inlineStr">
         <is>
-          <t>3601040001</t>
+          <t>3501100011</t>
         </is>
       </c>
       <c r="B111" s="2" t="inlineStr">
         <is>
-          <t>BIO INSECT STOP CONCENTRADO 250ML</t>
+          <t>PACK FRUTALES VITHAL</t>
         </is>
       </c>
       <c r="C111" s="2" t="inlineStr"/>
       <c r="D111" s="2" t="inlineStr"/>
       <c r="E111" s="3" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F111" s="3" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G111" s="3" t="n">
@@ -23579,7 +23579,7 @@
         <v>0</v>
       </c>
       <c r="O111" s="3" t="n">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="P111" s="3" t="n">
         <v>59</v>
@@ -23600,7 +23600,7 @@
       </c>
       <c r="U111" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 140.34€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 2.48€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V111" s="3" t="inlineStr">
@@ -23617,12 +23617,12 @@
     <row r="112">
       <c r="A112" s="2" t="inlineStr">
         <is>
-          <t>3901050001</t>
+          <t>3902070006</t>
         </is>
       </c>
       <c r="B112" s="2" t="inlineStr">
         <is>
-          <t>AHUYENTADOR ROEDORES ELECTRONICO</t>
+          <t>ECOFIN TRAMPA MOSCAS</t>
         </is>
       </c>
       <c r="C112" s="2" t="inlineStr"/>
@@ -23662,7 +23662,7 @@
         <v>0</v>
       </c>
       <c r="O112" s="3" t="n">
-        <v>8</v>
+        <v>38</v>
       </c>
       <c r="P112" s="3" t="n">
         <v>59</v>
@@ -23683,7 +23683,7 @@
       </c>
       <c r="U112" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 81.93€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 147.9€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V112" s="3" t="inlineStr">
@@ -23700,24 +23700,24 @@
     <row r="113">
       <c r="A113" s="2" t="inlineStr">
         <is>
-          <t>3901080002</t>
+          <t>3501100005</t>
         </is>
       </c>
       <c r="B113" s="2" t="inlineStr">
         <is>
-          <t>INSECTICIDA LACA FIN RASTREROS 650ML</t>
+          <t>INSECTICIDA FIN MOSQUITOS EXTERIORES 650ML</t>
         </is>
       </c>
       <c r="C113" s="2" t="inlineStr"/>
       <c r="D113" s="2" t="inlineStr"/>
       <c r="E113" s="3" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F113" s="3" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G113" s="3" t="n">
@@ -23745,7 +23745,7 @@
         <v>0</v>
       </c>
       <c r="O113" s="3" t="n">
-        <v>30</v>
+        <v>151</v>
       </c>
       <c r="P113" s="3" t="n">
         <v>59</v>
@@ -23766,7 +23766,7 @@
       </c>
       <c r="U113" s="2" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 115.92€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 563.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V113" s="3" t="inlineStr">
